--- a/Text Manipulation/Workbook 1-Text Manipulation.xlsx
+++ b/Text Manipulation/Workbook 1-Text Manipulation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CindyDavid\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sites\WYWM_DataAnalysisExcel\Text Manipulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4805BE89-6FEC-4F84-B6DF-CF6D524E13EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37868D4C-EA5E-450F-BA61-95DA820393A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="15000" activeTab="1" xr2:uid="{682ECE72-A850-4EEA-BAD4-BC6FFFC5916E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{682ECE72-A850-4EEA-BAD4-BC6FFFC5916E}"/>
   </bookViews>
   <sheets>
     <sheet name="Objectives" sheetId="3" r:id="rId1"/>
@@ -27,14 +27,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -49,26 +41,53 @@
   <commentList>
     <comment ref="J4" authorId="0" shapeId="0" xr:uid="{3FE8B248-39B8-4447-8066-0ED53AD9ECEA}">
       <text>
-        <t>[Commentaire à thread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
 Commentaire :
     LEFT</t>
+        </r>
       </text>
     </comment>
     <comment ref="K4" authorId="1" shapeId="0" xr:uid="{FC5D4BE7-9D34-49B1-A15A-6F29062E9D82}">
       <text>
-        <t>[Commentaire à thread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
 Commentaire :
     RIGHT</t>
+        </r>
       </text>
     </comment>
     <comment ref="L4" authorId="2" shapeId="0" xr:uid="{2B758AFC-9358-40E1-84CB-52142C764829}">
       <text>
-        <t>[Commentaire à thread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
 Commentaire :
     MID</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -76,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="596">
   <si>
     <t>Method</t>
   </si>
@@ -1679,6 +1698,198 @@
   </si>
   <si>
     <t xml:space="preserve">Hyundai </t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>3526 HIGH ST</t>
+  </si>
+  <si>
+    <t>SACRAMENTO</t>
+  </si>
+  <si>
+    <t>51 OMAHA CT</t>
+  </si>
+  <si>
+    <t>2796 BRANCH ST</t>
+  </si>
+  <si>
+    <t>2805 JANETTE WAY</t>
+  </si>
+  <si>
+    <t>6001 MCMAHON DR</t>
+  </si>
+  <si>
+    <t>5828 PEPPERMILL CT</t>
+  </si>
+  <si>
+    <t>6048 OGDEN NASH WAY</t>
+  </si>
+  <si>
+    <t>2561 19TH AVE</t>
+  </si>
+  <si>
+    <t>11150 TRINITY RIVER DR Unit 114</t>
+  </si>
+  <si>
+    <t>RANCHO CORDOVA</t>
+  </si>
+  <si>
+    <t>7325 10TH ST</t>
+  </si>
+  <si>
+    <t>RIO LINDA</t>
+  </si>
+  <si>
+    <t>645 MORRISON AVE</t>
+  </si>
+  <si>
+    <t>4085 FAWN CIR</t>
+  </si>
+  <si>
+    <t>2930 LA ROSA RD</t>
+  </si>
+  <si>
+    <t>2113 KIRK WAY</t>
+  </si>
+  <si>
+    <t>4533 LOCH HAVEN WAY</t>
+  </si>
+  <si>
+    <t>7340 HAMDEN PL</t>
+  </si>
+  <si>
+    <t>6715 6TH ST</t>
+  </si>
+  <si>
+    <t>6236 LONGFORD DR Unit 1</t>
+  </si>
+  <si>
+    <t>CITRUS HEIGHTS</t>
+  </si>
+  <si>
+    <t>250 PERALTA AVE</t>
+  </si>
+  <si>
+    <t>113 LEEWILL AVE</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Reid</t>
+  </si>
+  <si>
+    <t>Cyril</t>
+  </si>
+  <si>
+    <t>Mora</t>
+  </si>
+  <si>
+    <t>Estela</t>
+  </si>
+  <si>
+    <t>Vega</t>
+  </si>
+  <si>
+    <t>Harold</t>
+  </si>
+  <si>
+    <t>Bryant</t>
+  </si>
+  <si>
+    <t>Vickie</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>Nita</t>
+  </si>
+  <si>
+    <t>Huynh</t>
+  </si>
+  <si>
+    <t>Maryanne</t>
+  </si>
+  <si>
+    <t>Blanch</t>
+  </si>
+  <si>
+    <t>Burl</t>
+  </si>
+  <si>
+    <t>Jensen</t>
+  </si>
+  <si>
+    <t>Benny</t>
+  </si>
+  <si>
+    <t>Hendricks</t>
+  </si>
+  <si>
+    <t>Melinda</t>
+  </si>
+  <si>
+    <t>Shephe</t>
+  </si>
+  <si>
+    <t>Eddie</t>
+  </si>
+  <si>
+    <t>Mckee</t>
+  </si>
+  <si>
+    <t>Randolph</t>
+  </si>
+  <si>
+    <t>Novak</t>
+  </si>
+  <si>
+    <t>Sophia</t>
+  </si>
+  <si>
+    <t>Neal</t>
+  </si>
+  <si>
+    <t>Columbus</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Tanner</t>
+  </si>
+  <si>
+    <t>York</t>
+  </si>
+  <si>
+    <t>Lydia</t>
+  </si>
+  <si>
+    <t>Craig</t>
+  </si>
+  <si>
+    <t>Jefferey</t>
+  </si>
+  <si>
+    <t>Klein</t>
   </si>
 </sst>
 </file>
@@ -1957,12 +2168,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1970,9 +2181,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1995,16 +2203,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2025,9 +2230,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2046,10 +2248,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2066,6 +2268,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2091,22 +2305,22 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2133,18 +2347,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2162,9 +2364,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Titre 1" xfId="1" builtinId="16"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2579,7 +2781,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2895,7 +3097,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" customWidth="1"/>
@@ -3024,207 +3226,233 @@
   </sheetPr>
   <dimension ref="B1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N11" sqref="N11:N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="7" customWidth="1"/>
-    <col min="2" max="5" width="11.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="6" style="7" customWidth="1"/>
-    <col min="7" max="9" width="11.7109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="7" customWidth="1"/>
-    <col min="12" max="15" width="11.7109375" style="7" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" style="7" customWidth="1"/>
-    <col min="17" max="19" width="9.7109375" style="7" customWidth="1"/>
-    <col min="20" max="20" width="5.7109375" style="7" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="4.7109375" style="4" customWidth="1"/>
+    <col min="2" max="5" width="11.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="6" style="4" customWidth="1"/>
+    <col min="7" max="9" width="11.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40.7109375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" style="4" customWidth="1"/>
+    <col min="17" max="19" width="9.7109375" style="4" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J1" s="18"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="18"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="2:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="G3" s="10" t="s">
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="G3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="L3" s="42" t="s">
+      <c r="J3" s="16"/>
+      <c r="L3" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="45"/>
     </row>
     <row r="4" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="36" t="s">
         <v>335</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
       <c r="G4" s="5">
         <v>1</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="4"/>
-      <c r="L4" s="45" t="s">
+      <c r="I4" s="8" t="str">
+        <f>TRIM(H4)</f>
+        <v>Ford</v>
+      </c>
+      <c r="L4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="47" t="s">
+      <c r="M4" s="48" t="s">
         <v>520</v>
       </c>
-      <c r="N4" s="48"/>
-      <c r="O4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="50"/>
     </row>
     <row r="5" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
       <c r="G5" s="5">
         <v>2</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="4"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="52"/>
+      <c r="I5" s="8" t="str">
+        <f t="shared" ref="I5:I14" si="0">TRIM(H5)</f>
+        <v>Ford</v>
+      </c>
+      <c r="L5" s="47"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="53"/>
     </row>
     <row r="6" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G6" s="5">
         <v>3</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="4"/>
-      <c r="L6" s="53" t="s">
+      <c r="I6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Ford</v>
+      </c>
+      <c r="L6" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="55" t="s">
+      <c r="M6" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="56"/>
-      <c r="O6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="58"/>
     </row>
     <row r="7" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="5">
         <v>4</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="4"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="14"/>
+      <c r="I7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Ford</v>
+      </c>
+      <c r="L7" s="55"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="13"/>
     </row>
     <row r="8" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="5"/>
-      <c r="F8" s="14"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="5">
+        <f>COUNTIF($I4:I$14,B8)</f>
+        <v>4</v>
+      </c>
+      <c r="F8" s="13"/>
       <c r="G8" s="5">
         <v>5</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="4"/>
-      <c r="P8" s="14"/>
+      <c r="I8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Volkswagen</v>
+      </c>
+      <c r="P8" s="13"/>
     </row>
     <row r="9" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="5"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="5">
+        <f>COUNTIF($I5:I$14,B9)</f>
+        <v>2</v>
+      </c>
       <c r="G9" s="5">
         <v>6</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="4"/>
-      <c r="L9" s="39" t="s">
+      <c r="I9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Volkswagen</v>
+      </c>
+      <c r="L9" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="40"/>
-      <c r="N9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="42"/>
     </row>
     <row r="10" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="38" t="s">
         <v>530</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="5"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="5">
+        <f>COUNTIF($I6:I$14,B10)</f>
+        <v>5</v>
+      </c>
       <c r="G10" s="5">
         <v>7</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="4"/>
-      <c r="L10" s="10" t="s">
+      <c r="I10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Hyundai</v>
+      </c>
+      <c r="L10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3232,109 +3460,144 @@
       <c r="G11" s="5">
         <v>8</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="4"/>
+      <c r="I11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Hyundai</v>
+      </c>
       <c r="L11" s="5">
         <v>1</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="M11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N11" s="9"/>
+      <c r="N11" s="15">
+        <f>M11*1</f>
+        <v>11215</v>
+      </c>
     </row>
     <row r="12" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G12" s="5">
         <v>9</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="4"/>
+      <c r="I12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Hyundai</v>
+      </c>
       <c r="L12" s="5">
         <v>2</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="M12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="N12" s="9"/>
+      <c r="N12" s="15">
+        <f t="shared" ref="N12:N17" si="1">M12*1</f>
+        <v>11216</v>
+      </c>
     </row>
     <row r="13" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G13" s="5">
         <v>10</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="4"/>
+      <c r="I13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Hyundai</v>
+      </c>
       <c r="L13" s="5">
         <v>3</v>
       </c>
-      <c r="M13" s="17" t="s">
+      <c r="M13" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N13" s="9"/>
+      <c r="N13" s="15">
+        <f t="shared" si="1"/>
+        <v>11217</v>
+      </c>
     </row>
     <row r="14" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F14" s="15"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="5">
         <v>11</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="4"/>
+      <c r="I14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Hyundai</v>
+      </c>
       <c r="L14" s="5">
         <v>4</v>
       </c>
-      <c r="M14" s="17" t="s">
+      <c r="M14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="N14" s="9"/>
-      <c r="P14" s="15"/>
+      <c r="N14" s="15">
+        <f t="shared" si="1"/>
+        <v>11218</v>
+      </c>
+      <c r="P14" s="13"/>
     </row>
     <row r="15" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="15"/>
+      <c r="F15" s="13"/>
       <c r="L15" s="5">
         <v>5</v>
       </c>
-      <c r="M15" s="17" t="s">
+      <c r="M15" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="9"/>
-      <c r="P15" s="15"/>
+      <c r="N15" s="15">
+        <f t="shared" si="1"/>
+        <v>11219</v>
+      </c>
+      <c r="P15" s="13"/>
     </row>
     <row r="16" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L16" s="5">
         <v>6</v>
       </c>
-      <c r="M16" s="17" t="s">
+      <c r="M16" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N16" s="9"/>
+      <c r="N16" s="15">
+        <f t="shared" si="1"/>
+        <v>11220</v>
+      </c>
     </row>
     <row r="17" spans="12:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L17" s="5">
         <v>7</v>
       </c>
-      <c r="M17" s="17" t="s">
+      <c r="M17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="N17" s="9"/>
+      <c r="N17" s="15">
+        <f t="shared" si="1"/>
+        <v>11221</v>
+      </c>
     </row>
     <row r="18" spans="12:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L18" s="8"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="12:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L19" s="8"/>
+      <c r="L19" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:O5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:O7"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="B8:C8"/>
@@ -3342,12 +3605,6 @@
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:O5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:O7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3366,244 +3623,728 @@
   </sheetPr>
   <dimension ref="B2:W24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:F3"/>
+      <selection pane="bottomLeft" activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="7" customWidth="1"/>
-    <col min="2" max="7" width="9.140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="82.140625" style="7" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" style="7" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="7"/>
-    <col min="19" max="19" width="5.7109375" style="7" customWidth="1"/>
-    <col min="20" max="20" width="22.28515625" style="7" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" style="7" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" style="7" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="7"/>
-    <col min="24" max="24" width="5.7109375" style="7" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="3.140625" style="4" customWidth="1"/>
+    <col min="2" max="7" width="9.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="82.140625" style="4" customWidth="1"/>
+    <col min="10" max="11" width="5.7109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="4"/>
+    <col min="19" max="19" width="5.7109375" style="4" customWidth="1"/>
+    <col min="20" max="20" width="22.28515625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" style="4" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="4"/>
+    <col min="24" max="24" width="5.7109375" style="4" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>526</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="I3" s="27" t="s">
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
+      <c r="I3" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="T3" s="65" t="s">
+      <c r="T3" s="62" t="s">
         <v>367</v>
       </c>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
     </row>
     <row r="4" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="36" t="s">
         <v>521</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="I4" s="9" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="I4" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="U4" s="34" t="s">
+      <c r="L4" t="s">
+        <v>532</v>
+      </c>
+      <c r="M4" t="s">
+        <v>533</v>
+      </c>
+      <c r="N4" t="s">
+        <v>534</v>
+      </c>
+      <c r="O4" t="s">
+        <v>535</v>
+      </c>
+      <c r="P4" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>537</v>
+      </c>
+      <c r="U4" s="31" t="s">
         <v>365</v>
       </c>
-      <c r="V4" s="34" t="s">
+      <c r="V4" s="31" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="5" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="66"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="I5" s="9" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="I5" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="L5" t="s">
+        <v>538</v>
+      </c>
+      <c r="M5" t="s">
+        <v>539</v>
+      </c>
+      <c r="N5">
+        <v>95838</v>
+      </c>
+      <c r="O5">
+        <v>59222</v>
+      </c>
+      <c r="P5">
+        <v>38.631912999999997</v>
+      </c>
+      <c r="Q5">
+        <v>-121.434879</v>
+      </c>
+      <c r="T5" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
+      <c r="U5" s="32" t="s">
+        <v>562</v>
+      </c>
+      <c r="V5" s="32" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="6" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="66"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="I6" s="9" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="I6" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="L6" t="s">
+        <v>540</v>
+      </c>
+      <c r="M6" t="s">
+        <v>539</v>
+      </c>
+      <c r="N6">
+        <v>95823</v>
+      </c>
+      <c r="O6">
+        <v>68212</v>
+      </c>
+      <c r="P6">
+        <v>38.478901999999998</v>
+      </c>
+      <c r="Q6">
+        <v>-121.431028</v>
+      </c>
+      <c r="T6" s="4" t="s">
         <v>369</v>
       </c>
+      <c r="U6" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="7" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="37" t="s">
         <v>363</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="I7" s="9" t="s">
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="I7" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="L7" t="s">
+        <v>541</v>
+      </c>
+      <c r="M7" t="s">
+        <v>539</v>
+      </c>
+      <c r="N7">
+        <v>95815</v>
+      </c>
+      <c r="O7">
+        <v>68880</v>
+      </c>
+      <c r="P7">
+        <v>38.618304999999999</v>
+      </c>
+      <c r="Q7">
+        <v>-121.443839</v>
+      </c>
+      <c r="T7" s="4" t="s">
         <v>370</v>
       </c>
+      <c r="U7" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="8" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="67"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="I8" s="9" t="s">
+      <c r="B8" s="64"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="I8" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="T8" s="7" t="s">
+      <c r="L8" t="s">
+        <v>542</v>
+      </c>
+      <c r="M8" t="s">
+        <v>539</v>
+      </c>
+      <c r="N8">
+        <v>95815</v>
+      </c>
+      <c r="O8">
+        <v>69307</v>
+      </c>
+      <c r="P8">
+        <v>38.616835000000002</v>
+      </c>
+      <c r="Q8">
+        <v>-121.43914599999999</v>
+      </c>
+      <c r="T8" s="4" t="s">
         <v>371</v>
       </c>
+      <c r="U8" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="9" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="33"/>
-      <c r="I9" s="9" t="s">
+      <c r="B9" s="30"/>
+      <c r="I9" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="T9" s="7" t="s">
+      <c r="L9" t="s">
+        <v>543</v>
+      </c>
+      <c r="M9" t="s">
+        <v>539</v>
+      </c>
+      <c r="N9">
+        <v>95824</v>
+      </c>
+      <c r="O9">
+        <v>81900</v>
+      </c>
+      <c r="P9">
+        <v>38.519469999999998</v>
+      </c>
+      <c r="Q9">
+        <v>-121.435768</v>
+      </c>
+      <c r="T9" s="4" t="s">
         <v>372</v>
       </c>
+      <c r="U9" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="10" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="33"/>
-      <c r="I10" s="9" t="s">
+      <c r="B10" s="30"/>
+      <c r="I10" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="L10" t="s">
+        <v>544</v>
+      </c>
+      <c r="M10" t="s">
+        <v>539</v>
+      </c>
+      <c r="N10">
+        <v>95841</v>
+      </c>
+      <c r="O10">
+        <v>89921</v>
+      </c>
+      <c r="P10">
+        <v>38.662595000000003</v>
+      </c>
+      <c r="Q10">
+        <v>-121.32781300000001</v>
+      </c>
+      <c r="T10" s="4" t="s">
         <v>373</v>
       </c>
+      <c r="U10" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="11" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="T11" s="7" t="s">
+      <c r="L11" t="s">
+        <v>545</v>
+      </c>
+      <c r="M11" t="s">
+        <v>539</v>
+      </c>
+      <c r="N11">
+        <v>95842</v>
+      </c>
+      <c r="O11">
+        <v>90895</v>
+      </c>
+      <c r="P11">
+        <v>38.681659000000003</v>
+      </c>
+      <c r="Q11">
+        <v>-121.351705</v>
+      </c>
+      <c r="T11" s="4" t="s">
         <v>374</v>
       </c>
+      <c r="U11" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="12" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="T12" s="7" t="s">
+      <c r="L12" t="s">
+        <v>546</v>
+      </c>
+      <c r="M12" t="s">
+        <v>539</v>
+      </c>
+      <c r="N12">
+        <v>95820</v>
+      </c>
+      <c r="O12">
+        <v>91002</v>
+      </c>
+      <c r="P12">
+        <v>38.535091999999999</v>
+      </c>
+      <c r="Q12">
+        <v>-121.48136700000001</v>
+      </c>
+      <c r="T12" s="4" t="s">
         <v>375</v>
       </c>
+      <c r="U12" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="13" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="T13" s="7" t="s">
+      <c r="L13" t="s">
+        <v>547</v>
+      </c>
+      <c r="M13" t="s">
+        <v>548</v>
+      </c>
+      <c r="N13">
+        <v>95670</v>
+      </c>
+      <c r="O13">
+        <v>94905</v>
+      </c>
+      <c r="P13">
+        <v>38.621187999999997</v>
+      </c>
+      <c r="Q13">
+        <v>-121.270555</v>
+      </c>
+      <c r="T13" s="4" t="s">
         <v>376</v>
       </c>
+      <c r="U13" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="14" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="T14" s="7" t="s">
+      <c r="L14" t="s">
+        <v>549</v>
+      </c>
+      <c r="M14" t="s">
+        <v>550</v>
+      </c>
+      <c r="N14">
+        <v>95673</v>
+      </c>
+      <c r="O14">
+        <v>98937</v>
+      </c>
+      <c r="P14">
+        <v>38.700909000000003</v>
+      </c>
+      <c r="Q14">
+        <v>-121.44297899999999</v>
+      </c>
+      <c r="T14" s="4" t="s">
         <v>377</v>
       </c>
+      <c r="U14" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="15" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="T15" s="7" t="s">
+      <c r="L15" t="s">
+        <v>551</v>
+      </c>
+      <c r="M15" t="s">
+        <v>539</v>
+      </c>
+      <c r="N15">
+        <v>95838</v>
+      </c>
+      <c r="O15">
+        <v>100309</v>
+      </c>
+      <c r="P15">
+        <v>38.637663000000003</v>
+      </c>
+      <c r="Q15">
+        <v>-121.45152</v>
+      </c>
+      <c r="T15" s="4" t="s">
         <v>378</v>
       </c>
+      <c r="U15" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="16" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="T16" s="7" t="s">
+      <c r="L16" t="s">
+        <v>552</v>
+      </c>
+      <c r="M16" t="s">
+        <v>539</v>
+      </c>
+      <c r="N16">
+        <v>95823</v>
+      </c>
+      <c r="O16">
+        <v>106250</v>
+      </c>
+      <c r="P16">
+        <v>38.470745999999998</v>
+      </c>
+      <c r="Q16">
+        <v>-121.458918</v>
+      </c>
+      <c r="T16" s="4" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="17" spans="9:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I17" s="9" t="s">
+      <c r="U16" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="17" spans="9:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="T17" s="7" t="s">
+      <c r="L17" t="s">
+        <v>553</v>
+      </c>
+      <c r="M17" t="s">
+        <v>539</v>
+      </c>
+      <c r="N17">
+        <v>95815</v>
+      </c>
+      <c r="O17">
+        <v>106852</v>
+      </c>
+      <c r="P17">
+        <v>38.618698000000002</v>
+      </c>
+      <c r="Q17">
+        <v>-121.435833</v>
+      </c>
+      <c r="T17" s="4" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="18" spans="9:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I18" s="9" t="s">
+      <c r="U17" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="18" spans="9:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="T18" s="7" t="s">
+      <c r="L18" t="s">
+        <v>554</v>
+      </c>
+      <c r="M18" t="s">
+        <v>539</v>
+      </c>
+      <c r="N18">
+        <v>95822</v>
+      </c>
+      <c r="O18">
+        <v>107502</v>
+      </c>
+      <c r="P18">
+        <v>38.482214999999997</v>
+      </c>
+      <c r="Q18">
+        <v>-121.492603</v>
+      </c>
+      <c r="T18" s="4" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="19" spans="9:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I19" s="9" t="s">
+      <c r="U18" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="19" spans="9:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="T19" s="7" t="s">
+      <c r="L19" t="s">
+        <v>555</v>
+      </c>
+      <c r="M19" t="s">
+        <v>539</v>
+      </c>
+      <c r="N19">
+        <v>95842</v>
+      </c>
+      <c r="O19">
+        <v>108750</v>
+      </c>
+      <c r="P19">
+        <v>38.672913999999999</v>
+      </c>
+      <c r="Q19">
+        <v>-121.35934</v>
+      </c>
+      <c r="T19" s="4" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="20" spans="9:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I20" s="9" t="s">
+      <c r="U19" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="20" spans="9:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="T20" s="7" t="s">
+      <c r="L20" t="s">
+        <v>556</v>
+      </c>
+      <c r="M20" t="s">
+        <v>539</v>
+      </c>
+      <c r="N20">
+        <v>95842</v>
+      </c>
+      <c r="O20">
+        <v>110700</v>
+      </c>
+      <c r="P20">
+        <v>38.700051000000002</v>
+      </c>
+      <c r="Q20">
+        <v>-121.35127799999999</v>
+      </c>
+      <c r="T20" s="4" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="21" spans="9:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I21" s="9" t="s">
+      <c r="U20" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="21" spans="9:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="T21" s="7" t="s">
+      <c r="L21" t="s">
+        <v>557</v>
+      </c>
+      <c r="M21" t="s">
+        <v>550</v>
+      </c>
+      <c r="N21">
+        <v>95673</v>
+      </c>
+      <c r="O21">
+        <v>113263</v>
+      </c>
+      <c r="P21">
+        <v>38.689591</v>
+      </c>
+      <c r="Q21">
+        <v>-121.45223900000001</v>
+      </c>
+      <c r="T21" s="4" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="22" spans="9:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I22" s="9" t="s">
+      <c r="U21" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="22" spans="9:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="8" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="23" spans="9:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I23" s="9" t="s">
+      <c r="L22" t="s">
+        <v>558</v>
+      </c>
+      <c r="M22" t="s">
+        <v>559</v>
+      </c>
+      <c r="N22">
+        <v>95621</v>
+      </c>
+      <c r="O22">
+        <v>116250</v>
+      </c>
+      <c r="P22">
+        <v>38.679775999999997</v>
+      </c>
+      <c r="Q22">
+        <v>-121.314089</v>
+      </c>
+    </row>
+    <row r="23" spans="9:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="8" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="24" spans="9:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I24" s="9" t="s">
+      <c r="L23" t="s">
+        <v>560</v>
+      </c>
+      <c r="M23" t="s">
+        <v>539</v>
+      </c>
+      <c r="N23">
+        <v>95833</v>
+      </c>
+      <c r="O23">
+        <v>120000</v>
+      </c>
+      <c r="P23">
+        <v>38.612099000000001</v>
+      </c>
+      <c r="Q23">
+        <v>-121.469095</v>
+      </c>
+    </row>
+    <row r="24" spans="9:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="8" t="s">
         <v>362</v>
+      </c>
+      <c r="L24" t="s">
+        <v>561</v>
+      </c>
+      <c r="M24" t="s">
+        <v>550</v>
+      </c>
+      <c r="N24">
+        <v>95673</v>
+      </c>
+      <c r="O24">
+        <v>121630</v>
+      </c>
+      <c r="P24">
+        <v>38.689999</v>
+      </c>
+      <c r="Q24">
+        <v>-121.46322000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3629,3335 +4370,3330 @@
   </sheetPr>
   <dimension ref="C1:W254"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB8" sqref="AB8"/>
+      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="4.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="63.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" style="7" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="7" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="7" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="7" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="7" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" style="7" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" style="7" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="7" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="18" style="7" hidden="1" customWidth="1"/>
-    <col min="19" max="21" width="15.7109375" style="7" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="29.28515625" style="7" hidden="1" customWidth="1"/>
-    <col min="23" max="24" width="5.7109375" style="7" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="2" width="4.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="63.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" style="4" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" style="4" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="18" style="4" hidden="1" customWidth="1"/>
+    <col min="19" max="21" width="15.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="29.28515625" style="4" hidden="1" customWidth="1"/>
+    <col min="23" max="24" width="5.7109375" style="4" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T1" s="18"/>
+      <c r="T1" s="16"/>
     </row>
     <row r="2" spans="3:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="62" t="s">
         <v>340</v>
       </c>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="29"/>
-      <c r="Q2" s="65" t="s">
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="26"/>
+      <c r="Q2" s="62" t="s">
         <v>519</v>
       </c>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
     </row>
     <row r="3" spans="3:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="65" t="s">
         <v>336</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="I4" s="23" t="s">
+      <c r="D4" s="65"/>
+      <c r="I4" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="S4" s="23" t="s">
+      <c r="S4" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="23" t="s">
+      <c r="T4" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="23" t="s">
+      <c r="U4" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="22" t="s">
+      <c r="V4" s="20" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="3:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="29" t="s">
         <v>338</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="19">
         <v>415801924</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <f>LEN(I5)</f>
         <v>22</v>
       </c>
       <c r="Q5" s="5">
         <v>1</v>
       </c>
-      <c r="R5" s="37" t="s">
+      <c r="R5" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="24" t="s">
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="22" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="6" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
       <c r="Q6" s="5">
         <v>2</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="9"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="8"/>
     </row>
     <row r="7" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="4"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
       <c r="Q7" s="5">
         <v>3</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="R7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="9"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="8"/>
     </row>
     <row r="8" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="I8" s="9" t="s">
+      <c r="F8" s="8" t="str">
+        <f>LEFT(E8,2)</f>
+        <v>02</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="4"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
       <c r="Q8" s="5">
         <v>4</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="R8" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="9"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="8"/>
     </row>
     <row r="9" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="9" t="s">
+      <c r="F9" s="8" t="str">
+        <f>RIGHT(E9,3)</f>
+        <v>NSW</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
       <c r="Q9" s="5">
         <v>5</v>
       </c>
-      <c r="R9" s="9" t="s">
+      <c r="R9" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="14"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="13"/>
     </row>
     <row r="10" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="23" t="s">
         <v>522</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="9" t="s">
+      <c r="F10" s="8" t="str">
+        <f>MID(E10,2,4)</f>
+        <v>auto</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
       <c r="Q10" s="5">
         <v>6</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="R10" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="14"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="13"/>
     </row>
     <row r="11" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="4"/>
-      <c r="I11" s="9" t="s">
+      <c r="F11" s="8">
+        <f>FIND("(",E11)</f>
+        <v>11</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="4"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
       <c r="Q11" s="5">
         <v>7</v>
       </c>
-      <c r="R11" s="9" t="s">
+      <c r="R11" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="9"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="8"/>
     </row>
     <row r="12" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="4"/>
-      <c r="I12" s="9" t="s">
+      <c r="E12" s="23"/>
+      <c r="F12" s="8" t="str">
+        <f>_xlfn.CONCAT(F8," ",F9," ",F10," ",F11)</f>
+        <v>02 NSW auto 11</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="4"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
       <c r="Q12" s="5">
         <v>8</v>
       </c>
-      <c r="R12" s="9" t="s">
+      <c r="R12" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="9"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="8"/>
     </row>
     <row r="13" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="4"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
       <c r="Q13" s="5">
         <v>9</v>
       </c>
-      <c r="R13" s="9" t="s">
+      <c r="R13" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="9"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="8"/>
     </row>
     <row r="14" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="4"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
       <c r="Q14" s="5">
         <v>10</v>
       </c>
-      <c r="R14" s="9" t="s">
+      <c r="R14" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="9"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="8"/>
     </row>
     <row r="15" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="4"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
       <c r="Q15" s="5">
         <v>11</v>
       </c>
-      <c r="R15" s="9" t="s">
+      <c r="R15" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="9"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="8"/>
     </row>
     <row r="16" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="15"/>
-      <c r="I16" s="9" t="s">
+      <c r="H16" s="13"/>
+      <c r="I16" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
       <c r="Q16" s="5">
         <v>12</v>
       </c>
-      <c r="R16" s="9" t="s">
+      <c r="R16" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="15"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="13"/>
     </row>
     <row r="17" spans="8:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="15"/>
-      <c r="I17" s="9" t="s">
+      <c r="H17" s="13"/>
+      <c r="I17" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
       <c r="Q17" s="5">
         <v>13</v>
       </c>
-      <c r="R17" s="9" t="s">
+      <c r="R17" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="15"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="13"/>
     </row>
     <row r="18" spans="8:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="4"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
       <c r="Q18" s="5">
         <v>14</v>
       </c>
-      <c r="R18" s="9" t="s">
+      <c r="R18" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="9"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="8"/>
     </row>
     <row r="19" spans="8:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="4"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
       <c r="Q19" s="5">
         <v>15</v>
       </c>
-      <c r="R19" s="9" t="s">
+      <c r="R19" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="9"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="8"/>
     </row>
     <row r="20" spans="8:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="4"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
       <c r="Q20" s="5">
         <v>16</v>
       </c>
-      <c r="R20" s="9" t="s">
+      <c r="R20" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="9"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="8"/>
     </row>
     <row r="21" spans="8:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="4"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
       <c r="Q21" s="5">
         <v>17</v>
       </c>
-      <c r="R21" s="9" t="s">
+      <c r="R21" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="9"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="8"/>
     </row>
     <row r="22" spans="8:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="4"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
       <c r="Q22" s="5">
         <v>18</v>
       </c>
-      <c r="R22" s="9" t="s">
+      <c r="R22" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="9"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="8"/>
     </row>
     <row r="23" spans="8:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q23" s="5">
         <v>19</v>
       </c>
-      <c r="R23" s="9" t="s">
+      <c r="R23" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="9"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="8"/>
     </row>
     <row r="24" spans="8:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q24" s="5">
         <v>20</v>
       </c>
-      <c r="R24" s="9" t="s">
+      <c r="R24" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="9"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="8"/>
     </row>
     <row r="25" spans="8:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q25" s="5">
         <v>21</v>
       </c>
-      <c r="R25" s="9" t="s">
+      <c r="R25" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="9"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="8"/>
     </row>
     <row r="26" spans="8:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q26" s="5">
         <v>22</v>
       </c>
-      <c r="R26" s="9" t="s">
+      <c r="R26" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="9"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="8"/>
     </row>
     <row r="27" spans="8:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q27" s="5">
         <v>23</v>
       </c>
-      <c r="R27" s="9" t="s">
+      <c r="R27" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="9"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="8"/>
     </row>
     <row r="28" spans="8:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q28" s="5">
         <v>24</v>
       </c>
-      <c r="R28" s="9" t="s">
+      <c r="R28" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="9"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="8"/>
     </row>
     <row r="29" spans="8:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q29" s="5">
         <v>25</v>
       </c>
-      <c r="R29" s="9" t="s">
+      <c r="R29" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="9"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="8"/>
     </row>
     <row r="30" spans="8:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q30" s="5">
         <v>26</v>
       </c>
-      <c r="R30" s="9" t="s">
+      <c r="R30" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="9"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="8"/>
     </row>
     <row r="31" spans="8:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q31" s="5">
         <v>27</v>
       </c>
-      <c r="R31" s="9" t="s">
+      <c r="R31" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="9"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="8"/>
     </row>
     <row r="32" spans="8:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q32" s="5">
         <v>28</v>
       </c>
-      <c r="R32" s="9" t="s">
+      <c r="R32" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="9"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="8"/>
     </row>
     <row r="33" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q33" s="5">
         <v>29</v>
       </c>
-      <c r="R33" s="9" t="s">
+      <c r="R33" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="S33" s="38"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="9"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="8"/>
     </row>
     <row r="34" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q34" s="5">
         <v>30</v>
       </c>
-      <c r="R34" s="9" t="s">
+      <c r="R34" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="9"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="8"/>
     </row>
     <row r="35" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q35" s="5">
         <v>31</v>
       </c>
-      <c r="R35" s="9" t="s">
+      <c r="R35" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="S35" s="38"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="9"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="8"/>
     </row>
     <row r="36" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q36" s="5">
         <v>32</v>
       </c>
-      <c r="R36" s="9" t="s">
+      <c r="R36" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="S36" s="38"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="9"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="8"/>
     </row>
     <row r="37" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q37" s="5">
         <v>33</v>
       </c>
-      <c r="R37" s="9" t="s">
+      <c r="R37" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="S37" s="38"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="9"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="8"/>
     </row>
     <row r="38" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q38" s="5">
         <v>34</v>
       </c>
-      <c r="R38" s="9" t="s">
+      <c r="R38" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="S38" s="38"/>
-      <c r="T38" s="38"/>
-      <c r="U38" s="38"/>
-      <c r="V38" s="9"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="8"/>
     </row>
     <row r="39" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q39" s="5">
         <v>35</v>
       </c>
-      <c r="R39" s="9" t="s">
+      <c r="R39" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="S39" s="38"/>
-      <c r="T39" s="38"/>
-      <c r="U39" s="38"/>
-      <c r="V39" s="9"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="8"/>
     </row>
     <row r="40" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q40" s="5">
         <v>36</v>
       </c>
-      <c r="R40" s="9" t="s">
+      <c r="R40" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="S40" s="38"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="9"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35"/>
+      <c r="V40" s="8"/>
     </row>
     <row r="41" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q41" s="5">
         <v>37</v>
       </c>
-      <c r="R41" s="9" t="s">
+      <c r="R41" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="S41" s="38"/>
-      <c r="T41" s="38"/>
-      <c r="U41" s="38"/>
-      <c r="V41" s="9"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="8"/>
     </row>
     <row r="42" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q42" s="5">
         <v>38</v>
       </c>
-      <c r="R42" s="9" t="s">
+      <c r="R42" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="S42" s="38"/>
-      <c r="T42" s="38"/>
-      <c r="U42" s="38"/>
-      <c r="V42" s="9"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="8"/>
     </row>
     <row r="43" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q43" s="5">
         <v>39</v>
       </c>
-      <c r="R43" s="9" t="s">
+      <c r="R43" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="S43" s="38"/>
-      <c r="T43" s="38"/>
-      <c r="U43" s="38"/>
-      <c r="V43" s="9"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="35"/>
+      <c r="V43" s="8"/>
     </row>
     <row r="44" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q44" s="5">
         <v>40</v>
       </c>
-      <c r="R44" s="9" t="s">
+      <c r="R44" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="S44" s="38"/>
-      <c r="T44" s="38"/>
-      <c r="U44" s="38"/>
-      <c r="V44" s="9"/>
+      <c r="S44" s="35"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="35"/>
+      <c r="V44" s="8"/>
     </row>
     <row r="45" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q45" s="5">
         <v>41</v>
       </c>
-      <c r="R45" s="9" t="s">
+      <c r="R45" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="S45" s="38"/>
-      <c r="T45" s="38"/>
-      <c r="U45" s="38"/>
-      <c r="V45" s="9"/>
+      <c r="S45" s="35"/>
+      <c r="T45" s="35"/>
+      <c r="U45" s="35"/>
+      <c r="V45" s="8"/>
     </row>
     <row r="46" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q46" s="5">
         <v>42</v>
       </c>
-      <c r="R46" s="9" t="s">
+      <c r="R46" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="S46" s="38"/>
-      <c r="T46" s="38"/>
-      <c r="U46" s="38"/>
-      <c r="V46" s="9"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="35"/>
+      <c r="V46" s="8"/>
     </row>
     <row r="47" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q47" s="5">
         <v>43</v>
       </c>
-      <c r="R47" s="9" t="s">
+      <c r="R47" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="S47" s="38"/>
-      <c r="T47" s="38"/>
-      <c r="U47" s="38"/>
-      <c r="V47" s="9"/>
+      <c r="S47" s="35"/>
+      <c r="T47" s="35"/>
+      <c r="U47" s="35"/>
+      <c r="V47" s="8"/>
     </row>
     <row r="48" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q48" s="5">
         <v>44</v>
       </c>
-      <c r="R48" s="9" t="s">
+      <c r="R48" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="S48" s="38"/>
-      <c r="T48" s="38"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="9"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="35"/>
+      <c r="V48" s="8"/>
     </row>
     <row r="49" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q49" s="5">
         <v>45</v>
       </c>
-      <c r="R49" s="9" t="s">
+      <c r="R49" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="S49" s="38"/>
-      <c r="T49" s="38"/>
-      <c r="U49" s="38"/>
-      <c r="V49" s="9"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="8"/>
     </row>
     <row r="50" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q50" s="5">
         <v>46</v>
       </c>
-      <c r="R50" s="9" t="s">
+      <c r="R50" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="S50" s="38"/>
-      <c r="T50" s="38"/>
-      <c r="U50" s="38"/>
-      <c r="V50" s="9"/>
+      <c r="S50" s="35"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="35"/>
+      <c r="V50" s="8"/>
     </row>
     <row r="51" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q51" s="5">
         <v>47</v>
       </c>
-      <c r="R51" s="9" t="s">
+      <c r="R51" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="S51" s="38"/>
-      <c r="T51" s="38"/>
-      <c r="U51" s="38"/>
-      <c r="V51" s="9"/>
+      <c r="S51" s="35"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="35"/>
+      <c r="V51" s="8"/>
     </row>
     <row r="52" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q52" s="5">
         <v>48</v>
       </c>
-      <c r="R52" s="9" t="s">
+      <c r="R52" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="S52" s="38"/>
-      <c r="T52" s="38"/>
-      <c r="U52" s="38"/>
-      <c r="V52" s="9"/>
+      <c r="S52" s="35"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="35"/>
+      <c r="V52" s="8"/>
     </row>
     <row r="53" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q53" s="5">
         <v>49</v>
       </c>
-      <c r="R53" s="9" t="s">
+      <c r="R53" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S53" s="38"/>
-      <c r="T53" s="38"/>
-      <c r="U53" s="38"/>
-      <c r="V53" s="9"/>
+      <c r="S53" s="35"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="35"/>
+      <c r="V53" s="8"/>
     </row>
     <row r="54" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q54" s="5">
         <v>50</v>
       </c>
-      <c r="R54" s="9" t="s">
+      <c r="R54" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S54" s="38"/>
-      <c r="T54" s="38"/>
-      <c r="U54" s="38"/>
-      <c r="V54" s="9"/>
+      <c r="S54" s="35"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="35"/>
+      <c r="V54" s="8"/>
     </row>
     <row r="55" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q55" s="5">
         <v>51</v>
       </c>
-      <c r="R55" s="9" t="s">
+      <c r="R55" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="S55" s="38"/>
-      <c r="T55" s="38"/>
-      <c r="U55" s="38"/>
-      <c r="V55" s="9"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="35"/>
+      <c r="V55" s="8"/>
     </row>
     <row r="56" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q56" s="5">
         <v>52</v>
       </c>
-      <c r="R56" s="9" t="s">
+      <c r="R56" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="S56" s="38"/>
-      <c r="T56" s="38"/>
-      <c r="U56" s="38"/>
-      <c r="V56" s="9"/>
+      <c r="S56" s="35"/>
+      <c r="T56" s="35"/>
+      <c r="U56" s="35"/>
+      <c r="V56" s="8"/>
     </row>
     <row r="57" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q57" s="5">
         <v>53</v>
       </c>
-      <c r="R57" s="9" t="s">
+      <c r="R57" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="S57" s="38"/>
-      <c r="T57" s="38"/>
-      <c r="U57" s="38"/>
-      <c r="V57" s="9"/>
+      <c r="S57" s="35"/>
+      <c r="T57" s="35"/>
+      <c r="U57" s="35"/>
+      <c r="V57" s="8"/>
     </row>
     <row r="58" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q58" s="5">
         <v>54</v>
       </c>
-      <c r="R58" s="9" t="s">
+      <c r="R58" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="S58" s="38"/>
-      <c r="T58" s="38"/>
-      <c r="U58" s="38"/>
-      <c r="V58" s="9"/>
+      <c r="S58" s="35"/>
+      <c r="T58" s="35"/>
+      <c r="U58" s="35"/>
+      <c r="V58" s="8"/>
     </row>
     <row r="59" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q59" s="5">
         <v>55</v>
       </c>
-      <c r="R59" s="9" t="s">
+      <c r="R59" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="S59" s="38"/>
-      <c r="T59" s="38"/>
-      <c r="U59" s="38"/>
-      <c r="V59" s="9"/>
+      <c r="S59" s="35"/>
+      <c r="T59" s="35"/>
+      <c r="U59" s="35"/>
+      <c r="V59" s="8"/>
     </row>
     <row r="60" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q60" s="5">
         <v>56</v>
       </c>
-      <c r="R60" s="9" t="s">
+      <c r="R60" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="S60" s="38"/>
-      <c r="T60" s="38"/>
-      <c r="U60" s="38"/>
-      <c r="V60" s="9"/>
+      <c r="S60" s="35"/>
+      <c r="T60" s="35"/>
+      <c r="U60" s="35"/>
+      <c r="V60" s="8"/>
     </row>
     <row r="61" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q61" s="5">
         <v>57</v>
       </c>
-      <c r="R61" s="9" t="s">
+      <c r="R61" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="S61" s="38"/>
-      <c r="T61" s="38"/>
-      <c r="U61" s="38"/>
-      <c r="V61" s="9"/>
+      <c r="S61" s="35"/>
+      <c r="T61" s="35"/>
+      <c r="U61" s="35"/>
+      <c r="V61" s="8"/>
     </row>
     <row r="62" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q62" s="5">
         <v>58</v>
       </c>
-      <c r="R62" s="9" t="s">
+      <c r="R62" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="S62" s="38"/>
-      <c r="T62" s="38"/>
-      <c r="U62" s="38"/>
-      <c r="V62" s="9"/>
+      <c r="S62" s="35"/>
+      <c r="T62" s="35"/>
+      <c r="U62" s="35"/>
+      <c r="V62" s="8"/>
     </row>
     <row r="63" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q63" s="5">
         <v>59</v>
       </c>
-      <c r="R63" s="9" t="s">
+      <c r="R63" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="S63" s="38"/>
-      <c r="T63" s="38"/>
-      <c r="U63" s="38"/>
-      <c r="V63" s="9"/>
+      <c r="S63" s="35"/>
+      <c r="T63" s="35"/>
+      <c r="U63" s="35"/>
+      <c r="V63" s="8"/>
     </row>
     <row r="64" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q64" s="5">
         <v>60</v>
       </c>
-      <c r="R64" s="9" t="s">
+      <c r="R64" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="S64" s="38"/>
-      <c r="T64" s="38"/>
-      <c r="U64" s="38"/>
-      <c r="V64" s="9"/>
+      <c r="S64" s="35"/>
+      <c r="T64" s="35"/>
+      <c r="U64" s="35"/>
+      <c r="V64" s="8"/>
     </row>
     <row r="65" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q65" s="5">
         <v>61</v>
       </c>
-      <c r="R65" s="9" t="s">
+      <c r="R65" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="S65" s="38"/>
-      <c r="T65" s="38"/>
-      <c r="U65" s="38"/>
-      <c r="V65" s="9"/>
+      <c r="S65" s="35"/>
+      <c r="T65" s="35"/>
+      <c r="U65" s="35"/>
+      <c r="V65" s="8"/>
     </row>
     <row r="66" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q66" s="5">
         <v>62</v>
       </c>
-      <c r="R66" s="9" t="s">
+      <c r="R66" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="S66" s="38"/>
-      <c r="T66" s="38"/>
-      <c r="U66" s="38"/>
-      <c r="V66" s="9"/>
+      <c r="S66" s="35"/>
+      <c r="T66" s="35"/>
+      <c r="U66" s="35"/>
+      <c r="V66" s="8"/>
     </row>
     <row r="67" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q67" s="5">
         <v>63</v>
       </c>
-      <c r="R67" s="9" t="s">
+      <c r="R67" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="S67" s="38"/>
-      <c r="T67" s="38"/>
-      <c r="U67" s="38"/>
-      <c r="V67" s="9"/>
+      <c r="S67" s="35"/>
+      <c r="T67" s="35"/>
+      <c r="U67" s="35"/>
+      <c r="V67" s="8"/>
     </row>
     <row r="68" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q68" s="5">
         <v>64</v>
       </c>
-      <c r="R68" s="9" t="s">
+      <c r="R68" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="S68" s="38"/>
-      <c r="T68" s="38"/>
-      <c r="U68" s="38"/>
-      <c r="V68" s="9"/>
+      <c r="S68" s="35"/>
+      <c r="T68" s="35"/>
+      <c r="U68" s="35"/>
+      <c r="V68" s="8"/>
     </row>
     <row r="69" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q69" s="5">
         <v>65</v>
       </c>
-      <c r="R69" s="9" t="s">
+      <c r="R69" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="S69" s="38"/>
-      <c r="T69" s="38"/>
-      <c r="U69" s="38"/>
-      <c r="V69" s="9"/>
+      <c r="S69" s="35"/>
+      <c r="T69" s="35"/>
+      <c r="U69" s="35"/>
+      <c r="V69" s="8"/>
     </row>
     <row r="70" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q70" s="5">
         <v>66</v>
       </c>
-      <c r="R70" s="9" t="s">
+      <c r="R70" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="S70" s="38"/>
-      <c r="T70" s="38"/>
-      <c r="U70" s="38"/>
-      <c r="V70" s="9"/>
+      <c r="S70" s="35"/>
+      <c r="T70" s="35"/>
+      <c r="U70" s="35"/>
+      <c r="V70" s="8"/>
     </row>
     <row r="71" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q71" s="5">
         <v>67</v>
       </c>
-      <c r="R71" s="9" t="s">
+      <c r="R71" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="S71" s="38"/>
-      <c r="T71" s="38"/>
-      <c r="U71" s="38"/>
-      <c r="V71" s="9"/>
+      <c r="S71" s="35"/>
+      <c r="T71" s="35"/>
+      <c r="U71" s="35"/>
+      <c r="V71" s="8"/>
     </row>
     <row r="72" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q72" s="5">
         <v>68</v>
       </c>
-      <c r="R72" s="9" t="s">
+      <c r="R72" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="S72" s="38"/>
-      <c r="T72" s="38"/>
-      <c r="U72" s="38"/>
-      <c r="V72" s="9"/>
+      <c r="S72" s="35"/>
+      <c r="T72" s="35"/>
+      <c r="U72" s="35"/>
+      <c r="V72" s="8"/>
     </row>
     <row r="73" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q73" s="5">
         <v>69</v>
       </c>
-      <c r="R73" s="9" t="s">
+      <c r="R73" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="S73" s="38"/>
-      <c r="T73" s="38"/>
-      <c r="U73" s="38"/>
-      <c r="V73" s="9"/>
+      <c r="S73" s="35"/>
+      <c r="T73" s="35"/>
+      <c r="U73" s="35"/>
+      <c r="V73" s="8"/>
     </row>
     <row r="74" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q74" s="5">
         <v>70</v>
       </c>
-      <c r="R74" s="9" t="s">
+      <c r="R74" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="S74" s="38"/>
-      <c r="T74" s="38"/>
-      <c r="U74" s="38"/>
-      <c r="V74" s="9"/>
+      <c r="S74" s="35"/>
+      <c r="T74" s="35"/>
+      <c r="U74" s="35"/>
+      <c r="V74" s="8"/>
     </row>
     <row r="75" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q75" s="5">
         <v>71</v>
       </c>
-      <c r="R75" s="9" t="s">
+      <c r="R75" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="S75" s="38"/>
-      <c r="T75" s="38"/>
-      <c r="U75" s="38"/>
-      <c r="V75" s="9"/>
+      <c r="S75" s="35"/>
+      <c r="T75" s="35"/>
+      <c r="U75" s="35"/>
+      <c r="V75" s="8"/>
     </row>
     <row r="76" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q76" s="5">
         <v>72</v>
       </c>
-      <c r="R76" s="9" t="s">
+      <c r="R76" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="S76" s="38"/>
-      <c r="T76" s="38"/>
-      <c r="U76" s="38"/>
-      <c r="V76" s="9"/>
+      <c r="S76" s="35"/>
+      <c r="T76" s="35"/>
+      <c r="U76" s="35"/>
+      <c r="V76" s="8"/>
     </row>
     <row r="77" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q77" s="5">
         <v>73</v>
       </c>
-      <c r="R77" s="9" t="s">
+      <c r="R77" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="S77" s="38"/>
-      <c r="T77" s="38"/>
-      <c r="U77" s="38"/>
-      <c r="V77" s="9"/>
+      <c r="S77" s="35"/>
+      <c r="T77" s="35"/>
+      <c r="U77" s="35"/>
+      <c r="V77" s="8"/>
     </row>
     <row r="78" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q78" s="5">
         <v>74</v>
       </c>
-      <c r="R78" s="9" t="s">
+      <c r="R78" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="S78" s="38"/>
-      <c r="T78" s="38"/>
-      <c r="U78" s="38"/>
-      <c r="V78" s="9"/>
+      <c r="S78" s="35"/>
+      <c r="T78" s="35"/>
+      <c r="U78" s="35"/>
+      <c r="V78" s="8"/>
     </row>
     <row r="79" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q79" s="5">
         <v>75</v>
       </c>
-      <c r="R79" s="9" t="s">
+      <c r="R79" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="S79" s="38"/>
-      <c r="T79" s="38"/>
-      <c r="U79" s="38"/>
-      <c r="V79" s="9"/>
+      <c r="S79" s="35"/>
+      <c r="T79" s="35"/>
+      <c r="U79" s="35"/>
+      <c r="V79" s="8"/>
     </row>
     <row r="80" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q80" s="5">
         <v>76</v>
       </c>
-      <c r="R80" s="9" t="s">
+      <c r="R80" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="S80" s="38"/>
-      <c r="T80" s="38"/>
-      <c r="U80" s="38"/>
-      <c r="V80" s="9"/>
+      <c r="S80" s="35"/>
+      <c r="T80" s="35"/>
+      <c r="U80" s="35"/>
+      <c r="V80" s="8"/>
     </row>
     <row r="81" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q81" s="5">
         <v>77</v>
       </c>
-      <c r="R81" s="9" t="s">
+      <c r="R81" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="S81" s="38"/>
-      <c r="T81" s="38"/>
-      <c r="U81" s="38"/>
-      <c r="V81" s="9"/>
+      <c r="S81" s="35"/>
+      <c r="T81" s="35"/>
+      <c r="U81" s="35"/>
+      <c r="V81" s="8"/>
     </row>
     <row r="82" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q82" s="5">
         <v>78</v>
       </c>
-      <c r="R82" s="9" t="s">
+      <c r="R82" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="S82" s="38"/>
-      <c r="T82" s="38"/>
-      <c r="U82" s="38"/>
-      <c r="V82" s="9"/>
+      <c r="S82" s="35"/>
+      <c r="T82" s="35"/>
+      <c r="U82" s="35"/>
+      <c r="V82" s="8"/>
     </row>
     <row r="83" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q83" s="5">
         <v>79</v>
       </c>
-      <c r="R83" s="9" t="s">
+      <c r="R83" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="S83" s="38"/>
-      <c r="T83" s="38"/>
-      <c r="U83" s="38"/>
-      <c r="V83" s="9"/>
+      <c r="S83" s="35"/>
+      <c r="T83" s="35"/>
+      <c r="U83" s="35"/>
+      <c r="V83" s="8"/>
     </row>
     <row r="84" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q84" s="5">
         <v>80</v>
       </c>
-      <c r="R84" s="9" t="s">
+      <c r="R84" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="S84" s="38"/>
-      <c r="T84" s="38"/>
-      <c r="U84" s="38"/>
-      <c r="V84" s="9"/>
+      <c r="S84" s="35"/>
+      <c r="T84" s="35"/>
+      <c r="U84" s="35"/>
+      <c r="V84" s="8"/>
     </row>
     <row r="85" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q85" s="5">
         <v>81</v>
       </c>
-      <c r="R85" s="9" t="s">
+      <c r="R85" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="S85" s="38"/>
-      <c r="T85" s="38"/>
-      <c r="U85" s="38"/>
-      <c r="V85" s="9"/>
+      <c r="S85" s="35"/>
+      <c r="T85" s="35"/>
+      <c r="U85" s="35"/>
+      <c r="V85" s="8"/>
     </row>
     <row r="86" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q86" s="5">
         <v>82</v>
       </c>
-      <c r="R86" s="9" t="s">
+      <c r="R86" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="S86" s="38"/>
-      <c r="T86" s="38"/>
-      <c r="U86" s="38"/>
-      <c r="V86" s="9"/>
+      <c r="S86" s="35"/>
+      <c r="T86" s="35"/>
+      <c r="U86" s="35"/>
+      <c r="V86" s="8"/>
     </row>
     <row r="87" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q87" s="5">
         <v>83</v>
       </c>
-      <c r="R87" s="9" t="s">
+      <c r="R87" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="S87" s="38"/>
-      <c r="T87" s="38"/>
-      <c r="U87" s="38"/>
-      <c r="V87" s="9"/>
+      <c r="S87" s="35"/>
+      <c r="T87" s="35"/>
+      <c r="U87" s="35"/>
+      <c r="V87" s="8"/>
     </row>
     <row r="88" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q88" s="5">
         <v>84</v>
       </c>
-      <c r="R88" s="9" t="s">
+      <c r="R88" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="S88" s="38"/>
-      <c r="T88" s="38"/>
-      <c r="U88" s="38"/>
-      <c r="V88" s="9"/>
+      <c r="S88" s="35"/>
+      <c r="T88" s="35"/>
+      <c r="U88" s="35"/>
+      <c r="V88" s="8"/>
     </row>
     <row r="89" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q89" s="5">
         <v>85</v>
       </c>
-      <c r="R89" s="9" t="s">
+      <c r="R89" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="S89" s="38"/>
-      <c r="T89" s="38"/>
-      <c r="U89" s="38"/>
-      <c r="V89" s="9"/>
+      <c r="S89" s="35"/>
+      <c r="T89" s="35"/>
+      <c r="U89" s="35"/>
+      <c r="V89" s="8"/>
     </row>
     <row r="90" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q90" s="5">
         <v>86</v>
       </c>
-      <c r="R90" s="9" t="s">
+      <c r="R90" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="S90" s="38"/>
-      <c r="T90" s="38"/>
-      <c r="U90" s="38"/>
-      <c r="V90" s="9"/>
+      <c r="S90" s="35"/>
+      <c r="T90" s="35"/>
+      <c r="U90" s="35"/>
+      <c r="V90" s="8"/>
     </row>
     <row r="91" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q91" s="5">
         <v>87</v>
       </c>
-      <c r="R91" s="9" t="s">
+      <c r="R91" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="S91" s="38"/>
-      <c r="T91" s="38"/>
-      <c r="U91" s="38"/>
-      <c r="V91" s="9"/>
+      <c r="S91" s="35"/>
+      <c r="T91" s="35"/>
+      <c r="U91" s="35"/>
+      <c r="V91" s="8"/>
     </row>
     <row r="92" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q92" s="5">
         <v>88</v>
       </c>
-      <c r="R92" s="9" t="s">
+      <c r="R92" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="S92" s="38"/>
-      <c r="T92" s="38"/>
-      <c r="U92" s="38"/>
-      <c r="V92" s="9"/>
+      <c r="S92" s="35"/>
+      <c r="T92" s="35"/>
+      <c r="U92" s="35"/>
+      <c r="V92" s="8"/>
     </row>
     <row r="93" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q93" s="5">
         <v>89</v>
       </c>
-      <c r="R93" s="9" t="s">
+      <c r="R93" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="S93" s="38"/>
-      <c r="T93" s="38"/>
-      <c r="U93" s="38"/>
-      <c r="V93" s="9"/>
+      <c r="S93" s="35"/>
+      <c r="T93" s="35"/>
+      <c r="U93" s="35"/>
+      <c r="V93" s="8"/>
     </row>
     <row r="94" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q94" s="5">
         <v>90</v>
       </c>
-      <c r="R94" s="9" t="s">
+      <c r="R94" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="S94" s="38"/>
-      <c r="T94" s="38"/>
-      <c r="U94" s="38"/>
-      <c r="V94" s="9"/>
+      <c r="S94" s="35"/>
+      <c r="T94" s="35"/>
+      <c r="U94" s="35"/>
+      <c r="V94" s="8"/>
     </row>
     <row r="95" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q95" s="5">
         <v>91</v>
       </c>
-      <c r="R95" s="9" t="s">
+      <c r="R95" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="S95" s="38"/>
-      <c r="T95" s="38"/>
-      <c r="U95" s="38"/>
-      <c r="V95" s="9"/>
+      <c r="S95" s="35"/>
+      <c r="T95" s="35"/>
+      <c r="U95" s="35"/>
+      <c r="V95" s="8"/>
     </row>
     <row r="96" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q96" s="5">
         <v>92</v>
       </c>
-      <c r="R96" s="9" t="s">
+      <c r="R96" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="S96" s="38"/>
-      <c r="T96" s="38"/>
-      <c r="U96" s="38"/>
-      <c r="V96" s="9"/>
+      <c r="S96" s="35"/>
+      <c r="T96" s="35"/>
+      <c r="U96" s="35"/>
+      <c r="V96" s="8"/>
     </row>
     <row r="97" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q97" s="5">
         <v>93</v>
       </c>
-      <c r="R97" s="9" t="s">
+      <c r="R97" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="S97" s="38"/>
-      <c r="T97" s="38"/>
-      <c r="U97" s="38"/>
-      <c r="V97" s="9"/>
+      <c r="S97" s="35"/>
+      <c r="T97" s="35"/>
+      <c r="U97" s="35"/>
+      <c r="V97" s="8"/>
     </row>
     <row r="98" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q98" s="5">
         <v>94</v>
       </c>
-      <c r="R98" s="9" t="s">
+      <c r="R98" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="S98" s="38"/>
-      <c r="T98" s="38"/>
-      <c r="U98" s="38"/>
-      <c r="V98" s="9"/>
+      <c r="S98" s="35"/>
+      <c r="T98" s="35"/>
+      <c r="U98" s="35"/>
+      <c r="V98" s="8"/>
     </row>
     <row r="99" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q99" s="5">
         <v>95</v>
       </c>
-      <c r="R99" s="9" t="s">
+      <c r="R99" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="S99" s="38"/>
-      <c r="T99" s="38"/>
-      <c r="U99" s="38"/>
-      <c r="V99" s="9"/>
+      <c r="S99" s="35"/>
+      <c r="T99" s="35"/>
+      <c r="U99" s="35"/>
+      <c r="V99" s="8"/>
     </row>
     <row r="100" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q100" s="5">
         <v>96</v>
       </c>
-      <c r="R100" s="9" t="s">
+      <c r="R100" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="S100" s="38"/>
-      <c r="T100" s="38"/>
-      <c r="U100" s="38"/>
-      <c r="V100" s="9"/>
+      <c r="S100" s="35"/>
+      <c r="T100" s="35"/>
+      <c r="U100" s="35"/>
+      <c r="V100" s="8"/>
     </row>
     <row r="101" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q101" s="5">
         <v>97</v>
       </c>
-      <c r="R101" s="9" t="s">
+      <c r="R101" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="S101" s="38"/>
-      <c r="T101" s="38"/>
-      <c r="U101" s="38"/>
-      <c r="V101" s="9"/>
+      <c r="S101" s="35"/>
+      <c r="T101" s="35"/>
+      <c r="U101" s="35"/>
+      <c r="V101" s="8"/>
     </row>
     <row r="102" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q102" s="5">
         <v>98</v>
       </c>
-      <c r="R102" s="9" t="s">
+      <c r="R102" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="S102" s="38"/>
-      <c r="T102" s="38"/>
-      <c r="U102" s="38"/>
-      <c r="V102" s="9"/>
+      <c r="S102" s="35"/>
+      <c r="T102" s="35"/>
+      <c r="U102" s="35"/>
+      <c r="V102" s="8"/>
     </row>
     <row r="103" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q103" s="5">
         <v>99</v>
       </c>
-      <c r="R103" s="9" t="s">
+      <c r="R103" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="S103" s="38"/>
-      <c r="T103" s="38"/>
-      <c r="U103" s="38"/>
-      <c r="V103" s="9"/>
+      <c r="S103" s="35"/>
+      <c r="T103" s="35"/>
+      <c r="U103" s="35"/>
+      <c r="V103" s="8"/>
     </row>
     <row r="104" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q104" s="5">
         <v>100</v>
       </c>
-      <c r="R104" s="9" t="s">
+      <c r="R104" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="S104" s="38"/>
-      <c r="T104" s="38"/>
-      <c r="U104" s="38"/>
-      <c r="V104" s="9"/>
+      <c r="S104" s="35"/>
+      <c r="T104" s="35"/>
+      <c r="U104" s="35"/>
+      <c r="V104" s="8"/>
     </row>
     <row r="105" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q105" s="5">
         <v>101</v>
       </c>
-      <c r="R105" s="9" t="s">
+      <c r="R105" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="S105" s="38"/>
-      <c r="T105" s="38"/>
-      <c r="U105" s="38"/>
-      <c r="V105" s="9"/>
+      <c r="S105" s="35"/>
+      <c r="T105" s="35"/>
+      <c r="U105" s="35"/>
+      <c r="V105" s="8"/>
     </row>
     <row r="106" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q106" s="5">
         <v>102</v>
       </c>
-      <c r="R106" s="9" t="s">
+      <c r="R106" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="S106" s="38"/>
-      <c r="T106" s="38"/>
-      <c r="U106" s="38"/>
-      <c r="V106" s="9"/>
+      <c r="S106" s="35"/>
+      <c r="T106" s="35"/>
+      <c r="U106" s="35"/>
+      <c r="V106" s="8"/>
     </row>
     <row r="107" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q107" s="5">
         <v>103</v>
       </c>
-      <c r="R107" s="9" t="s">
+      <c r="R107" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="S107" s="38"/>
-      <c r="T107" s="38"/>
-      <c r="U107" s="38"/>
-      <c r="V107" s="9"/>
+      <c r="S107" s="35"/>
+      <c r="T107" s="35"/>
+      <c r="U107" s="35"/>
+      <c r="V107" s="8"/>
     </row>
     <row r="108" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q108" s="5">
         <v>104</v>
       </c>
-      <c r="R108" s="9" t="s">
+      <c r="R108" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="S108" s="38"/>
-      <c r="T108" s="38"/>
-      <c r="U108" s="38"/>
-      <c r="V108" s="9"/>
+      <c r="S108" s="35"/>
+      <c r="T108" s="35"/>
+      <c r="U108" s="35"/>
+      <c r="V108" s="8"/>
     </row>
     <row r="109" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q109" s="5">
         <v>105</v>
       </c>
-      <c r="R109" s="9" t="s">
+      <c r="R109" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="S109" s="38"/>
-      <c r="T109" s="38"/>
-      <c r="U109" s="38"/>
-      <c r="V109" s="9"/>
+      <c r="S109" s="35"/>
+      <c r="T109" s="35"/>
+      <c r="U109" s="35"/>
+      <c r="V109" s="8"/>
     </row>
     <row r="110" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q110" s="5">
         <v>106</v>
       </c>
-      <c r="R110" s="9" t="s">
+      <c r="R110" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="S110" s="38"/>
-      <c r="T110" s="38"/>
-      <c r="U110" s="38"/>
-      <c r="V110" s="9"/>
+      <c r="S110" s="35"/>
+      <c r="T110" s="35"/>
+      <c r="U110" s="35"/>
+      <c r="V110" s="8"/>
     </row>
     <row r="111" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q111" s="5">
         <v>107</v>
       </c>
-      <c r="R111" s="9" t="s">
+      <c r="R111" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="S111" s="38"/>
-      <c r="T111" s="38"/>
-      <c r="U111" s="38"/>
-      <c r="V111" s="9"/>
+      <c r="S111" s="35"/>
+      <c r="T111" s="35"/>
+      <c r="U111" s="35"/>
+      <c r="V111" s="8"/>
     </row>
     <row r="112" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q112" s="5">
         <v>108</v>
       </c>
-      <c r="R112" s="9" t="s">
+      <c r="R112" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="S112" s="38"/>
-      <c r="T112" s="38"/>
-      <c r="U112" s="38"/>
-      <c r="V112" s="9"/>
+      <c r="S112" s="35"/>
+      <c r="T112" s="35"/>
+      <c r="U112" s="35"/>
+      <c r="V112" s="8"/>
     </row>
     <row r="113" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q113" s="5">
         <v>109</v>
       </c>
-      <c r="R113" s="9" t="s">
+      <c r="R113" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="S113" s="38"/>
-      <c r="T113" s="38"/>
-      <c r="U113" s="38"/>
-      <c r="V113" s="9"/>
+      <c r="S113" s="35"/>
+      <c r="T113" s="35"/>
+      <c r="U113" s="35"/>
+      <c r="V113" s="8"/>
     </row>
     <row r="114" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q114" s="5">
         <v>110</v>
       </c>
-      <c r="R114" s="9" t="s">
+      <c r="R114" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="S114" s="38"/>
-      <c r="T114" s="38"/>
-      <c r="U114" s="38"/>
-      <c r="V114" s="9"/>
+      <c r="S114" s="35"/>
+      <c r="T114" s="35"/>
+      <c r="U114" s="35"/>
+      <c r="V114" s="8"/>
     </row>
     <row r="115" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q115" s="5">
         <v>111</v>
       </c>
-      <c r="R115" s="9" t="s">
+      <c r="R115" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="S115" s="38"/>
-      <c r="T115" s="38"/>
-      <c r="U115" s="38"/>
-      <c r="V115" s="9"/>
+      <c r="S115" s="35"/>
+      <c r="T115" s="35"/>
+      <c r="U115" s="35"/>
+      <c r="V115" s="8"/>
     </row>
     <row r="116" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q116" s="5">
         <v>112</v>
       </c>
-      <c r="R116" s="9" t="s">
+      <c r="R116" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="S116" s="38"/>
-      <c r="T116" s="38"/>
-      <c r="U116" s="38"/>
-      <c r="V116" s="9"/>
+      <c r="S116" s="35"/>
+      <c r="T116" s="35"/>
+      <c r="U116" s="35"/>
+      <c r="V116" s="8"/>
     </row>
     <row r="117" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q117" s="5">
         <v>113</v>
       </c>
-      <c r="R117" s="9" t="s">
+      <c r="R117" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="S117" s="38"/>
-      <c r="T117" s="38"/>
-      <c r="U117" s="38"/>
-      <c r="V117" s="9"/>
+      <c r="S117" s="35"/>
+      <c r="T117" s="35"/>
+      <c r="U117" s="35"/>
+      <c r="V117" s="8"/>
     </row>
     <row r="118" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q118" s="5">
         <v>114</v>
       </c>
-      <c r="R118" s="9" t="s">
+      <c r="R118" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="S118" s="38"/>
-      <c r="T118" s="38"/>
-      <c r="U118" s="38"/>
-      <c r="V118" s="9"/>
+      <c r="S118" s="35"/>
+      <c r="T118" s="35"/>
+      <c r="U118" s="35"/>
+      <c r="V118" s="8"/>
     </row>
     <row r="119" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q119" s="5">
         <v>115</v>
       </c>
-      <c r="R119" s="9" t="s">
+      <c r="R119" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="S119" s="38"/>
-      <c r="T119" s="38"/>
-      <c r="U119" s="38"/>
-      <c r="V119" s="9"/>
+      <c r="S119" s="35"/>
+      <c r="T119" s="35"/>
+      <c r="U119" s="35"/>
+      <c r="V119" s="8"/>
     </row>
     <row r="120" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q120" s="5">
         <v>116</v>
       </c>
-      <c r="R120" s="9" t="s">
+      <c r="R120" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="S120" s="38"/>
-      <c r="T120" s="38"/>
-      <c r="U120" s="38"/>
-      <c r="V120" s="9"/>
+      <c r="S120" s="35"/>
+      <c r="T120" s="35"/>
+      <c r="U120" s="35"/>
+      <c r="V120" s="8"/>
     </row>
     <row r="121" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q121" s="5">
         <v>117</v>
       </c>
-      <c r="R121" s="9" t="s">
+      <c r="R121" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="S121" s="38"/>
-      <c r="T121" s="38"/>
-      <c r="U121" s="38"/>
-      <c r="V121" s="9"/>
+      <c r="S121" s="35"/>
+      <c r="T121" s="35"/>
+      <c r="U121" s="35"/>
+      <c r="V121" s="8"/>
     </row>
     <row r="122" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q122" s="5">
         <v>118</v>
       </c>
-      <c r="R122" s="9" t="s">
+      <c r="R122" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="S122" s="38"/>
-      <c r="T122" s="38"/>
-      <c r="U122" s="38"/>
-      <c r="V122" s="9"/>
+      <c r="S122" s="35"/>
+      <c r="T122" s="35"/>
+      <c r="U122" s="35"/>
+      <c r="V122" s="8"/>
     </row>
     <row r="123" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q123" s="5">
         <v>119</v>
       </c>
-      <c r="R123" s="9" t="s">
+      <c r="R123" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="S123" s="38"/>
-      <c r="T123" s="38"/>
-      <c r="U123" s="38"/>
-      <c r="V123" s="9"/>
+      <c r="S123" s="35"/>
+      <c r="T123" s="35"/>
+      <c r="U123" s="35"/>
+      <c r="V123" s="8"/>
     </row>
     <row r="124" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q124" s="5">
         <v>120</v>
       </c>
-      <c r="R124" s="9" t="s">
+      <c r="R124" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="S124" s="38"/>
-      <c r="T124" s="38"/>
-      <c r="U124" s="38"/>
-      <c r="V124" s="9"/>
+      <c r="S124" s="35"/>
+      <c r="T124" s="35"/>
+      <c r="U124" s="35"/>
+      <c r="V124" s="8"/>
     </row>
     <row r="125" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q125" s="5">
         <v>121</v>
       </c>
-      <c r="R125" s="9" t="s">
+      <c r="R125" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="S125" s="38"/>
-      <c r="T125" s="38"/>
-      <c r="U125" s="38"/>
-      <c r="V125" s="9"/>
+      <c r="S125" s="35"/>
+      <c r="T125" s="35"/>
+      <c r="U125" s="35"/>
+      <c r="V125" s="8"/>
     </row>
     <row r="126" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q126" s="5">
         <v>122</v>
       </c>
-      <c r="R126" s="9" t="s">
+      <c r="R126" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="S126" s="38"/>
-      <c r="T126" s="38"/>
-      <c r="U126" s="38"/>
-      <c r="V126" s="9"/>
+      <c r="S126" s="35"/>
+      <c r="T126" s="35"/>
+      <c r="U126" s="35"/>
+      <c r="V126" s="8"/>
     </row>
     <row r="127" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q127" s="5">
         <v>123</v>
       </c>
-      <c r="R127" s="9" t="s">
+      <c r="R127" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="S127" s="38"/>
-      <c r="T127" s="38"/>
-      <c r="U127" s="38"/>
-      <c r="V127" s="9"/>
+      <c r="S127" s="35"/>
+      <c r="T127" s="35"/>
+      <c r="U127" s="35"/>
+      <c r="V127" s="8"/>
     </row>
     <row r="128" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q128" s="5">
         <v>124</v>
       </c>
-      <c r="R128" s="9" t="s">
+      <c r="R128" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="S128" s="38"/>
-      <c r="T128" s="38"/>
-      <c r="U128" s="38"/>
-      <c r="V128" s="9"/>
+      <c r="S128" s="35"/>
+      <c r="T128" s="35"/>
+      <c r="U128" s="35"/>
+      <c r="V128" s="8"/>
     </row>
     <row r="129" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q129" s="5">
         <v>125</v>
       </c>
-      <c r="R129" s="9" t="s">
+      <c r="R129" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="S129" s="38"/>
-      <c r="T129" s="38"/>
-      <c r="U129" s="38"/>
-      <c r="V129" s="9"/>
+      <c r="S129" s="35"/>
+      <c r="T129" s="35"/>
+      <c r="U129" s="35"/>
+      <c r="V129" s="8"/>
     </row>
     <row r="130" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q130" s="5">
         <v>126</v>
       </c>
-      <c r="R130" s="9" t="s">
+      <c r="R130" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="S130" s="38"/>
-      <c r="T130" s="38"/>
-      <c r="U130" s="38"/>
-      <c r="V130" s="9"/>
+      <c r="S130" s="35"/>
+      <c r="T130" s="35"/>
+      <c r="U130" s="35"/>
+      <c r="V130" s="8"/>
     </row>
     <row r="131" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q131" s="5">
         <v>127</v>
       </c>
-      <c r="R131" s="9" t="s">
+      <c r="R131" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="S131" s="38"/>
-      <c r="T131" s="38"/>
-      <c r="U131" s="38"/>
-      <c r="V131" s="9"/>
+      <c r="S131" s="35"/>
+      <c r="T131" s="35"/>
+      <c r="U131" s="35"/>
+      <c r="V131" s="8"/>
     </row>
     <row r="132" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q132" s="5">
         <v>128</v>
       </c>
-      <c r="R132" s="9" t="s">
+      <c r="R132" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="S132" s="38"/>
-      <c r="T132" s="38"/>
-      <c r="U132" s="38"/>
-      <c r="V132" s="9"/>
+      <c r="S132" s="35"/>
+      <c r="T132" s="35"/>
+      <c r="U132" s="35"/>
+      <c r="V132" s="8"/>
     </row>
     <row r="133" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q133" s="5">
         <v>129</v>
       </c>
-      <c r="R133" s="9" t="s">
+      <c r="R133" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="S133" s="38"/>
-      <c r="T133" s="38"/>
-      <c r="U133" s="38"/>
-      <c r="V133" s="9"/>
+      <c r="S133" s="35"/>
+      <c r="T133" s="35"/>
+      <c r="U133" s="35"/>
+      <c r="V133" s="8"/>
     </row>
     <row r="134" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q134" s="5">
         <v>130</v>
       </c>
-      <c r="R134" s="9" t="s">
+      <c r="R134" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="S134" s="38"/>
-      <c r="T134" s="38"/>
-      <c r="U134" s="38"/>
-      <c r="V134" s="9"/>
+      <c r="S134" s="35"/>
+      <c r="T134" s="35"/>
+      <c r="U134" s="35"/>
+      <c r="V134" s="8"/>
     </row>
     <row r="135" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q135" s="5">
         <v>131</v>
       </c>
-      <c r="R135" s="9" t="s">
+      <c r="R135" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="S135" s="38"/>
-      <c r="T135" s="38"/>
-      <c r="U135" s="38"/>
-      <c r="V135" s="9"/>
+      <c r="S135" s="35"/>
+      <c r="T135" s="35"/>
+      <c r="U135" s="35"/>
+      <c r="V135" s="8"/>
     </row>
     <row r="136" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q136" s="5">
         <v>132</v>
       </c>
-      <c r="R136" s="9" t="s">
+      <c r="R136" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="S136" s="38"/>
-      <c r="T136" s="38"/>
-      <c r="U136" s="38"/>
-      <c r="V136" s="9"/>
+      <c r="S136" s="35"/>
+      <c r="T136" s="35"/>
+      <c r="U136" s="35"/>
+      <c r="V136" s="8"/>
     </row>
     <row r="137" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q137" s="5">
         <v>133</v>
       </c>
-      <c r="R137" s="9" t="s">
+      <c r="R137" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="S137" s="38"/>
-      <c r="T137" s="38"/>
-      <c r="U137" s="38"/>
-      <c r="V137" s="9"/>
+      <c r="S137" s="35"/>
+      <c r="T137" s="35"/>
+      <c r="U137" s="35"/>
+      <c r="V137" s="8"/>
     </row>
     <row r="138" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q138" s="5">
         <v>134</v>
       </c>
-      <c r="R138" s="9" t="s">
+      <c r="R138" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="S138" s="38"/>
-      <c r="T138" s="38"/>
-      <c r="U138" s="38"/>
-      <c r="V138" s="9"/>
+      <c r="S138" s="35"/>
+      <c r="T138" s="35"/>
+      <c r="U138" s="35"/>
+      <c r="V138" s="8"/>
     </row>
     <row r="139" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q139" s="5">
         <v>135</v>
       </c>
-      <c r="R139" s="9" t="s">
+      <c r="R139" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="S139" s="38"/>
-      <c r="T139" s="38"/>
-      <c r="U139" s="38"/>
-      <c r="V139" s="9"/>
+      <c r="S139" s="35"/>
+      <c r="T139" s="35"/>
+      <c r="U139" s="35"/>
+      <c r="V139" s="8"/>
     </row>
     <row r="140" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q140" s="5">
         <v>136</v>
       </c>
-      <c r="R140" s="9" t="s">
+      <c r="R140" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="S140" s="38"/>
-      <c r="T140" s="38"/>
-      <c r="U140" s="38"/>
-      <c r="V140" s="9"/>
+      <c r="S140" s="35"/>
+      <c r="T140" s="35"/>
+      <c r="U140" s="35"/>
+      <c r="V140" s="8"/>
     </row>
     <row r="141" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q141" s="5">
         <v>137</v>
       </c>
-      <c r="R141" s="9" t="s">
+      <c r="R141" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="S141" s="38"/>
-      <c r="T141" s="38"/>
-      <c r="U141" s="38"/>
-      <c r="V141" s="9"/>
+      <c r="S141" s="35"/>
+      <c r="T141" s="35"/>
+      <c r="U141" s="35"/>
+      <c r="V141" s="8"/>
     </row>
     <row r="142" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q142" s="5">
         <v>138</v>
       </c>
-      <c r="R142" s="9" t="s">
+      <c r="R142" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="S142" s="38"/>
-      <c r="T142" s="38"/>
-      <c r="U142" s="38"/>
-      <c r="V142" s="9"/>
+      <c r="S142" s="35"/>
+      <c r="T142" s="35"/>
+      <c r="U142" s="35"/>
+      <c r="V142" s="8"/>
     </row>
     <row r="143" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q143" s="5">
         <v>139</v>
       </c>
-      <c r="R143" s="9" t="s">
+      <c r="R143" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="S143" s="38"/>
-      <c r="T143" s="38"/>
-      <c r="U143" s="38"/>
-      <c r="V143" s="9"/>
+      <c r="S143" s="35"/>
+      <c r="T143" s="35"/>
+      <c r="U143" s="35"/>
+      <c r="V143" s="8"/>
     </row>
     <row r="144" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q144" s="5">
         <v>140</v>
       </c>
-      <c r="R144" s="9" t="s">
+      <c r="R144" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="S144" s="38"/>
-      <c r="T144" s="38"/>
-      <c r="U144" s="38"/>
-      <c r="V144" s="9"/>
+      <c r="S144" s="35"/>
+      <c r="T144" s="35"/>
+      <c r="U144" s="35"/>
+      <c r="V144" s="8"/>
     </row>
     <row r="145" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q145" s="5">
         <v>141</v>
       </c>
-      <c r="R145" s="9" t="s">
+      <c r="R145" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="S145" s="38"/>
-      <c r="T145" s="38"/>
-      <c r="U145" s="38"/>
-      <c r="V145" s="9"/>
+      <c r="S145" s="35"/>
+      <c r="T145" s="35"/>
+      <c r="U145" s="35"/>
+      <c r="V145" s="8"/>
     </row>
     <row r="146" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q146" s="5">
         <v>142</v>
       </c>
-      <c r="R146" s="9" t="s">
+      <c r="R146" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="S146" s="38"/>
-      <c r="T146" s="38"/>
-      <c r="U146" s="38"/>
-      <c r="V146" s="9"/>
+      <c r="S146" s="35"/>
+      <c r="T146" s="35"/>
+      <c r="U146" s="35"/>
+      <c r="V146" s="8"/>
     </row>
     <row r="147" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q147" s="5">
         <v>143</v>
       </c>
-      <c r="R147" s="9" t="s">
+      <c r="R147" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="S147" s="38"/>
-      <c r="T147" s="38"/>
-      <c r="U147" s="38"/>
-      <c r="V147" s="9"/>
+      <c r="S147" s="35"/>
+      <c r="T147" s="35"/>
+      <c r="U147" s="35"/>
+      <c r="V147" s="8"/>
     </row>
     <row r="148" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q148" s="5">
         <v>144</v>
       </c>
-      <c r="R148" s="9" t="s">
+      <c r="R148" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="S148" s="38"/>
-      <c r="T148" s="38"/>
-      <c r="U148" s="38"/>
-      <c r="V148" s="9"/>
+      <c r="S148" s="35"/>
+      <c r="T148" s="35"/>
+      <c r="U148" s="35"/>
+      <c r="V148" s="8"/>
     </row>
     <row r="149" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q149" s="5">
         <v>145</v>
       </c>
-      <c r="R149" s="9" t="s">
+      <c r="R149" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="S149" s="38"/>
-      <c r="T149" s="38"/>
-      <c r="U149" s="38"/>
-      <c r="V149" s="9"/>
+      <c r="S149" s="35"/>
+      <c r="T149" s="35"/>
+      <c r="U149" s="35"/>
+      <c r="V149" s="8"/>
     </row>
     <row r="150" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q150" s="5">
         <v>146</v>
       </c>
-      <c r="R150" s="9" t="s">
+      <c r="R150" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="S150" s="38"/>
-      <c r="T150" s="38"/>
-      <c r="U150" s="38"/>
-      <c r="V150" s="9"/>
+      <c r="S150" s="35"/>
+      <c r="T150" s="35"/>
+      <c r="U150" s="35"/>
+      <c r="V150" s="8"/>
     </row>
     <row r="151" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q151" s="5">
         <v>147</v>
       </c>
-      <c r="R151" s="9" t="s">
+      <c r="R151" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="S151" s="38"/>
-      <c r="T151" s="38"/>
-      <c r="U151" s="38"/>
-      <c r="V151" s="9"/>
+      <c r="S151" s="35"/>
+      <c r="T151" s="35"/>
+      <c r="U151" s="35"/>
+      <c r="V151" s="8"/>
     </row>
     <row r="152" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q152" s="5">
         <v>148</v>
       </c>
-      <c r="R152" s="9" t="s">
+      <c r="R152" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="S152" s="38"/>
-      <c r="T152" s="38"/>
-      <c r="U152" s="38"/>
-      <c r="V152" s="9"/>
+      <c r="S152" s="35"/>
+      <c r="T152" s="35"/>
+      <c r="U152" s="35"/>
+      <c r="V152" s="8"/>
     </row>
     <row r="153" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q153" s="5">
         <v>149</v>
       </c>
-      <c r="R153" s="9" t="s">
+      <c r="R153" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="S153" s="38"/>
-      <c r="T153" s="38"/>
-      <c r="U153" s="38"/>
-      <c r="V153" s="9"/>
+      <c r="S153" s="35"/>
+      <c r="T153" s="35"/>
+      <c r="U153" s="35"/>
+      <c r="V153" s="8"/>
     </row>
     <row r="154" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q154" s="5">
         <v>150</v>
       </c>
-      <c r="R154" s="9" t="s">
+      <c r="R154" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="S154" s="38"/>
-      <c r="T154" s="38"/>
-      <c r="U154" s="38"/>
-      <c r="V154" s="9"/>
+      <c r="S154" s="35"/>
+      <c r="T154" s="35"/>
+      <c r="U154" s="35"/>
+      <c r="V154" s="8"/>
     </row>
     <row r="155" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q155" s="5">
         <v>151</v>
       </c>
-      <c r="R155" s="9" t="s">
+      <c r="R155" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="S155" s="38"/>
-      <c r="T155" s="38"/>
-      <c r="U155" s="38"/>
-      <c r="V155" s="9"/>
+      <c r="S155" s="35"/>
+      <c r="T155" s="35"/>
+      <c r="U155" s="35"/>
+      <c r="V155" s="8"/>
     </row>
     <row r="156" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q156" s="5">
         <v>152</v>
       </c>
-      <c r="R156" s="9" t="s">
+      <c r="R156" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="S156" s="38"/>
-      <c r="T156" s="38"/>
-      <c r="U156" s="38"/>
-      <c r="V156" s="9"/>
+      <c r="S156" s="35"/>
+      <c r="T156" s="35"/>
+      <c r="U156" s="35"/>
+      <c r="V156" s="8"/>
     </row>
     <row r="157" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q157" s="5">
         <v>153</v>
       </c>
-      <c r="R157" s="9" t="s">
+      <c r="R157" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="S157" s="38"/>
-      <c r="T157" s="38"/>
-      <c r="U157" s="38"/>
-      <c r="V157" s="9"/>
+      <c r="S157" s="35"/>
+      <c r="T157" s="35"/>
+      <c r="U157" s="35"/>
+      <c r="V157" s="8"/>
     </row>
     <row r="158" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q158" s="5">
         <v>154</v>
       </c>
-      <c r="R158" s="9" t="s">
+      <c r="R158" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="S158" s="38"/>
-      <c r="T158" s="38"/>
-      <c r="U158" s="38"/>
-      <c r="V158" s="9"/>
+      <c r="S158" s="35"/>
+      <c r="T158" s="35"/>
+      <c r="U158" s="35"/>
+      <c r="V158" s="8"/>
     </row>
     <row r="159" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q159" s="5">
         <v>155</v>
       </c>
-      <c r="R159" s="9" t="s">
+      <c r="R159" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="S159" s="38"/>
-      <c r="T159" s="38"/>
-      <c r="U159" s="38"/>
-      <c r="V159" s="9"/>
+      <c r="S159" s="35"/>
+      <c r="T159" s="35"/>
+      <c r="U159" s="35"/>
+      <c r="V159" s="8"/>
     </row>
     <row r="160" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q160" s="5">
         <v>156</v>
       </c>
-      <c r="R160" s="9" t="s">
+      <c r="R160" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="S160" s="38"/>
-      <c r="T160" s="38"/>
-      <c r="U160" s="38"/>
-      <c r="V160" s="9"/>
+      <c r="S160" s="35"/>
+      <c r="T160" s="35"/>
+      <c r="U160" s="35"/>
+      <c r="V160" s="8"/>
     </row>
     <row r="161" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q161" s="5">
         <v>157</v>
       </c>
-      <c r="R161" s="9" t="s">
+      <c r="R161" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="S161" s="38"/>
-      <c r="T161" s="38"/>
-      <c r="U161" s="38"/>
-      <c r="V161" s="9"/>
+      <c r="S161" s="35"/>
+      <c r="T161" s="35"/>
+      <c r="U161" s="35"/>
+      <c r="V161" s="8"/>
     </row>
     <row r="162" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q162" s="5">
         <v>158</v>
       </c>
-      <c r="R162" s="9" t="s">
+      <c r="R162" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="S162" s="38"/>
-      <c r="T162" s="38"/>
-      <c r="U162" s="38"/>
-      <c r="V162" s="9"/>
+      <c r="S162" s="35"/>
+      <c r="T162" s="35"/>
+      <c r="U162" s="35"/>
+      <c r="V162" s="8"/>
     </row>
     <row r="163" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q163" s="5">
         <v>159</v>
       </c>
-      <c r="R163" s="9" t="s">
+      <c r="R163" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="S163" s="38"/>
-      <c r="T163" s="38"/>
-      <c r="U163" s="38"/>
-      <c r="V163" s="9"/>
+      <c r="S163" s="35"/>
+      <c r="T163" s="35"/>
+      <c r="U163" s="35"/>
+      <c r="V163" s="8"/>
     </row>
     <row r="164" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q164" s="5">
         <v>160</v>
       </c>
-      <c r="R164" s="9" t="s">
+      <c r="R164" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="S164" s="38"/>
-      <c r="T164" s="38"/>
-      <c r="U164" s="38"/>
-      <c r="V164" s="9"/>
+      <c r="S164" s="35"/>
+      <c r="T164" s="35"/>
+      <c r="U164" s="35"/>
+      <c r="V164" s="8"/>
     </row>
     <row r="165" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q165" s="5">
         <v>161</v>
       </c>
-      <c r="R165" s="9" t="s">
+      <c r="R165" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="S165" s="38"/>
-      <c r="T165" s="38"/>
-      <c r="U165" s="38"/>
-      <c r="V165" s="9"/>
+      <c r="S165" s="35"/>
+      <c r="T165" s="35"/>
+      <c r="U165" s="35"/>
+      <c r="V165" s="8"/>
     </row>
     <row r="166" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q166" s="5">
         <v>162</v>
       </c>
-      <c r="R166" s="9" t="s">
+      <c r="R166" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="S166" s="38"/>
-      <c r="T166" s="38"/>
-      <c r="U166" s="38"/>
-      <c r="V166" s="9"/>
+      <c r="S166" s="35"/>
+      <c r="T166" s="35"/>
+      <c r="U166" s="35"/>
+      <c r="V166" s="8"/>
     </row>
     <row r="167" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q167" s="5">
         <v>163</v>
       </c>
-      <c r="R167" s="9" t="s">
+      <c r="R167" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="S167" s="38"/>
-      <c r="T167" s="38"/>
-      <c r="U167" s="38"/>
-      <c r="V167" s="9"/>
+      <c r="S167" s="35"/>
+      <c r="T167" s="35"/>
+      <c r="U167" s="35"/>
+      <c r="V167" s="8"/>
     </row>
     <row r="168" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q168" s="5">
         <v>164</v>
       </c>
-      <c r="R168" s="9" t="s">
+      <c r="R168" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="S168" s="38"/>
-      <c r="T168" s="38"/>
-      <c r="U168" s="38"/>
-      <c r="V168" s="9"/>
+      <c r="S168" s="35"/>
+      <c r="T168" s="35"/>
+      <c r="U168" s="35"/>
+      <c r="V168" s="8"/>
     </row>
     <row r="169" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q169" s="5">
         <v>165</v>
       </c>
-      <c r="R169" s="9" t="s">
+      <c r="R169" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="S169" s="38"/>
-      <c r="T169" s="38"/>
-      <c r="U169" s="38"/>
-      <c r="V169" s="9"/>
+      <c r="S169" s="35"/>
+      <c r="T169" s="35"/>
+      <c r="U169" s="35"/>
+      <c r="V169" s="8"/>
     </row>
     <row r="170" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q170" s="5">
         <v>166</v>
       </c>
-      <c r="R170" s="9" t="s">
+      <c r="R170" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="S170" s="38"/>
-      <c r="T170" s="38"/>
-      <c r="U170" s="38"/>
-      <c r="V170" s="9"/>
+      <c r="S170" s="35"/>
+      <c r="T170" s="35"/>
+      <c r="U170" s="35"/>
+      <c r="V170" s="8"/>
     </row>
     <row r="171" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q171" s="5">
         <v>167</v>
       </c>
-      <c r="R171" s="9" t="s">
+      <c r="R171" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="S171" s="38"/>
-      <c r="T171" s="38"/>
-      <c r="U171" s="38"/>
-      <c r="V171" s="9"/>
+      <c r="S171" s="35"/>
+      <c r="T171" s="35"/>
+      <c r="U171" s="35"/>
+      <c r="V171" s="8"/>
     </row>
     <row r="172" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q172" s="5">
         <v>168</v>
       </c>
-      <c r="R172" s="9" t="s">
+      <c r="R172" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="S172" s="38"/>
-      <c r="T172" s="38"/>
-      <c r="U172" s="38"/>
-      <c r="V172" s="9"/>
+      <c r="S172" s="35"/>
+      <c r="T172" s="35"/>
+      <c r="U172" s="35"/>
+      <c r="V172" s="8"/>
     </row>
     <row r="173" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q173" s="5">
         <v>169</v>
       </c>
-      <c r="R173" s="9" t="s">
+      <c r="R173" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="S173" s="38"/>
-      <c r="T173" s="38"/>
-      <c r="U173" s="38"/>
-      <c r="V173" s="9"/>
+      <c r="S173" s="35"/>
+      <c r="T173" s="35"/>
+      <c r="U173" s="35"/>
+      <c r="V173" s="8"/>
     </row>
     <row r="174" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q174" s="5">
         <v>170</v>
       </c>
-      <c r="R174" s="9" t="s">
+      <c r="R174" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="S174" s="38"/>
-      <c r="T174" s="38"/>
-      <c r="U174" s="38"/>
-      <c r="V174" s="9"/>
+      <c r="S174" s="35"/>
+      <c r="T174" s="35"/>
+      <c r="U174" s="35"/>
+      <c r="V174" s="8"/>
     </row>
     <row r="175" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q175" s="5">
         <v>171</v>
       </c>
-      <c r="R175" s="9" t="s">
+      <c r="R175" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="S175" s="38"/>
-      <c r="T175" s="38"/>
-      <c r="U175" s="38"/>
-      <c r="V175" s="9"/>
+      <c r="S175" s="35"/>
+      <c r="T175" s="35"/>
+      <c r="U175" s="35"/>
+      <c r="V175" s="8"/>
     </row>
     <row r="176" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q176" s="5">
         <v>172</v>
       </c>
-      <c r="R176" s="9" t="s">
+      <c r="R176" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="S176" s="38"/>
-      <c r="T176" s="38"/>
-      <c r="U176" s="38"/>
-      <c r="V176" s="9"/>
+      <c r="S176" s="35"/>
+      <c r="T176" s="35"/>
+      <c r="U176" s="35"/>
+      <c r="V176" s="8"/>
     </row>
     <row r="177" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q177" s="5">
         <v>173</v>
       </c>
-      <c r="R177" s="9" t="s">
+      <c r="R177" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="S177" s="38"/>
-      <c r="T177" s="38"/>
-      <c r="U177" s="38"/>
-      <c r="V177" s="9"/>
+      <c r="S177" s="35"/>
+      <c r="T177" s="35"/>
+      <c r="U177" s="35"/>
+      <c r="V177" s="8"/>
     </row>
     <row r="178" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q178" s="5">
         <v>174</v>
       </c>
-      <c r="R178" s="9" t="s">
+      <c r="R178" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="S178" s="38"/>
-      <c r="T178" s="38"/>
-      <c r="U178" s="38"/>
-      <c r="V178" s="9"/>
+      <c r="S178" s="35"/>
+      <c r="T178" s="35"/>
+      <c r="U178" s="35"/>
+      <c r="V178" s="8"/>
     </row>
     <row r="179" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q179" s="5">
         <v>175</v>
       </c>
-      <c r="R179" s="9" t="s">
+      <c r="R179" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="S179" s="38"/>
-      <c r="T179" s="38"/>
-      <c r="U179" s="38"/>
-      <c r="V179" s="9"/>
+      <c r="S179" s="35"/>
+      <c r="T179" s="35"/>
+      <c r="U179" s="35"/>
+      <c r="V179" s="8"/>
     </row>
     <row r="180" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q180" s="5">
         <v>176</v>
       </c>
-      <c r="R180" s="9" t="s">
+      <c r="R180" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="S180" s="38"/>
-      <c r="T180" s="38"/>
-      <c r="U180" s="38"/>
-      <c r="V180" s="9"/>
+      <c r="S180" s="35"/>
+      <c r="T180" s="35"/>
+      <c r="U180" s="35"/>
+      <c r="V180" s="8"/>
     </row>
     <row r="181" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q181" s="5">
         <v>177</v>
       </c>
-      <c r="R181" s="9" t="s">
+      <c r="R181" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="S181" s="38"/>
-      <c r="T181" s="38"/>
-      <c r="U181" s="38"/>
-      <c r="V181" s="9"/>
+      <c r="S181" s="35"/>
+      <c r="T181" s="35"/>
+      <c r="U181" s="35"/>
+      <c r="V181" s="8"/>
     </row>
     <row r="182" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q182" s="5">
         <v>178</v>
       </c>
-      <c r="R182" s="9" t="s">
+      <c r="R182" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="S182" s="38"/>
-      <c r="T182" s="38"/>
-      <c r="U182" s="38"/>
-      <c r="V182" s="9"/>
+      <c r="S182" s="35"/>
+      <c r="T182" s="35"/>
+      <c r="U182" s="35"/>
+      <c r="V182" s="8"/>
     </row>
     <row r="183" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q183" s="5">
         <v>179</v>
       </c>
-      <c r="R183" s="9" t="s">
+      <c r="R183" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="S183" s="38"/>
-      <c r="T183" s="38"/>
-      <c r="U183" s="38"/>
-      <c r="V183" s="9"/>
+      <c r="S183" s="35"/>
+      <c r="T183" s="35"/>
+      <c r="U183" s="35"/>
+      <c r="V183" s="8"/>
     </row>
     <row r="184" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q184" s="5">
         <v>180</v>
       </c>
-      <c r="R184" s="9" t="s">
+      <c r="R184" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="S184" s="38"/>
-      <c r="T184" s="38"/>
-      <c r="U184" s="38"/>
-      <c r="V184" s="9"/>
+      <c r="S184" s="35"/>
+      <c r="T184" s="35"/>
+      <c r="U184" s="35"/>
+      <c r="V184" s="8"/>
     </row>
     <row r="185" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q185" s="5">
         <v>181</v>
       </c>
-      <c r="R185" s="9" t="s">
+      <c r="R185" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="S185" s="38"/>
-      <c r="T185" s="38"/>
-      <c r="U185" s="38"/>
-      <c r="V185" s="9"/>
+      <c r="S185" s="35"/>
+      <c r="T185" s="35"/>
+      <c r="U185" s="35"/>
+      <c r="V185" s="8"/>
     </row>
     <row r="186" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q186" s="5">
         <v>182</v>
       </c>
-      <c r="R186" s="9" t="s">
+      <c r="R186" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="S186" s="38"/>
-      <c r="T186" s="38"/>
-      <c r="U186" s="38"/>
-      <c r="V186" s="9"/>
+      <c r="S186" s="35"/>
+      <c r="T186" s="35"/>
+      <c r="U186" s="35"/>
+      <c r="V186" s="8"/>
     </row>
     <row r="187" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q187" s="5">
         <v>183</v>
       </c>
-      <c r="R187" s="9" t="s">
+      <c r="R187" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="S187" s="38"/>
-      <c r="T187" s="38"/>
-      <c r="U187" s="38"/>
-      <c r="V187" s="9"/>
+      <c r="S187" s="35"/>
+      <c r="T187" s="35"/>
+      <c r="U187" s="35"/>
+      <c r="V187" s="8"/>
     </row>
     <row r="188" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q188" s="5">
         <v>184</v>
       </c>
-      <c r="R188" s="9" t="s">
+      <c r="R188" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="S188" s="38"/>
-      <c r="T188" s="38"/>
-      <c r="U188" s="38"/>
-      <c r="V188" s="9"/>
+      <c r="S188" s="35"/>
+      <c r="T188" s="35"/>
+      <c r="U188" s="35"/>
+      <c r="V188" s="8"/>
     </row>
     <row r="189" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q189" s="5">
         <v>185</v>
       </c>
-      <c r="R189" s="9" t="s">
+      <c r="R189" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="S189" s="38"/>
-      <c r="T189" s="38"/>
-      <c r="U189" s="38"/>
-      <c r="V189" s="9"/>
+      <c r="S189" s="35"/>
+      <c r="T189" s="35"/>
+      <c r="U189" s="35"/>
+      <c r="V189" s="8"/>
     </row>
     <row r="190" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q190" s="5">
         <v>186</v>
       </c>
-      <c r="R190" s="9" t="s">
+      <c r="R190" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="S190" s="38"/>
-      <c r="T190" s="38"/>
-      <c r="U190" s="38"/>
-      <c r="V190" s="9"/>
+      <c r="S190" s="35"/>
+      <c r="T190" s="35"/>
+      <c r="U190" s="35"/>
+      <c r="V190" s="8"/>
     </row>
     <row r="191" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q191" s="5">
         <v>187</v>
       </c>
-      <c r="R191" s="9" t="s">
+      <c r="R191" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="S191" s="38"/>
-      <c r="T191" s="38"/>
-      <c r="U191" s="38"/>
-      <c r="V191" s="9"/>
+      <c r="S191" s="35"/>
+      <c r="T191" s="35"/>
+      <c r="U191" s="35"/>
+      <c r="V191" s="8"/>
     </row>
     <row r="192" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q192" s="5">
         <v>188</v>
       </c>
-      <c r="R192" s="9" t="s">
+      <c r="R192" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="S192" s="38"/>
-      <c r="T192" s="38"/>
-      <c r="U192" s="38"/>
-      <c r="V192" s="9"/>
+      <c r="S192" s="35"/>
+      <c r="T192" s="35"/>
+      <c r="U192" s="35"/>
+      <c r="V192" s="8"/>
     </row>
     <row r="193" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q193" s="5">
         <v>189</v>
       </c>
-      <c r="R193" s="9" t="s">
+      <c r="R193" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="S193" s="38"/>
-      <c r="T193" s="38"/>
-      <c r="U193" s="38"/>
-      <c r="V193" s="9"/>
+      <c r="S193" s="35"/>
+      <c r="T193" s="35"/>
+      <c r="U193" s="35"/>
+      <c r="V193" s="8"/>
     </row>
     <row r="194" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q194" s="5">
         <v>190</v>
       </c>
-      <c r="R194" s="9" t="s">
+      <c r="R194" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="S194" s="38"/>
-      <c r="T194" s="38"/>
-      <c r="U194" s="38"/>
-      <c r="V194" s="9"/>
+      <c r="S194" s="35"/>
+      <c r="T194" s="35"/>
+      <c r="U194" s="35"/>
+      <c r="V194" s="8"/>
     </row>
     <row r="195" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q195" s="5">
         <v>191</v>
       </c>
-      <c r="R195" s="9" t="s">
+      <c r="R195" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="S195" s="38"/>
-      <c r="T195" s="38"/>
-      <c r="U195" s="38"/>
-      <c r="V195" s="9"/>
+      <c r="S195" s="35"/>
+      <c r="T195" s="35"/>
+      <c r="U195" s="35"/>
+      <c r="V195" s="8"/>
     </row>
     <row r="196" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q196" s="5">
         <v>192</v>
       </c>
-      <c r="R196" s="9" t="s">
+      <c r="R196" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="S196" s="38"/>
-      <c r="T196" s="38"/>
-      <c r="U196" s="38"/>
-      <c r="V196" s="9"/>
+      <c r="S196" s="35"/>
+      <c r="T196" s="35"/>
+      <c r="U196" s="35"/>
+      <c r="V196" s="8"/>
     </row>
     <row r="197" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q197" s="5">
         <v>193</v>
       </c>
-      <c r="R197" s="9" t="s">
+      <c r="R197" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="S197" s="38"/>
-      <c r="T197" s="38"/>
-      <c r="U197" s="38"/>
-      <c r="V197" s="9"/>
+      <c r="S197" s="35"/>
+      <c r="T197" s="35"/>
+      <c r="U197" s="35"/>
+      <c r="V197" s="8"/>
     </row>
     <row r="198" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q198" s="5">
         <v>194</v>
       </c>
-      <c r="R198" s="9" t="s">
+      <c r="R198" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="S198" s="38"/>
-      <c r="T198" s="38"/>
-      <c r="U198" s="38"/>
-      <c r="V198" s="9"/>
+      <c r="S198" s="35"/>
+      <c r="T198" s="35"/>
+      <c r="U198" s="35"/>
+      <c r="V198" s="8"/>
     </row>
     <row r="199" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q199" s="5">
         <v>195</v>
       </c>
-      <c r="R199" s="9" t="s">
+      <c r="R199" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="S199" s="38"/>
-      <c r="T199" s="38"/>
-      <c r="U199" s="38"/>
-      <c r="V199" s="9"/>
+      <c r="S199" s="35"/>
+      <c r="T199" s="35"/>
+      <c r="U199" s="35"/>
+      <c r="V199" s="8"/>
     </row>
     <row r="200" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q200" s="5">
         <v>196</v>
       </c>
-      <c r="R200" s="9" t="s">
+      <c r="R200" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="S200" s="38"/>
-      <c r="T200" s="38"/>
-      <c r="U200" s="38"/>
-      <c r="V200" s="9"/>
+      <c r="S200" s="35"/>
+      <c r="T200" s="35"/>
+      <c r="U200" s="35"/>
+      <c r="V200" s="8"/>
     </row>
     <row r="201" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q201" s="5">
         <v>197</v>
       </c>
-      <c r="R201" s="9" t="s">
+      <c r="R201" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="S201" s="38"/>
-      <c r="T201" s="38"/>
-      <c r="U201" s="38"/>
-      <c r="V201" s="9"/>
+      <c r="S201" s="35"/>
+      <c r="T201" s="35"/>
+      <c r="U201" s="35"/>
+      <c r="V201" s="8"/>
     </row>
     <row r="202" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q202" s="5">
         <v>198</v>
       </c>
-      <c r="R202" s="9" t="s">
+      <c r="R202" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="S202" s="38"/>
-      <c r="T202" s="38"/>
-      <c r="U202" s="38"/>
-      <c r="V202" s="9"/>
+      <c r="S202" s="35"/>
+      <c r="T202" s="35"/>
+      <c r="U202" s="35"/>
+      <c r="V202" s="8"/>
     </row>
     <row r="203" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q203" s="5">
         <v>199</v>
       </c>
-      <c r="R203" s="9" t="s">
+      <c r="R203" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="S203" s="38"/>
-      <c r="T203" s="38"/>
-      <c r="U203" s="38"/>
-      <c r="V203" s="9"/>
+      <c r="S203" s="35"/>
+      <c r="T203" s="35"/>
+      <c r="U203" s="35"/>
+      <c r="V203" s="8"/>
     </row>
     <row r="204" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q204" s="5">
         <v>200</v>
       </c>
-      <c r="R204" s="9" t="s">
+      <c r="R204" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="S204" s="38"/>
-      <c r="T204" s="38"/>
-      <c r="U204" s="38"/>
-      <c r="V204" s="9"/>
+      <c r="S204" s="35"/>
+      <c r="T204" s="35"/>
+      <c r="U204" s="35"/>
+      <c r="V204" s="8"/>
     </row>
     <row r="205" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q205" s="5">
         <v>201</v>
       </c>
-      <c r="R205" s="9" t="s">
+      <c r="R205" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="S205" s="38"/>
-      <c r="T205" s="38"/>
-      <c r="U205" s="38"/>
-      <c r="V205" s="9"/>
+      <c r="S205" s="35"/>
+      <c r="T205" s="35"/>
+      <c r="U205" s="35"/>
+      <c r="V205" s="8"/>
     </row>
     <row r="206" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q206" s="5">
         <v>202</v>
       </c>
-      <c r="R206" s="9" t="s">
+      <c r="R206" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="S206" s="38"/>
-      <c r="T206" s="38"/>
-      <c r="U206" s="38"/>
-      <c r="V206" s="9"/>
+      <c r="S206" s="35"/>
+      <c r="T206" s="35"/>
+      <c r="U206" s="35"/>
+      <c r="V206" s="8"/>
     </row>
     <row r="207" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q207" s="5">
         <v>203</v>
       </c>
-      <c r="R207" s="9" t="s">
+      <c r="R207" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="S207" s="38"/>
-      <c r="T207" s="38"/>
-      <c r="U207" s="38"/>
-      <c r="V207" s="9"/>
+      <c r="S207" s="35"/>
+      <c r="T207" s="35"/>
+      <c r="U207" s="35"/>
+      <c r="V207" s="8"/>
     </row>
     <row r="208" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q208" s="5">
         <v>204</v>
       </c>
-      <c r="R208" s="9" t="s">
+      <c r="R208" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="S208" s="38"/>
-      <c r="T208" s="38"/>
-      <c r="U208" s="38"/>
-      <c r="V208" s="9"/>
+      <c r="S208" s="35"/>
+      <c r="T208" s="35"/>
+      <c r="U208" s="35"/>
+      <c r="V208" s="8"/>
     </row>
     <row r="209" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q209" s="5">
         <v>205</v>
       </c>
-      <c r="R209" s="9" t="s">
+      <c r="R209" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="S209" s="38"/>
-      <c r="T209" s="38"/>
-      <c r="U209" s="38"/>
-      <c r="V209" s="9"/>
+      <c r="S209" s="35"/>
+      <c r="T209" s="35"/>
+      <c r="U209" s="35"/>
+      <c r="V209" s="8"/>
     </row>
     <row r="210" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q210" s="5">
         <v>206</v>
       </c>
-      <c r="R210" s="9" t="s">
+      <c r="R210" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="S210" s="38"/>
-      <c r="T210" s="38"/>
-      <c r="U210" s="38"/>
-      <c r="V210" s="9"/>
+      <c r="S210" s="35"/>
+      <c r="T210" s="35"/>
+      <c r="U210" s="35"/>
+      <c r="V210" s="8"/>
     </row>
     <row r="211" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q211" s="5">
         <v>207</v>
       </c>
-      <c r="R211" s="9" t="s">
+      <c r="R211" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="S211" s="38"/>
-      <c r="T211" s="38"/>
-      <c r="U211" s="38"/>
-      <c r="V211" s="9"/>
+      <c r="S211" s="35"/>
+      <c r="T211" s="35"/>
+      <c r="U211" s="35"/>
+      <c r="V211" s="8"/>
     </row>
     <row r="212" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q212" s="5">
         <v>208</v>
       </c>
-      <c r="R212" s="9" t="s">
+      <c r="R212" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="S212" s="38"/>
-      <c r="T212" s="38"/>
-      <c r="U212" s="38"/>
-      <c r="V212" s="9"/>
+      <c r="S212" s="35"/>
+      <c r="T212" s="35"/>
+      <c r="U212" s="35"/>
+      <c r="V212" s="8"/>
     </row>
     <row r="213" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q213" s="5">
         <v>209</v>
       </c>
-      <c r="R213" s="9" t="s">
+      <c r="R213" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="S213" s="38"/>
-      <c r="T213" s="38"/>
-      <c r="U213" s="38"/>
-      <c r="V213" s="9"/>
+      <c r="S213" s="35"/>
+      <c r="T213" s="35"/>
+      <c r="U213" s="35"/>
+      <c r="V213" s="8"/>
     </row>
     <row r="214" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q214" s="5">
         <v>210</v>
       </c>
-      <c r="R214" s="9" t="s">
+      <c r="R214" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="S214" s="38"/>
-      <c r="T214" s="38"/>
-      <c r="U214" s="38"/>
-      <c r="V214" s="9"/>
+      <c r="S214" s="35"/>
+      <c r="T214" s="35"/>
+      <c r="U214" s="35"/>
+      <c r="V214" s="8"/>
     </row>
     <row r="215" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q215" s="5">
         <v>211</v>
       </c>
-      <c r="R215" s="9" t="s">
+      <c r="R215" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="S215" s="38"/>
-      <c r="T215" s="38"/>
-      <c r="U215" s="38"/>
-      <c r="V215" s="9"/>
+      <c r="S215" s="35"/>
+      <c r="T215" s="35"/>
+      <c r="U215" s="35"/>
+      <c r="V215" s="8"/>
     </row>
     <row r="216" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q216" s="5">
         <v>212</v>
       </c>
-      <c r="R216" s="9" t="s">
+      <c r="R216" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="S216" s="38"/>
-      <c r="T216" s="38"/>
-      <c r="U216" s="38"/>
-      <c r="V216" s="9"/>
+      <c r="S216" s="35"/>
+      <c r="T216" s="35"/>
+      <c r="U216" s="35"/>
+      <c r="V216" s="8"/>
     </row>
     <row r="217" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q217" s="5">
         <v>213</v>
       </c>
-      <c r="R217" s="9" t="s">
+      <c r="R217" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="S217" s="38"/>
-      <c r="T217" s="38"/>
-      <c r="U217" s="38"/>
-      <c r="V217" s="9"/>
+      <c r="S217" s="35"/>
+      <c r="T217" s="35"/>
+      <c r="U217" s="35"/>
+      <c r="V217" s="8"/>
     </row>
     <row r="218" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q218" s="5">
         <v>214</v>
       </c>
-      <c r="R218" s="9" t="s">
+      <c r="R218" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="S218" s="38"/>
-      <c r="T218" s="38"/>
-      <c r="U218" s="38"/>
-      <c r="V218" s="9"/>
+      <c r="S218" s="35"/>
+      <c r="T218" s="35"/>
+      <c r="U218" s="35"/>
+      <c r="V218" s="8"/>
     </row>
     <row r="219" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q219" s="5">
         <v>215</v>
       </c>
-      <c r="R219" s="9" t="s">
+      <c r="R219" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="S219" s="38"/>
-      <c r="T219" s="38"/>
-      <c r="U219" s="38"/>
-      <c r="V219" s="9"/>
+      <c r="S219" s="35"/>
+      <c r="T219" s="35"/>
+      <c r="U219" s="35"/>
+      <c r="V219" s="8"/>
     </row>
     <row r="220" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q220" s="5">
         <v>216</v>
       </c>
-      <c r="R220" s="9" t="s">
+      <c r="R220" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="S220" s="38"/>
-      <c r="T220" s="38"/>
-      <c r="U220" s="38"/>
-      <c r="V220" s="9"/>
+      <c r="S220" s="35"/>
+      <c r="T220" s="35"/>
+      <c r="U220" s="35"/>
+      <c r="V220" s="8"/>
     </row>
     <row r="221" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q221" s="5">
         <v>217</v>
       </c>
-      <c r="R221" s="9" t="s">
+      <c r="R221" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="S221" s="38"/>
-      <c r="T221" s="38"/>
-      <c r="U221" s="38"/>
-      <c r="V221" s="9"/>
+      <c r="S221" s="35"/>
+      <c r="T221" s="35"/>
+      <c r="U221" s="35"/>
+      <c r="V221" s="8"/>
     </row>
     <row r="222" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q222" s="5">
         <v>218</v>
       </c>
-      <c r="R222" s="9" t="s">
+      <c r="R222" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="S222" s="38"/>
-      <c r="T222" s="38"/>
-      <c r="U222" s="38"/>
-      <c r="V222" s="9"/>
+      <c r="S222" s="35"/>
+      <c r="T222" s="35"/>
+      <c r="U222" s="35"/>
+      <c r="V222" s="8"/>
     </row>
     <row r="223" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q223" s="5">
         <v>219</v>
       </c>
-      <c r="R223" s="9" t="s">
+      <c r="R223" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="S223" s="38"/>
-      <c r="T223" s="38"/>
-      <c r="U223" s="38"/>
-      <c r="V223" s="9"/>
+      <c r="S223" s="35"/>
+      <c r="T223" s="35"/>
+      <c r="U223" s="35"/>
+      <c r="V223" s="8"/>
     </row>
     <row r="224" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q224" s="5">
         <v>220</v>
       </c>
-      <c r="R224" s="9" t="s">
+      <c r="R224" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="S224" s="38"/>
-      <c r="T224" s="38"/>
-      <c r="U224" s="38"/>
-      <c r="V224" s="9"/>
+      <c r="S224" s="35"/>
+      <c r="T224" s="35"/>
+      <c r="U224" s="35"/>
+      <c r="V224" s="8"/>
     </row>
     <row r="225" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q225" s="5">
         <v>221</v>
       </c>
-      <c r="R225" s="9" t="s">
+      <c r="R225" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="S225" s="38"/>
-      <c r="T225" s="38"/>
-      <c r="U225" s="38"/>
-      <c r="V225" s="9"/>
+      <c r="S225" s="35"/>
+      <c r="T225" s="35"/>
+      <c r="U225" s="35"/>
+      <c r="V225" s="8"/>
     </row>
     <row r="226" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q226" s="5">
         <v>222</v>
       </c>
-      <c r="R226" s="9" t="s">
+      <c r="R226" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="S226" s="38"/>
-      <c r="T226" s="38"/>
-      <c r="U226" s="38"/>
-      <c r="V226" s="9"/>
+      <c r="S226" s="35"/>
+      <c r="T226" s="35"/>
+      <c r="U226" s="35"/>
+      <c r="V226" s="8"/>
     </row>
     <row r="227" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q227" s="5">
         <v>223</v>
       </c>
-      <c r="R227" s="9" t="s">
+      <c r="R227" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="S227" s="38"/>
-      <c r="T227" s="38"/>
-      <c r="U227" s="38"/>
-      <c r="V227" s="9"/>
+      <c r="S227" s="35"/>
+      <c r="T227" s="35"/>
+      <c r="U227" s="35"/>
+      <c r="V227" s="8"/>
     </row>
     <row r="228" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q228" s="5">
         <v>224</v>
       </c>
-      <c r="R228" s="9" t="s">
+      <c r="R228" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="S228" s="38"/>
-      <c r="T228" s="38"/>
-      <c r="U228" s="38"/>
-      <c r="V228" s="9"/>
+      <c r="S228" s="35"/>
+      <c r="T228" s="35"/>
+      <c r="U228" s="35"/>
+      <c r="V228" s="8"/>
     </row>
     <row r="229" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q229" s="5">
         <v>225</v>
       </c>
-      <c r="R229" s="9" t="s">
+      <c r="R229" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="S229" s="38"/>
-      <c r="T229" s="38"/>
-      <c r="U229" s="38"/>
-      <c r="V229" s="9"/>
+      <c r="S229" s="35"/>
+      <c r="T229" s="35"/>
+      <c r="U229" s="35"/>
+      <c r="V229" s="8"/>
     </row>
     <row r="230" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q230" s="5">
         <v>226</v>
       </c>
-      <c r="R230" s="9" t="s">
+      <c r="R230" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="S230" s="38"/>
-      <c r="T230" s="38"/>
-      <c r="U230" s="38"/>
-      <c r="V230" s="9"/>
+      <c r="S230" s="35"/>
+      <c r="T230" s="35"/>
+      <c r="U230" s="35"/>
+      <c r="V230" s="8"/>
     </row>
     <row r="231" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q231" s="5">
         <v>227</v>
       </c>
-      <c r="R231" s="9" t="s">
+      <c r="R231" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="S231" s="38"/>
-      <c r="T231" s="38"/>
-      <c r="U231" s="38"/>
-      <c r="V231" s="9"/>
+      <c r="S231" s="35"/>
+      <c r="T231" s="35"/>
+      <c r="U231" s="35"/>
+      <c r="V231" s="8"/>
     </row>
     <row r="232" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q232" s="5">
         <v>228</v>
       </c>
-      <c r="R232" s="9" t="s">
+      <c r="R232" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="S232" s="38"/>
-      <c r="T232" s="38"/>
-      <c r="U232" s="38"/>
-      <c r="V232" s="9"/>
+      <c r="S232" s="35"/>
+      <c r="T232" s="35"/>
+      <c r="U232" s="35"/>
+      <c r="V232" s="8"/>
     </row>
     <row r="233" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q233" s="5">
         <v>229</v>
       </c>
-      <c r="R233" s="9" t="s">
+      <c r="R233" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="S233" s="38"/>
-      <c r="T233" s="38"/>
-      <c r="U233" s="38"/>
-      <c r="V233" s="9"/>
+      <c r="S233" s="35"/>
+      <c r="T233" s="35"/>
+      <c r="U233" s="35"/>
+      <c r="V233" s="8"/>
     </row>
     <row r="234" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q234" s="5">
         <v>230</v>
       </c>
-      <c r="R234" s="9" t="s">
+      <c r="R234" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="S234" s="38"/>
-      <c r="T234" s="38"/>
-      <c r="U234" s="38"/>
-      <c r="V234" s="9"/>
+      <c r="S234" s="35"/>
+      <c r="T234" s="35"/>
+      <c r="U234" s="35"/>
+      <c r="V234" s="8"/>
     </row>
     <row r="235" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q235" s="5">
         <v>231</v>
       </c>
-      <c r="R235" s="9" t="s">
+      <c r="R235" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="S235" s="38"/>
-      <c r="T235" s="38"/>
-      <c r="U235" s="38"/>
-      <c r="V235" s="9"/>
+      <c r="S235" s="35"/>
+      <c r="T235" s="35"/>
+      <c r="U235" s="35"/>
+      <c r="V235" s="8"/>
     </row>
     <row r="236" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q236" s="5">
         <v>232</v>
       </c>
-      <c r="R236" s="9" t="s">
+      <c r="R236" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="S236" s="38"/>
-      <c r="T236" s="38"/>
-      <c r="U236" s="38"/>
-      <c r="V236" s="9"/>
+      <c r="S236" s="35"/>
+      <c r="T236" s="35"/>
+      <c r="U236" s="35"/>
+      <c r="V236" s="8"/>
     </row>
     <row r="237" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q237" s="5">
         <v>233</v>
       </c>
-      <c r="R237" s="9" t="s">
+      <c r="R237" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="S237" s="38"/>
-      <c r="T237" s="38"/>
-      <c r="U237" s="38"/>
-      <c r="V237" s="9"/>
+      <c r="S237" s="35"/>
+      <c r="T237" s="35"/>
+      <c r="U237" s="35"/>
+      <c r="V237" s="8"/>
     </row>
     <row r="238" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q238" s="5">
         <v>234</v>
       </c>
-      <c r="R238" s="9" t="s">
+      <c r="R238" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="S238" s="38"/>
-      <c r="T238" s="38"/>
-      <c r="U238" s="38"/>
-      <c r="V238" s="9"/>
+      <c r="S238" s="35"/>
+      <c r="T238" s="35"/>
+      <c r="U238" s="35"/>
+      <c r="V238" s="8"/>
     </row>
     <row r="239" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q239" s="5">
         <v>235</v>
       </c>
-      <c r="R239" s="9" t="s">
+      <c r="R239" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="S239" s="38"/>
-      <c r="T239" s="38"/>
-      <c r="U239" s="38"/>
-      <c r="V239" s="9"/>
+      <c r="S239" s="35"/>
+      <c r="T239" s="35"/>
+      <c r="U239" s="35"/>
+      <c r="V239" s="8"/>
     </row>
     <row r="240" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q240" s="5">
         <v>236</v>
       </c>
-      <c r="R240" s="9" t="s">
+      <c r="R240" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="S240" s="38"/>
-      <c r="T240" s="38"/>
-      <c r="U240" s="38"/>
-      <c r="V240" s="9"/>
+      <c r="S240" s="35"/>
+      <c r="T240" s="35"/>
+      <c r="U240" s="35"/>
+      <c r="V240" s="8"/>
     </row>
     <row r="241" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q241" s="5">
         <v>237</v>
       </c>
-      <c r="R241" s="9" t="s">
+      <c r="R241" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="S241" s="38"/>
-      <c r="T241" s="38"/>
-      <c r="U241" s="38"/>
-      <c r="V241" s="9"/>
+      <c r="S241" s="35"/>
+      <c r="T241" s="35"/>
+      <c r="U241" s="35"/>
+      <c r="V241" s="8"/>
     </row>
     <row r="242" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q242" s="5">
         <v>238</v>
       </c>
-      <c r="R242" s="9" t="s">
+      <c r="R242" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="S242" s="38"/>
-      <c r="T242" s="38"/>
-      <c r="U242" s="38"/>
-      <c r="V242" s="9"/>
+      <c r="S242" s="35"/>
+      <c r="T242" s="35"/>
+      <c r="U242" s="35"/>
+      <c r="V242" s="8"/>
     </row>
     <row r="243" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q243" s="5">
         <v>239</v>
       </c>
-      <c r="R243" s="9" t="s">
+      <c r="R243" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="S243" s="38"/>
-      <c r="T243" s="38"/>
-      <c r="U243" s="38"/>
-      <c r="V243" s="9"/>
+      <c r="S243" s="35"/>
+      <c r="T243" s="35"/>
+      <c r="U243" s="35"/>
+      <c r="V243" s="8"/>
     </row>
     <row r="244" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q244" s="5">
         <v>240</v>
       </c>
-      <c r="R244" s="9" t="s">
+      <c r="R244" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="S244" s="38"/>
-      <c r="T244" s="38"/>
-      <c r="U244" s="38"/>
-      <c r="V244" s="9"/>
+      <c r="S244" s="35"/>
+      <c r="T244" s="35"/>
+      <c r="U244" s="35"/>
+      <c r="V244" s="8"/>
     </row>
     <row r="245" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q245" s="5">
         <v>241</v>
       </c>
-      <c r="R245" s="9" t="s">
+      <c r="R245" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="S245" s="38"/>
-      <c r="T245" s="38"/>
-      <c r="U245" s="38"/>
-      <c r="V245" s="9"/>
+      <c r="S245" s="35"/>
+      <c r="T245" s="35"/>
+      <c r="U245" s="35"/>
+      <c r="V245" s="8"/>
     </row>
     <row r="246" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q246" s="5">
         <v>242</v>
       </c>
-      <c r="R246" s="9" t="s">
+      <c r="R246" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="S246" s="38"/>
-      <c r="T246" s="38"/>
-      <c r="U246" s="38"/>
-      <c r="V246" s="9"/>
+      <c r="S246" s="35"/>
+      <c r="T246" s="35"/>
+      <c r="U246" s="35"/>
+      <c r="V246" s="8"/>
     </row>
     <row r="247" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q247" s="5">
         <v>243</v>
       </c>
-      <c r="R247" s="9" t="s">
+      <c r="R247" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="S247" s="38"/>
-      <c r="T247" s="38"/>
-      <c r="U247" s="38"/>
-      <c r="V247" s="9"/>
+      <c r="S247" s="35"/>
+      <c r="T247" s="35"/>
+      <c r="U247" s="35"/>
+      <c r="V247" s="8"/>
     </row>
     <row r="248" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q248" s="5">
         <v>244</v>
       </c>
-      <c r="R248" s="9" t="s">
+      <c r="R248" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="S248" s="38"/>
-      <c r="T248" s="38"/>
-      <c r="U248" s="38"/>
-      <c r="V248" s="9"/>
+      <c r="S248" s="35"/>
+      <c r="T248" s="35"/>
+      <c r="U248" s="35"/>
+      <c r="V248" s="8"/>
     </row>
     <row r="249" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q249" s="5">
         <v>245</v>
       </c>
-      <c r="R249" s="9" t="s">
+      <c r="R249" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="S249" s="38"/>
-      <c r="T249" s="38"/>
-      <c r="U249" s="38"/>
-      <c r="V249" s="9"/>
+      <c r="S249" s="35"/>
+      <c r="T249" s="35"/>
+      <c r="U249" s="35"/>
+      <c r="V249" s="8"/>
     </row>
     <row r="250" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q250" s="5">
         <v>246</v>
       </c>
-      <c r="R250" s="9" t="s">
+      <c r="R250" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="S250" s="38"/>
-      <c r="T250" s="38"/>
-      <c r="U250" s="38"/>
-      <c r="V250" s="9"/>
+      <c r="S250" s="35"/>
+      <c r="T250" s="35"/>
+      <c r="U250" s="35"/>
+      <c r="V250" s="8"/>
     </row>
     <row r="251" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q251" s="5">
         <v>247</v>
       </c>
-      <c r="R251" s="9" t="s">
+      <c r="R251" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="S251" s="38"/>
-      <c r="T251" s="38"/>
-      <c r="U251" s="38"/>
-      <c r="V251" s="9"/>
+      <c r="S251" s="35"/>
+      <c r="T251" s="35"/>
+      <c r="U251" s="35"/>
+      <c r="V251" s="8"/>
     </row>
     <row r="252" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q252" s="5">
         <v>248</v>
       </c>
-      <c r="R252" s="9" t="s">
+      <c r="R252" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="S252" s="38"/>
-      <c r="T252" s="38"/>
-      <c r="U252" s="38"/>
-      <c r="V252" s="9"/>
+      <c r="S252" s="35"/>
+      <c r="T252" s="35"/>
+      <c r="U252" s="35"/>
+      <c r="V252" s="8"/>
     </row>
     <row r="253" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q253" s="5">
         <v>249</v>
       </c>
-      <c r="R253" s="9" t="s">
+      <c r="R253" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="S253" s="38"/>
-      <c r="T253" s="38"/>
-      <c r="U253" s="38"/>
-      <c r="V253" s="9"/>
+      <c r="S253" s="35"/>
+      <c r="T253" s="35"/>
+      <c r="U253" s="35"/>
+      <c r="V253" s="8"/>
     </row>
     <row r="254" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q254" s="5">
         <v>250</v>
       </c>
-      <c r="R254" s="9" t="s">
+      <c r="R254" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="S254" s="38"/>
-      <c r="T254" s="38"/>
-      <c r="U254" s="38"/>
-      <c r="V254" s="9"/>
+      <c r="S254" s="35"/>
+      <c r="T254" s="35"/>
+      <c r="U254" s="35"/>
+      <c r="V254" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6987,7 +7723,7 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="3.42578125" customWidth="1"/>
     <col min="6" max="6" width="62.5703125" customWidth="1"/>
@@ -7032,102 +7768,102 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="66" t="s">
         <v>527</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
       <c r="F3" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
       <c r="F4" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
       <c r="F5" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="69"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
       <c r="F6" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
       <c r="F7" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
       <c r="F8" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
       <c r="F9" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
       <c r="F10" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
       <c r="F11" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
       <c r="F12" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
       <c r="F13" t="s">
         <v>398</v>
       </c>

--- a/Text Manipulation/Workbook 1-Text Manipulation.xlsx
+++ b/Text Manipulation/Workbook 1-Text Manipulation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sites\WYWM_DataAnalysisExcel\Text Manipulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37868D4C-EA5E-450F-BA61-95DA820393A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290DF2A4-CF0E-43A4-9DE4-C1EB7E1C5D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{682ECE72-A850-4EEA-BAD4-BC6FFFC5916E}"/>
   </bookViews>
@@ -1127,9 +1127,6 @@
     <t>Problem - Country Code, Manufacturer and Mobile number have been grouped together</t>
   </si>
   <si>
-    <t>L.Donovan@standardco.com.au</t>
-  </si>
-  <si>
     <t>3526 HIGH ST,SACRAMENTO,95838,59222,38.631913,-121.434879</t>
   </si>
   <si>
@@ -1890,13 +1887,16 @@
   </si>
   <si>
     <t>Klein</t>
+  </si>
+  <si>
+    <t>Length minus 13 (3 Country code &amp; 10 for phone length)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1954,14 +1954,6 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2163,12 +2155,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2227,9 +2218,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2268,18 +2256,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2347,6 +2323,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2363,9 +2351,8 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3106,7 +3093,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="9.9499999999999993" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -3118,7 +3105,7 @@
     <row r="4" spans="1:2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3253,20 +3240,20 @@
       <c r="J1" s="16"/>
     </row>
     <row r="2" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="42"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="37"/>
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="2:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
       <c r="G3" s="9" t="s">
         <v>23</v>
       </c>
@@ -3277,22 +3264,22 @@
         <v>24</v>
       </c>
       <c r="J3" s="16"/>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="45"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="40"/>
     </row>
     <row r="4" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="57" t="s">
         <v>335</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
       <c r="G4" s="5">
         <v>1</v>
       </c>
@@ -3303,24 +3290,24 @@
         <f>TRIM(H4)</f>
         <v>Ford</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="48" t="s">
-        <v>520</v>
-      </c>
-      <c r="N4" s="49"/>
-      <c r="O4" s="50"/>
+      <c r="M4" s="43" t="s">
+        <v>519</v>
+      </c>
+      <c r="N4" s="44"/>
+      <c r="O4" s="45"/>
     </row>
     <row r="5" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
       <c r="G5" s="5">
         <v>2</v>
       </c>
@@ -3331,10 +3318,10 @@
         <f t="shared" ref="I5:I14" si="0">TRIM(H5)</f>
         <v>Ford</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="53"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="48"/>
     </row>
     <row r="6" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G6" s="5">
@@ -3347,14 +3334,14 @@
         <f t="shared" si="0"/>
         <v>Ford</v>
       </c>
-      <c r="L6" s="54" t="s">
+      <c r="L6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="56" t="s">
+      <c r="M6" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="57"/>
-      <c r="O6" s="58"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="53"/>
     </row>
     <row r="7" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -3374,17 +3361,17 @@
         <f t="shared" si="0"/>
         <v>Ford</v>
       </c>
-      <c r="L7" s="55"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="61"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="56"/>
       <c r="P7" s="13"/>
     </row>
     <row r="8" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="39"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="5">
         <f>COUNTIF($I4:I$14,B8)</f>
         <v>4</v>
@@ -3403,10 +3390,10 @@
       <c r="P8" s="13"/>
     </row>
     <row r="9" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="39"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="5">
         <f>COUNTIF($I5:I$14,B9)</f>
         <v>2</v>
@@ -3421,17 +3408,17 @@
         <f t="shared" si="0"/>
         <v>Volkswagen</v>
       </c>
-      <c r="L9" s="40" t="s">
+      <c r="L9" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="41"/>
-      <c r="N9" s="42"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="37"/>
     </row>
     <row r="10" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="38" t="s">
-        <v>530</v>
-      </c>
-      <c r="C10" s="39"/>
+      <c r="B10" s="59" t="s">
+        <v>529</v>
+      </c>
+      <c r="C10" s="60"/>
       <c r="D10" s="5">
         <f>COUNTIF($I6:I$14,B10)</f>
         <v>5</v>
@@ -3440,7 +3427,7 @@
         <v>7</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -3461,7 +3448,7 @@
         <v>8</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -3483,7 +3470,7 @@
         <v>9</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I12" s="8" t="str">
         <f t="shared" si="0"/>
@@ -3505,7 +3492,7 @@
         <v>10</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I13" s="8" t="str">
         <f t="shared" si="0"/>
@@ -3528,7 +3515,7 @@
         <v>11</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I14" s="8" t="str">
         <f t="shared" si="0"/>
@@ -3592,12 +3579,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:O5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:O7"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="B8:C8"/>
@@ -3605,6 +3586,12 @@
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B3:E3"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:O5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:O7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3653,75 +3640,75 @@
   <sheetData>
     <row r="2" spans="2:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
-        <v>526</v>
-      </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45"/>
-      <c r="I3" s="24" t="s">
-        <v>360</v>
-      </c>
-      <c r="T3" s="62" t="s">
-        <v>367</v>
-      </c>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
+      <c r="B3" s="38" t="s">
+        <v>525</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
+      <c r="I3" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="T3" s="61" t="s">
+        <v>366</v>
+      </c>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
     </row>
     <row r="4" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>521</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="C4" s="57" t="s">
+        <v>520</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
       <c r="I4" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="L4" t="s">
+        <v>531</v>
+      </c>
+      <c r="M4" t="s">
+        <v>532</v>
+      </c>
+      <c r="N4" t="s">
+        <v>533</v>
+      </c>
+      <c r="O4" t="s">
+        <v>534</v>
+      </c>
+      <c r="P4" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>536</v>
+      </c>
+      <c r="U4" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="L4" t="s">
-        <v>532</v>
-      </c>
-      <c r="M4" t="s">
-        <v>533</v>
-      </c>
-      <c r="N4" t="s">
-        <v>534</v>
-      </c>
-      <c r="O4" t="s">
-        <v>535</v>
-      </c>
-      <c r="P4" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="V4" s="30" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="62"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="I5" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="L5" t="s">
         <v>537</v>
       </c>
-      <c r="U4" s="31" t="s">
-        <v>365</v>
-      </c>
-      <c r="V4" s="31" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="63"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="I5" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>538</v>
-      </c>
-      <c r="M5" t="s">
-        <v>539</v>
       </c>
       <c r="N5">
         <v>95838</v>
@@ -3736,29 +3723,29 @@
         <v>-121.434879</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="U5" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="U5" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="V5" s="31" t="s">
         <v>562</v>
       </c>
-      <c r="V5" s="32" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="6" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="63"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
       <c r="I6" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N6">
         <v>95823</v>
@@ -3773,33 +3760,33 @@
         <v>-121.431028</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U6" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="V6" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="V6" s="4" t="s">
-        <v>565</v>
-      </c>
     </row>
     <row r="7" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="37" t="s">
-        <v>363</v>
-      </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
+      <c r="C7" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
       <c r="I7" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N7">
         <v>95815</v>
@@ -3814,29 +3801,29 @@
         <v>-121.443839</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U7" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="V7" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="V7" s="4" t="s">
-        <v>567</v>
-      </c>
     </row>
     <row r="8" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="64"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
       <c r="I8" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N8">
         <v>95815</v>
@@ -3851,25 +3838,25 @@
         <v>-121.43914599999999</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U8" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="V8" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="V8" s="4" t="s">
-        <v>569</v>
-      </c>
     </row>
     <row r="9" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="30"/>
+      <c r="B9" s="29"/>
       <c r="I9" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N9">
         <v>95824</v>
@@ -3884,25 +3871,25 @@
         <v>-121.435768</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U9" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="V9" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="V9" s="4" t="s">
-        <v>571</v>
-      </c>
     </row>
     <row r="10" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="30"/>
+      <c r="B10" s="29"/>
       <c r="I10" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N10">
         <v>95841</v>
@@ -3917,24 +3904,24 @@
         <v>-121.32781300000001</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="U10" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="V10" s="4" t="s">
         <v>572</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="11" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I11" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N11">
         <v>95842</v>
@@ -3949,24 +3936,24 @@
         <v>-121.351705</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="U11" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="V11" s="4" t="s">
         <v>574</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="12" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I12" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N12">
         <v>95820</v>
@@ -3981,24 +3968,24 @@
         <v>-121.48136700000001</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="U12" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="V12" s="4" t="s">
         <v>576</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="13" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I13" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L13" t="s">
+        <v>546</v>
+      </c>
+      <c r="M13" t="s">
         <v>547</v>
-      </c>
-      <c r="M13" t="s">
-        <v>548</v>
       </c>
       <c r="N13">
         <v>95670</v>
@@ -4013,24 +4000,24 @@
         <v>-121.270555</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U13" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="V13" s="4" t="s">
         <v>578</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="14" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I14" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L14" t="s">
+        <v>548</v>
+      </c>
+      <c r="M14" t="s">
         <v>549</v>
-      </c>
-      <c r="M14" t="s">
-        <v>550</v>
       </c>
       <c r="N14">
         <v>95673</v>
@@ -4045,24 +4032,24 @@
         <v>-121.44297899999999</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U14" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="V14" s="4" t="s">
         <v>580</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="15" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I15" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M15" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N15">
         <v>95838</v>
@@ -4077,24 +4064,24 @@
         <v>-121.45152</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U15" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="V15" s="4" t="s">
         <v>582</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="16" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I16" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L16" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N16">
         <v>95823</v>
@@ -4109,24 +4096,24 @@
         <v>-121.458918</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U16" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="V16" s="4" t="s">
         <v>584</v>
-      </c>
-      <c r="V16" s="4" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="17" spans="9:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I17" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L17" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N17">
         <v>95815</v>
@@ -4141,24 +4128,24 @@
         <v>-121.435833</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U17" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="V17" s="4" t="s">
         <v>586</v>
-      </c>
-      <c r="V17" s="4" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="18" spans="9:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I18" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N18">
         <v>95822</v>
@@ -4173,24 +4160,24 @@
         <v>-121.492603</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U18" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="V18" s="4" t="s">
         <v>588</v>
-      </c>
-      <c r="V18" s="4" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="19" spans="9:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I19" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L19" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N19">
         <v>95842</v>
@@ -4205,24 +4192,24 @@
         <v>-121.35934</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="U19" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="V19" s="4" t="s">
         <v>590</v>
-      </c>
-      <c r="V19" s="4" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="20" spans="9:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I20" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L20" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M20" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N20">
         <v>95842</v>
@@ -4237,24 +4224,24 @@
         <v>-121.35127799999999</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="U20" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="V20" s="4" t="s">
         <v>592</v>
-      </c>
-      <c r="V20" s="4" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="21" spans="9:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I21" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L21" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M21" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N21">
         <v>95673</v>
@@ -4269,24 +4256,24 @@
         <v>-121.45223900000001</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U21" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="V21" s="4" t="s">
         <v>594</v>
-      </c>
-      <c r="V21" s="4" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="22" spans="9:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I22" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L22" t="s">
+        <v>557</v>
+      </c>
+      <c r="M22" t="s">
         <v>558</v>
-      </c>
-      <c r="M22" t="s">
-        <v>559</v>
       </c>
       <c r="N22">
         <v>95621</v>
@@ -4303,13 +4290,13 @@
     </row>
     <row r="23" spans="9:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I23" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L23" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M23" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N23">
         <v>95833</v>
@@ -4326,13 +4313,13 @@
     </row>
     <row r="24" spans="9:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I24" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L24" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M24" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N24">
         <v>95673</v>
@@ -4368,11 +4355,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="C1:W254"/>
+  <dimension ref="C1:W255"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomLeft" activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4384,18 +4371,18 @@
     <col min="6" max="6" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" style="4" customWidth="1"/>
     <col min="8" max="8" width="5.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" style="4" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="4" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="4" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="4" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="4" customWidth="1"/>
     <col min="14" max="14" width="5.7109375" style="4" customWidth="1"/>
     <col min="15" max="15" width="12.140625" style="4" customWidth="1"/>
     <col min="16" max="16" width="5.7109375" style="4" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="4" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="18" style="4" hidden="1" customWidth="1"/>
-    <col min="19" max="21" width="15.7109375" style="4" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="29.28515625" style="4" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="4" customWidth="1"/>
+    <col min="18" max="18" width="18" style="4" customWidth="1"/>
+    <col min="19" max="21" width="15.7109375" style="4" customWidth="1"/>
+    <col min="22" max="22" width="29.28515625" style="4" customWidth="1"/>
     <col min="23" max="24" width="5.7109375" style="4" customWidth="1"/>
     <col min="25" max="16384" width="9.140625" style="4"/>
   </cols>
@@ -4404,29 +4391,29 @@
       <c r="T1" s="16"/>
     </row>
     <row r="2" spans="3:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="61" t="s">
         <v>340</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="26"/>
-      <c r="Q2" s="62" t="s">
-        <v>519</v>
-      </c>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="25"/>
+      <c r="Q2" s="61" t="s">
+        <v>518</v>
+      </c>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
     </row>
     <row r="3" spans="3:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="64" t="s">
         <v>336</v>
       </c>
-      <c r="D4" s="65"/>
+      <c r="D4" s="64"/>
       <c r="I4" s="21" t="s">
         <v>69</v>
       </c>
@@ -4462,10 +4449,10 @@
       </c>
     </row>
     <row r="5" spans="3:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>338</v>
       </c>
       <c r="I5" s="8" t="s">
@@ -4487,74 +4474,132 @@
       <c r="Q5" s="5">
         <v>1</v>
       </c>
-      <c r="R5" s="34" t="s">
+      <c r="R5" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="22" t="s">
-        <v>341</v>
+      <c r="S5" s="34" t="str">
+        <f>LEFT(R5,1)</f>
+        <v>L</v>
+      </c>
+      <c r="T5" s="34">
+        <f>FIND(" ",R5)+1</f>
+        <v>8</v>
+      </c>
+      <c r="U5" s="34" t="str">
+        <f>MID(R5,T5,LEN(R5))</f>
+        <v>Donovan</v>
+      </c>
+      <c r="V5" s="8" t="str">
+        <f>_xlfn.CONCAT(S5,".",U5,"@standardco.com.au")</f>
+        <v>L.Donovan@standardco.com.au</v>
       </c>
     </row>
     <row r="6" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="J6" s="8" t="str">
+        <f>LEFT(I6:I22,3)</f>
+        <v>AUS</v>
+      </c>
+      <c r="K6" s="18" t="str">
+        <f>RIGHT(I6:I22,10)</f>
+        <v>0405601924</v>
+      </c>
+      <c r="L6" s="8" t="str">
+        <f>MID(I6,4,LEN(I6)-13)</f>
+        <v>Apple</v>
+      </c>
+      <c r="M6" s="8">
+        <f>LEN(I6)</f>
+        <v>18</v>
+      </c>
       <c r="Q6" s="5">
         <v>2</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="8"/>
+      <c r="S6" s="34" t="str">
+        <f t="shared" ref="S6:S69" si="0">LEFT(R6,1)</f>
+        <v>E</v>
+      </c>
+      <c r="T6" s="34">
+        <f t="shared" ref="T6:T69" si="1">FIND(" ",R6)+1</f>
+        <v>6</v>
+      </c>
+      <c r="U6" s="34" t="str">
+        <f t="shared" ref="U6:U69" si="2">MID(R6,T6,LEN(R6))</f>
+        <v>Cantrell</v>
+      </c>
+      <c r="V6" s="8" t="str">
+        <f>_xlfn.CONCAT(S6,".",U6,"@standardco.com.au")</f>
+        <v>E.Cantrell@standardco.com.au</v>
+      </c>
     </row>
     <row r="7" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="23" t="s">
         <v>330</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="J7" s="8" t="str">
+        <f t="shared" ref="J7:J22" si="3">LEFT(I7:I23,3)</f>
+        <v>AUS</v>
+      </c>
+      <c r="K7" s="18" t="str">
+        <f t="shared" ref="K7:K22" si="4">RIGHT(I7:I23,10)</f>
+        <v>0415801925</v>
+      </c>
+      <c r="L7" s="8" t="str">
+        <f t="shared" ref="L7:L22" si="5">MID(I7,4,LEN(I7)-13)</f>
+        <v>Google</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" ref="M7:M22" si="6">LEN(I7)</f>
+        <v>19</v>
+      </c>
       <c r="Q7" s="5">
         <v>3</v>
       </c>
       <c r="R7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="8"/>
+      <c r="S7" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
+      </c>
+      <c r="T7" s="34">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="U7" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Villegas</v>
+      </c>
+      <c r="V7" s="8" t="str">
+        <f>_xlfn.CONCAT(S7,".",U7,"@standardco.com.au")</f>
+        <v>K.Villegas@standardco.com.au</v>
+      </c>
     </row>
     <row r="8" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>322</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="22" t="s">
         <v>333</v>
       </c>
       <c r="F8" s="8" t="str">
@@ -4564,29 +4609,53 @@
       <c r="I8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="J8" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>AUS</v>
+      </c>
+      <c r="K8" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>0405601925</v>
+      </c>
+      <c r="L8" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>Apple</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
       <c r="Q8" s="5">
         <v>4</v>
       </c>
       <c r="R8" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="8"/>
+      <c r="S8" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="T8" s="34">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="U8" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Bird</v>
+      </c>
+      <c r="V8" s="8" t="str">
+        <f>_xlfn.CONCAT(S8,".",U8,"@standardco.com.au")</f>
+        <v>T.Bird@standardco.com.au</v>
+      </c>
     </row>
     <row r="9" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>324</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>332</v>
       </c>
       <c r="F9" s="8" t="str">
@@ -4595,12 +4664,24 @@
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+        <v>517</v>
+      </c>
+      <c r="J9" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>GBR</v>
+      </c>
+      <c r="K9" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>0778801926</v>
+      </c>
+      <c r="L9" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>Google</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="5">
@@ -4609,21 +4690,33 @@
       <c r="R9" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="8"/>
+      <c r="S9" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
+      </c>
+      <c r="T9" s="34">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="U9" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Jackson</v>
+      </c>
+      <c r="V9" s="8" t="str">
+        <f t="shared" ref="V9:V72" si="7">_xlfn.CONCAT(S9,".",U9,"@standardco.com.au")</f>
+        <v>M.Jackson@standardco.com.au</v>
+      </c>
       <c r="W9" s="13"/>
     </row>
     <row r="10" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>522</v>
+      <c r="E10" s="22" t="s">
+        <v>521</v>
       </c>
       <c r="F10" s="8" t="str">
         <f>MID(E10,2,4)</f>
@@ -4633,10 +4726,22 @@
       <c r="I10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="J10" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>AUS</v>
+      </c>
+      <c r="K10" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>0405601926</v>
+      </c>
+      <c r="L10" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>Apple</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
       <c r="O10" s="13"/>
       <c r="P10" s="13"/>
       <c r="Q10" s="5">
@@ -4645,20 +4750,32 @@
       <c r="R10" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="8"/>
+      <c r="S10" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>R</v>
+      </c>
+      <c r="T10" s="34">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="U10" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Cortez</v>
+      </c>
+      <c r="V10" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>R.Cortez@standardco.com.au</v>
+      </c>
       <c r="W10" s="13"/>
     </row>
     <row r="11" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>326</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="22" t="s">
         <v>334</v>
       </c>
       <c r="F11" s="8">
@@ -4668,29 +4785,53 @@
       <c r="I11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="J11" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>GBR</v>
+      </c>
+      <c r="K11" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>0775801927</v>
+      </c>
+      <c r="L11" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>Google</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
       <c r="Q11" s="5">
         <v>7</v>
       </c>
       <c r="R11" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="8"/>
+      <c r="S11" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
+      </c>
+      <c r="T11" s="34">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="U11" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Chaney</v>
+      </c>
+      <c r="V11" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>M.Chaney@standardco.com.au</v>
+      </c>
     </row>
     <row r="12" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>328</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="E12" s="23"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="8" t="str">
         <f>_xlfn.CONCAT(F8," ",F9," ",F10," ",F11)</f>
         <v>02 NSW auto 11</v>
@@ -4698,87 +4839,195 @@
       <c r="I12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="J12" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>AUS</v>
+      </c>
+      <c r="K12" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>0405601927</v>
+      </c>
+      <c r="L12" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>Apple</v>
+      </c>
+      <c r="M12" s="8">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
       <c r="Q12" s="5">
         <v>8</v>
       </c>
       <c r="R12" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="8"/>
+      <c r="S12" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>G</v>
+      </c>
+      <c r="T12" s="34">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="U12" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Fritz</v>
+      </c>
+      <c r="V12" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>G.Fritz@standardco.com.au</v>
+      </c>
     </row>
     <row r="13" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I13" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="J13" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>AUS</v>
+      </c>
+      <c r="K13" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>0415801928</v>
+      </c>
+      <c r="L13" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>Google</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
       <c r="Q13" s="5">
         <v>9</v>
       </c>
       <c r="R13" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="8"/>
+      <c r="S13" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="T13" s="34">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="U13" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Harper</v>
+      </c>
+      <c r="V13" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>C.Harper@standardco.com.au</v>
+      </c>
     </row>
     <row r="14" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="J14" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>GBR</v>
+      </c>
+      <c r="K14" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>0775601928</v>
+      </c>
+      <c r="L14" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>Apple</v>
+      </c>
+      <c r="M14" s="8">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
       <c r="Q14" s="5">
         <v>10</v>
       </c>
       <c r="R14" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="8"/>
+      <c r="S14" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
+      <c r="T14" s="34">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="U14" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Ingram</v>
+      </c>
+      <c r="V14" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>S.Ingram@standardco.com.au</v>
+      </c>
     </row>
     <row r="15" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="J15" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>AUS</v>
+      </c>
+      <c r="K15" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>0415801929</v>
+      </c>
+      <c r="L15" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>Google</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
       <c r="Q15" s="5">
         <v>11</v>
       </c>
       <c r="R15" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="8"/>
+      <c r="S15" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>Z</v>
+      </c>
+      <c r="T15" s="34">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="U15" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Compton</v>
+      </c>
+      <c r="V15" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>Z.Compton@standardco.com.au</v>
+      </c>
     </row>
     <row r="16" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H16" s="13"/>
       <c r="I16" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="J16" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>AUS</v>
+      </c>
+      <c r="K16" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>0405601929</v>
+      </c>
+      <c r="L16" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>Apple</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
       <c r="Q16" s="5">
@@ -4787,10 +5036,22 @@
       <c r="R16" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="8"/>
+      <c r="S16" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="T16" s="34">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="U16" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Rivas</v>
+      </c>
+      <c r="V16" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>D.Rivas@standardco.com.au</v>
+      </c>
       <c r="W16" s="13"/>
     </row>
     <row r="17" spans="8:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4798,10 +5059,22 @@
       <c r="I17" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="J17" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>AUS</v>
+      </c>
+      <c r="K17" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>0415801930</v>
+      </c>
+      <c r="L17" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>Google</v>
+      </c>
+      <c r="M17" s="8">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
       <c r="Q17" s="5">
@@ -4810,106 +5083,238 @@
       <c r="R17" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="8"/>
+      <c r="S17" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
+      </c>
+      <c r="T17" s="34">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="U17" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Mccann</v>
+      </c>
+      <c r="V17" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>K.Mccann@standardco.com.au</v>
+      </c>
       <c r="W17" s="13"/>
     </row>
     <row r="18" spans="8:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I18" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="J18" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>AUS</v>
+      </c>
+      <c r="K18" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>0405601930</v>
+      </c>
+      <c r="L18" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>Apple</v>
+      </c>
+      <c r="M18" s="8">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
       <c r="Q18" s="5">
         <v>14</v>
       </c>
       <c r="R18" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="8"/>
+      <c r="S18" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="T18" s="34">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="U18" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Murillo</v>
+      </c>
+      <c r="V18" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>B.Murillo@standardco.com.au</v>
+      </c>
     </row>
     <row r="19" spans="8:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I19" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
+      <c r="J19" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>AUS</v>
+      </c>
+      <c r="K19" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>0415801931</v>
+      </c>
+      <c r="L19" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>Google</v>
+      </c>
+      <c r="M19" s="8">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
       <c r="Q19" s="5">
         <v>15</v>
       </c>
       <c r="R19" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="8"/>
+      <c r="S19" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="T19" s="34">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="U19" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Obrien</v>
+      </c>
+      <c r="V19" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>C.Obrien@standardco.com.au</v>
+      </c>
     </row>
     <row r="20" spans="8:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
+      <c r="J20" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>AUS</v>
+      </c>
+      <c r="K20" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>0405601931</v>
+      </c>
+      <c r="L20" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>Apple</v>
+      </c>
+      <c r="M20" s="8">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
       <c r="Q20" s="5">
         <v>16</v>
       </c>
       <c r="R20" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="8"/>
+      <c r="S20" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>I</v>
+      </c>
+      <c r="T20" s="34">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="U20" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Mills</v>
+      </c>
+      <c r="V20" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>I.Mills@standardco.com.au</v>
+      </c>
     </row>
     <row r="21" spans="8:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I21" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="J21" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>AUS</v>
+      </c>
+      <c r="K21" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>0415801932</v>
+      </c>
+      <c r="L21" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>Google</v>
+      </c>
+      <c r="M21" s="8">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
       <c r="Q21" s="5">
         <v>17</v>
       </c>
       <c r="R21" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="8"/>
+      <c r="S21" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
+      <c r="T21" s="34">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="U21" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Yang</v>
+      </c>
+      <c r="V21" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>S.Yang@standardco.com.au</v>
+      </c>
     </row>
     <row r="22" spans="8:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I22" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="J22" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>AUS</v>
+      </c>
+      <c r="K22" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>0405601932</v>
+      </c>
+      <c r="L22" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>Apple</v>
+      </c>
+      <c r="M22" s="8">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
       <c r="Q22" s="5">
         <v>18</v>
       </c>
       <c r="R22" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="8"/>
+      <c r="S22" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>R</v>
+      </c>
+      <c r="T22" s="34">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="U22" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Huynh</v>
+      </c>
+      <c r="V22" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>R.Huynh@standardco.com.au</v>
+      </c>
     </row>
     <row r="23" spans="8:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q23" s="5">
@@ -4918,22 +5323,49 @@
       <c r="R23" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="8"/>
+      <c r="S23" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>L</v>
+      </c>
+      <c r="T23" s="34">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="U23" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Alvarez</v>
+      </c>
+      <c r="V23" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>L.Alvarez@standardco.com.au</v>
+      </c>
     </row>
     <row r="24" spans="8:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="4" t="s">
+        <v>595</v>
+      </c>
       <c r="Q24" s="5">
         <v>20</v>
       </c>
       <c r="R24" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="8"/>
+      <c r="S24" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>R</v>
+      </c>
+      <c r="T24" s="34">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="U24" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Sexton</v>
+      </c>
+      <c r="V24" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>R.Sexton@standardco.com.au</v>
+      </c>
     </row>
     <row r="25" spans="8:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q25" s="5">
@@ -4942,10 +5374,22 @@
       <c r="R25" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="8"/>
+      <c r="S25" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>I</v>
+      </c>
+      <c r="T25" s="34">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="U25" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Dunn</v>
+      </c>
+      <c r="V25" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>I.Dunn@standardco.com.au</v>
+      </c>
     </row>
     <row r="26" spans="8:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q26" s="5">
@@ -4954,10 +5398,22 @@
       <c r="R26" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="8"/>
+      <c r="S26" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="T26" s="34">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="U26" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Middleton</v>
+      </c>
+      <c r="V26" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>C.Middleton@standardco.com.au</v>
+      </c>
     </row>
     <row r="27" spans="8:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q27" s="5">
@@ -4966,10 +5422,22 @@
       <c r="R27" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="8"/>
+      <c r="S27" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="T27" s="34">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="U27" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Parrish</v>
+      </c>
+      <c r="V27" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>C.Parrish@standardco.com.au</v>
+      </c>
     </row>
     <row r="28" spans="8:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q28" s="5">
@@ -4978,10 +5446,22 @@
       <c r="R28" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="8"/>
+      <c r="S28" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>J</v>
+      </c>
+      <c r="T28" s="34">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="U28" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Barajas</v>
+      </c>
+      <c r="V28" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>J.Barajas@standardco.com.au</v>
+      </c>
     </row>
     <row r="29" spans="8:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q29" s="5">
@@ -4990,10 +5470,22 @@
       <c r="R29" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="8"/>
+      <c r="S29" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="T29" s="34">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="U29" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Santos</v>
+      </c>
+      <c r="V29" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>B.Santos@standardco.com.au</v>
+      </c>
     </row>
     <row r="30" spans="8:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q30" s="5">
@@ -5002,10 +5494,22 @@
       <c r="R30" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="8"/>
+      <c r="S30" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
+      <c r="T30" s="34">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="U30" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Bishop</v>
+      </c>
+      <c r="V30" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>E.Bishop@standardco.com.au</v>
+      </c>
     </row>
     <row r="31" spans="8:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q31" s="5">
@@ -5014,10 +5518,22 @@
       <c r="R31" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="8"/>
+      <c r="S31" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>G</v>
+      </c>
+      <c r="T31" s="34">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="U31" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Cherry</v>
+      </c>
+      <c r="V31" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>G.Cherry@standardco.com.au</v>
+      </c>
     </row>
     <row r="32" spans="8:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q32" s="5">
@@ -5026,10 +5542,22 @@
       <c r="R32" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="8"/>
+      <c r="S32" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="T32" s="34">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="U32" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Page</v>
+      </c>
+      <c r="V32" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>F.Page@standardco.com.au</v>
+      </c>
     </row>
     <row r="33" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q33" s="5">
@@ -5038,10 +5566,22 @@
       <c r="R33" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="8"/>
+      <c r="S33" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
+      <c r="T33" s="34">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="U33" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Gregory</v>
+      </c>
+      <c r="V33" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>S.Gregory@standardco.com.au</v>
+      </c>
     </row>
     <row r="34" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q34" s="5">
@@ -5050,10 +5590,22 @@
       <c r="R34" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="8"/>
+      <c r="S34" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>L</v>
+      </c>
+      <c r="T34" s="34">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="U34" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Bautista</v>
+      </c>
+      <c r="V34" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>L.Bautista@standardco.com.au</v>
+      </c>
     </row>
     <row r="35" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q35" s="5">
@@ -5062,10 +5614,22 @@
       <c r="R35" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="8"/>
+      <c r="S35" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="T35" s="34">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="U35" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Barker</v>
+      </c>
+      <c r="V35" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>D.Barker@standardco.com.au</v>
+      </c>
     </row>
     <row r="36" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q36" s="5">
@@ -5074,10 +5638,22 @@
       <c r="R36" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="8"/>
+      <c r="S36" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
+      </c>
+      <c r="T36" s="34">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="U36" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Fuller</v>
+      </c>
+      <c r="V36" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>M.Fuller@standardco.com.au</v>
+      </c>
     </row>
     <row r="37" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q37" s="5">
@@ -5086,10 +5662,22 @@
       <c r="R37" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="8"/>
+      <c r="S37" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="T37" s="34">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="U37" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Allen</v>
+      </c>
+      <c r="V37" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>N.Allen@standardco.com.au</v>
+      </c>
     </row>
     <row r="38" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q38" s="5">
@@ -5098,10 +5686,22 @@
       <c r="R38" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="8"/>
+      <c r="S38" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
+      </c>
+      <c r="T38" s="34">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="U38" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Scott</v>
+      </c>
+      <c r="V38" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>M.Scott@standardco.com.au</v>
+      </c>
     </row>
     <row r="39" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q39" s="5">
@@ -5110,10 +5710,22 @@
       <c r="R39" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="8"/>
+      <c r="S39" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>R</v>
+      </c>
+      <c r="T39" s="34">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="U39" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Johnston</v>
+      </c>
+      <c r="V39" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>R.Johnston@standardco.com.au</v>
+      </c>
     </row>
     <row r="40" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q40" s="5">
@@ -5122,10 +5734,22 @@
       <c r="R40" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="S40" s="35"/>
-      <c r="T40" s="35"/>
-      <c r="U40" s="35"/>
-      <c r="V40" s="8"/>
+      <c r="S40" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
+      </c>
+      <c r="T40" s="34">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="U40" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Walls</v>
+      </c>
+      <c r="V40" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>M.Walls@standardco.com.au</v>
+      </c>
     </row>
     <row r="41" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q41" s="5">
@@ -5134,10 +5758,22 @@
       <c r="R41" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="35"/>
-      <c r="V41" s="8"/>
+      <c r="S41" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>I</v>
+      </c>
+      <c r="T41" s="34">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="U41" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Gallagher</v>
+      </c>
+      <c r="V41" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>I.Gallagher@standardco.com.au</v>
+      </c>
     </row>
     <row r="42" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q42" s="5">
@@ -5146,10 +5782,22 @@
       <c r="R42" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="8"/>
+      <c r="S42" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
+      <c r="T42" s="34">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="U42" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Haney</v>
+      </c>
+      <c r="V42" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>E.Haney@standardco.com.au</v>
+      </c>
     </row>
     <row r="43" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q43" s="5">
@@ -5158,10 +5806,22 @@
       <c r="R43" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="S43" s="35"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="35"/>
-      <c r="V43" s="8"/>
+      <c r="S43" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>L</v>
+      </c>
+      <c r="T43" s="34">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="U43" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Yu</v>
+      </c>
+      <c r="V43" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>L.Yu@standardco.com.au</v>
+      </c>
     </row>
     <row r="44" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q44" s="5">
@@ -5170,10 +5830,22 @@
       <c r="R44" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="S44" s="35"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="35"/>
-      <c r="V44" s="8"/>
+      <c r="S44" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
+      <c r="T44" s="34">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="U44" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Mccormick</v>
+      </c>
+      <c r="V44" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>S.Mccormick@standardco.com.au</v>
+      </c>
     </row>
     <row r="45" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q45" s="5">
@@ -5182,10 +5854,22 @@
       <c r="R45" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="S45" s="35"/>
-      <c r="T45" s="35"/>
-      <c r="U45" s="35"/>
-      <c r="V45" s="8"/>
+      <c r="S45" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>R</v>
+      </c>
+      <c r="T45" s="34">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="U45" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Greer</v>
+      </c>
+      <c r="V45" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>R.Greer@standardco.com.au</v>
+      </c>
     </row>
     <row r="46" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q46" s="5">
@@ -5194,10 +5878,22 @@
       <c r="R46" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="S46" s="35"/>
-      <c r="T46" s="35"/>
-      <c r="U46" s="35"/>
-      <c r="V46" s="8"/>
+      <c r="S46" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="T46" s="34">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="U46" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Kirk</v>
+      </c>
+      <c r="V46" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>F.Kirk@standardco.com.au</v>
+      </c>
     </row>
     <row r="47" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q47" s="5">
@@ -5206,10 +5902,22 @@
       <c r="R47" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="S47" s="35"/>
-      <c r="T47" s="35"/>
-      <c r="U47" s="35"/>
-      <c r="V47" s="8"/>
+      <c r="S47" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>L</v>
+      </c>
+      <c r="T47" s="34">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="U47" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>West</v>
+      </c>
+      <c r="V47" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>L.West@standardco.com.au</v>
+      </c>
     </row>
     <row r="48" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q48" s="5">
@@ -5218,10 +5926,22 @@
       <c r="R48" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="S48" s="35"/>
-      <c r="T48" s="35"/>
-      <c r="U48" s="35"/>
-      <c r="V48" s="8"/>
+      <c r="S48" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>R</v>
+      </c>
+      <c r="T48" s="34">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="U48" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Daniels</v>
+      </c>
+      <c r="V48" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>R.Daniels@standardco.com.au</v>
+      </c>
     </row>
     <row r="49" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q49" s="5">
@@ -5230,10 +5950,22 @@
       <c r="R49" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="35"/>
-      <c r="V49" s="8"/>
+      <c r="S49" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>W</v>
+      </c>
+      <c r="T49" s="34">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="U49" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Chavez</v>
+      </c>
+      <c r="V49" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>W.Chavez@standardco.com.au</v>
+      </c>
     </row>
     <row r="50" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q50" s="5">
@@ -5242,10 +5974,22 @@
       <c r="R50" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="S50" s="35"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="35"/>
-      <c r="V50" s="8"/>
+      <c r="S50" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="T50" s="34">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="U50" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Oliver</v>
+      </c>
+      <c r="V50" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>C.Oliver@standardco.com.au</v>
+      </c>
     </row>
     <row r="51" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q51" s="5">
@@ -5254,10 +5998,22 @@
       <c r="R51" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="S51" s="35"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="35"/>
-      <c r="V51" s="8"/>
+      <c r="S51" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>L</v>
+      </c>
+      <c r="T51" s="34">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="U51" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Conway</v>
+      </c>
+      <c r="V51" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>L.Conway@standardco.com.au</v>
+      </c>
     </row>
     <row r="52" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q52" s="5">
@@ -5266,10 +6022,22 @@
       <c r="R52" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="S52" s="35"/>
-      <c r="T52" s="35"/>
-      <c r="U52" s="35"/>
-      <c r="V52" s="8"/>
+      <c r="S52" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
+      </c>
+      <c r="T52" s="34">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="U52" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Sutton</v>
+      </c>
+      <c r="V52" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>M.Sutton@standardco.com.au</v>
+      </c>
     </row>
     <row r="53" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q53" s="5">
@@ -5278,10 +6046,22 @@
       <c r="R53" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S53" s="35"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="35"/>
-      <c r="V53" s="8"/>
+      <c r="S53" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="T53" s="34">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="U53" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Whitaker</v>
+      </c>
+      <c r="V53" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>A.Whitaker@standardco.com.au</v>
+      </c>
     </row>
     <row r="54" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q54" s="5">
@@ -5290,10 +6070,22 @@
       <c r="R54" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="S54" s="35"/>
-      <c r="T54" s="35"/>
-      <c r="U54" s="35"/>
-      <c r="V54" s="8"/>
+      <c r="S54" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>H</v>
+      </c>
+      <c r="T54" s="34">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="U54" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Cervantes</v>
+      </c>
+      <c r="V54" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>H.Cervantes@standardco.com.au</v>
+      </c>
     </row>
     <row r="55" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q55" s="5">
@@ -5302,10 +6094,22 @@
       <c r="R55" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="S55" s="35"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="35"/>
-      <c r="V55" s="8"/>
+      <c r="S55" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
+      <c r="T55" s="34">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="U55" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Saunders</v>
+      </c>
+      <c r="V55" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>E.Saunders@standardco.com.au</v>
+      </c>
     </row>
     <row r="56" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q56" s="5">
@@ -5314,10 +6118,22 @@
       <c r="R56" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="S56" s="35"/>
-      <c r="T56" s="35"/>
-      <c r="U56" s="35"/>
-      <c r="V56" s="8"/>
+      <c r="S56" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="T56" s="34">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="U56" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Kennedy</v>
+      </c>
+      <c r="V56" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>C.Kennedy@standardco.com.au</v>
+      </c>
     </row>
     <row r="57" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q57" s="5">
@@ -5326,10 +6142,22 @@
       <c r="R57" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="S57" s="35"/>
-      <c r="T57" s="35"/>
-      <c r="U57" s="35"/>
-      <c r="V57" s="8"/>
+      <c r="S57" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
+      </c>
+      <c r="T57" s="34">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="U57" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Simmons</v>
+      </c>
+      <c r="V57" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>K.Simmons@standardco.com.au</v>
+      </c>
     </row>
     <row r="58" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q58" s="5">
@@ -5338,10 +6166,22 @@
       <c r="R58" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="S58" s="35"/>
-      <c r="T58" s="35"/>
-      <c r="U58" s="35"/>
-      <c r="V58" s="8"/>
+      <c r="S58" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
+      <c r="T58" s="34">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="U58" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Duarte</v>
+      </c>
+      <c r="V58" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>S.Duarte@standardco.com.au</v>
+      </c>
     </row>
     <row r="59" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q59" s="5">
@@ -5350,10 +6190,22 @@
       <c r="R59" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="S59" s="35"/>
-      <c r="T59" s="35"/>
-      <c r="U59" s="35"/>
-      <c r="V59" s="8"/>
+      <c r="S59" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>H</v>
+      </c>
+      <c r="T59" s="34">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="U59" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Coffey</v>
+      </c>
+      <c r="V59" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>H.Coffey@standardco.com.au</v>
+      </c>
     </row>
     <row r="60" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q60" s="5">
@@ -5362,10 +6214,22 @@
       <c r="R60" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="S60" s="35"/>
-      <c r="T60" s="35"/>
-      <c r="U60" s="35"/>
-      <c r="V60" s="8"/>
+      <c r="S60" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
+      </c>
+      <c r="T60" s="34">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="U60" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Young</v>
+      </c>
+      <c r="V60" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>M.Young@standardco.com.au</v>
+      </c>
     </row>
     <row r="61" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q61" s="5">
@@ -5374,10 +6238,22 @@
       <c r="R61" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="S61" s="35"/>
-      <c r="T61" s="35"/>
-      <c r="U61" s="35"/>
-      <c r="V61" s="8"/>
+      <c r="S61" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
+      </c>
+      <c r="T61" s="34">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="U61" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Gonzalez</v>
+      </c>
+      <c r="V61" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>M.Gonzalez@standardco.com.au</v>
+      </c>
     </row>
     <row r="62" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q62" s="5">
@@ -5386,10 +6262,22 @@
       <c r="R62" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="S62" s="35"/>
-      <c r="T62" s="35"/>
-      <c r="U62" s="35"/>
-      <c r="V62" s="8"/>
+      <c r="S62" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="T62" s="34">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="U62" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Wise</v>
+      </c>
+      <c r="V62" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>A.Wise@standardco.com.au</v>
+      </c>
     </row>
     <row r="63" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q63" s="5">
@@ -5398,10 +6286,22 @@
       <c r="R63" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="S63" s="35"/>
-      <c r="T63" s="35"/>
-      <c r="U63" s="35"/>
-      <c r="V63" s="8"/>
+      <c r="S63" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+      <c r="T63" s="34">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="U63" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Gomez</v>
+      </c>
+      <c r="V63" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>O.Gomez@standardco.com.au</v>
+      </c>
     </row>
     <row r="64" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q64" s="5">
@@ -5410,10 +6310,22 @@
       <c r="R64" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="S64" s="35"/>
-      <c r="T64" s="35"/>
-      <c r="U64" s="35"/>
-      <c r="V64" s="8"/>
+      <c r="S64" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>J</v>
+      </c>
+      <c r="T64" s="34">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="U64" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Sandoval</v>
+      </c>
+      <c r="V64" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>J.Sandoval@standardco.com.au</v>
+      </c>
     </row>
     <row r="65" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q65" s="5">
@@ -5422,10 +6334,22 @@
       <c r="R65" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="S65" s="35"/>
-      <c r="T65" s="35"/>
-      <c r="U65" s="35"/>
-      <c r="V65" s="8"/>
+      <c r="S65" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="T65" s="34">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="U65" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Farley</v>
+      </c>
+      <c r="V65" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>D.Farley@standardco.com.au</v>
+      </c>
     </row>
     <row r="66" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q66" s="5">
@@ -5434,10 +6358,22 @@
       <c r="R66" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="S66" s="35"/>
-      <c r="T66" s="35"/>
-      <c r="U66" s="35"/>
-      <c r="V66" s="8"/>
+      <c r="S66" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="T66" s="34">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="U66" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Harding</v>
+      </c>
+      <c r="V66" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>A.Harding@standardco.com.au</v>
+      </c>
     </row>
     <row r="67" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q67" s="5">
@@ -5446,10 +6382,22 @@
       <c r="R67" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="S67" s="35"/>
-      <c r="T67" s="35"/>
-      <c r="U67" s="35"/>
-      <c r="V67" s="8"/>
+      <c r="S67" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="T67" s="34">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="U67" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Munoz</v>
+      </c>
+      <c r="V67" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>N.Munoz@standardco.com.au</v>
+      </c>
     </row>
     <row r="68" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q68" s="5">
@@ -5458,10 +6406,22 @@
       <c r="R68" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="S68" s="35"/>
-      <c r="T68" s="35"/>
-      <c r="U68" s="35"/>
-      <c r="V68" s="8"/>
+      <c r="S68" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>L</v>
+      </c>
+      <c r="T68" s="34">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="U68" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Avery</v>
+      </c>
+      <c r="V68" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>L.Avery@standardco.com.au</v>
+      </c>
     </row>
     <row r="69" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q69" s="5">
@@ -5470,10 +6430,22 @@
       <c r="R69" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="S69" s="35"/>
-      <c r="T69" s="35"/>
-      <c r="U69" s="35"/>
-      <c r="V69" s="8"/>
+      <c r="S69" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="T69" s="34">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="U69" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Watkins</v>
+      </c>
+      <c r="V69" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>B.Watkins@standardco.com.au</v>
+      </c>
     </row>
     <row r="70" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q70" s="5">
@@ -5482,10 +6454,22 @@
       <c r="R70" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="S70" s="35"/>
-      <c r="T70" s="35"/>
-      <c r="U70" s="35"/>
-      <c r="V70" s="8"/>
+      <c r="S70" s="34" t="str">
+        <f t="shared" ref="S70:S133" si="8">LEFT(R70,1)</f>
+        <v>J</v>
+      </c>
+      <c r="T70" s="34">
+        <f t="shared" ref="T70:T133" si="9">FIND(" ",R70)+1</f>
+        <v>6</v>
+      </c>
+      <c r="U70" s="34" t="str">
+        <f t="shared" ref="U70:U133" si="10">MID(R70,T70,LEN(R70))</f>
+        <v>Gould</v>
+      </c>
+      <c r="V70" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>J.Gould@standardco.com.au</v>
+      </c>
     </row>
     <row r="71" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q71" s="5">
@@ -5494,10 +6478,22 @@
       <c r="R71" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="S71" s="35"/>
-      <c r="T71" s="35"/>
-      <c r="U71" s="35"/>
-      <c r="V71" s="8"/>
+      <c r="S71" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>E</v>
+      </c>
+      <c r="T71" s="34">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="U71" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Perez</v>
+      </c>
+      <c r="V71" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>E.Perez@standardco.com.au</v>
+      </c>
     </row>
     <row r="72" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q72" s="5">
@@ -5506,10 +6502,22 @@
       <c r="R72" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="S72" s="35"/>
-      <c r="T72" s="35"/>
-      <c r="U72" s="35"/>
-      <c r="V72" s="8"/>
+      <c r="S72" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>E</v>
+      </c>
+      <c r="T72" s="34">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="U72" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Rowe</v>
+      </c>
+      <c r="V72" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>E.Rowe@standardco.com.au</v>
+      </c>
     </row>
     <row r="73" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q73" s="5">
@@ -5518,10 +6526,22 @@
       <c r="R73" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="S73" s="35"/>
-      <c r="T73" s="35"/>
-      <c r="U73" s="35"/>
-      <c r="V73" s="8"/>
+      <c r="S73" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>F</v>
+      </c>
+      <c r="T73" s="34">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="U73" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Hobbs</v>
+      </c>
+      <c r="V73" s="8" t="str">
+        <f t="shared" ref="V73:V136" si="11">_xlfn.CONCAT(S73,".",U73,"@standardco.com.au")</f>
+        <v>F.Hobbs@standardco.com.au</v>
+      </c>
     </row>
     <row r="74" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q74" s="5">
@@ -5530,10 +6550,22 @@
       <c r="R74" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="S74" s="35"/>
-      <c r="T74" s="35"/>
-      <c r="U74" s="35"/>
-      <c r="V74" s="8"/>
+      <c r="S74" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>F</v>
+      </c>
+      <c r="T74" s="34">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="U74" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Houston</v>
+      </c>
+      <c r="V74" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>F.Houston@standardco.com.au</v>
+      </c>
     </row>
     <row r="75" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q75" s="5">
@@ -5542,10 +6574,22 @@
       <c r="R75" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="S75" s="35"/>
-      <c r="T75" s="35"/>
-      <c r="U75" s="35"/>
-      <c r="V75" s="8"/>
+      <c r="S75" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="T75" s="34">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="U75" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Collier</v>
+      </c>
+      <c r="V75" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>A.Collier@standardco.com.au</v>
+      </c>
     </row>
     <row r="76" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q76" s="5">
@@ -5554,10 +6598,22 @@
       <c r="R76" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="S76" s="35"/>
-      <c r="T76" s="35"/>
-      <c r="U76" s="35"/>
-      <c r="V76" s="8"/>
+      <c r="S76" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>M</v>
+      </c>
+      <c r="T76" s="34">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="U76" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Cox</v>
+      </c>
+      <c r="V76" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>M.Cox@standardco.com.au</v>
+      </c>
     </row>
     <row r="77" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q77" s="5">
@@ -5566,10 +6622,22 @@
       <c r="R77" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="S77" s="35"/>
-      <c r="T77" s="35"/>
-      <c r="U77" s="35"/>
-      <c r="V77" s="8"/>
+      <c r="S77" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+      <c r="T77" s="34">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="U77" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Flynn</v>
+      </c>
+      <c r="V77" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>C.Flynn@standardco.com.au</v>
+      </c>
     </row>
     <row r="78" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q78" s="5">
@@ -5578,10 +6646,22 @@
       <c r="R78" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="S78" s="35"/>
-      <c r="T78" s="35"/>
-      <c r="U78" s="35"/>
-      <c r="V78" s="8"/>
+      <c r="S78" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>R</v>
+      </c>
+      <c r="T78" s="34">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="U78" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Miller</v>
+      </c>
+      <c r="V78" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>R.Miller@standardco.com.au</v>
+      </c>
     </row>
     <row r="79" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q79" s="5">
@@ -5590,10 +6670,22 @@
       <c r="R79" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="S79" s="35"/>
-      <c r="T79" s="35"/>
-      <c r="U79" s="35"/>
-      <c r="V79" s="8"/>
+      <c r="S79" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>E</v>
+      </c>
+      <c r="T79" s="34">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="U79" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Lamb</v>
+      </c>
+      <c r="V79" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>E.Lamb@standardco.com.au</v>
+      </c>
     </row>
     <row r="80" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q80" s="5">
@@ -5602,10 +6694,22 @@
       <c r="R80" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="S80" s="35"/>
-      <c r="T80" s="35"/>
-      <c r="U80" s="35"/>
-      <c r="V80" s="8"/>
+      <c r="S80" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>M</v>
+      </c>
+      <c r="T80" s="34">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="U80" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Delgado</v>
+      </c>
+      <c r="V80" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>M.Delgado@standardco.com.au</v>
+      </c>
     </row>
     <row r="81" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q81" s="5">
@@ -5614,10 +6718,22 @@
       <c r="R81" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="S81" s="35"/>
-      <c r="T81" s="35"/>
-      <c r="U81" s="35"/>
-      <c r="V81" s="8"/>
+      <c r="S81" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+      <c r="T81" s="34">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="U81" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Blake</v>
+      </c>
+      <c r="V81" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>B.Blake@standardco.com.au</v>
+      </c>
     </row>
     <row r="82" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q82" s="5">
@@ -5626,10 +6742,22 @@
       <c r="R82" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="S82" s="35"/>
-      <c r="T82" s="35"/>
-      <c r="U82" s="35"/>
-      <c r="V82" s="8"/>
+      <c r="S82" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>H</v>
+      </c>
+      <c r="T82" s="34">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="U82" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Benson</v>
+      </c>
+      <c r="V82" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>H.Benson@standardco.com.au</v>
+      </c>
     </row>
     <row r="83" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q83" s="5">
@@ -5638,10 +6766,22 @@
       <c r="R83" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="S83" s="35"/>
-      <c r="T83" s="35"/>
-      <c r="U83" s="35"/>
-      <c r="V83" s="8"/>
+      <c r="S83" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+      <c r="T83" s="34">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="U83" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Suarez</v>
+      </c>
+      <c r="V83" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>S.Suarez@standardco.com.au</v>
+      </c>
     </row>
     <row r="84" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q84" s="5">
@@ -5650,10 +6790,22 @@
       <c r="R84" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="S84" s="35"/>
-      <c r="T84" s="35"/>
-      <c r="U84" s="35"/>
-      <c r="V84" s="8"/>
+      <c r="S84" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>J</v>
+      </c>
+      <c r="T84" s="34">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="U84" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Orr</v>
+      </c>
+      <c r="V84" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>J.Orr@standardco.com.au</v>
+      </c>
     </row>
     <row r="85" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q85" s="5">
@@ -5662,10 +6814,22 @@
       <c r="R85" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="S85" s="35"/>
-      <c r="T85" s="35"/>
-      <c r="U85" s="35"/>
-      <c r="V85" s="8"/>
+      <c r="S85" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>W</v>
+      </c>
+      <c r="T85" s="34">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="U85" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Dawson</v>
+      </c>
+      <c r="V85" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>W.Dawson@standardco.com.au</v>
+      </c>
     </row>
     <row r="86" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q86" s="5">
@@ -5674,10 +6838,22 @@
       <c r="R86" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="S86" s="35"/>
-      <c r="T86" s="35"/>
-      <c r="U86" s="35"/>
-      <c r="V86" s="8"/>
+      <c r="S86" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>G</v>
+      </c>
+      <c r="T86" s="34">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="U86" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Blackburn</v>
+      </c>
+      <c r="V86" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>G.Blackburn@standardco.com.au</v>
+      </c>
     </row>
     <row r="87" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q87" s="5">
@@ -5686,10 +6862,22 @@
       <c r="R87" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="S87" s="35"/>
-      <c r="T87" s="35"/>
-      <c r="U87" s="35"/>
-      <c r="V87" s="8"/>
+      <c r="S87" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>O</v>
+      </c>
+      <c r="T87" s="34">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="U87" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Everett</v>
+      </c>
+      <c r="V87" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>O.Everett@standardco.com.au</v>
+      </c>
     </row>
     <row r="88" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q88" s="5">
@@ -5698,10 +6886,22 @@
       <c r="R88" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="S88" s="35"/>
-      <c r="T88" s="35"/>
-      <c r="U88" s="35"/>
-      <c r="V88" s="8"/>
+      <c r="S88" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>M</v>
+      </c>
+      <c r="T88" s="34">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="U88" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Fry</v>
+      </c>
+      <c r="V88" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>M.Fry@standardco.com.au</v>
+      </c>
     </row>
     <row r="89" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q89" s="5">
@@ -5710,10 +6910,22 @@
       <c r="R89" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="S89" s="35"/>
-      <c r="T89" s="35"/>
-      <c r="U89" s="35"/>
-      <c r="V89" s="8"/>
+      <c r="S89" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+      <c r="T89" s="34">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="U89" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Brooks</v>
+      </c>
+      <c r="V89" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>C.Brooks@standardco.com.au</v>
+      </c>
     </row>
     <row r="90" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q90" s="5">
@@ -5722,10 +6934,22 @@
       <c r="R90" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="S90" s="35"/>
-      <c r="T90" s="35"/>
-      <c r="U90" s="35"/>
-      <c r="V90" s="8"/>
+      <c r="S90" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>O</v>
+      </c>
+      <c r="T90" s="34">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="U90" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Cooper</v>
+      </c>
+      <c r="V90" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>O.Cooper@standardco.com.au</v>
+      </c>
     </row>
     <row r="91" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q91" s="5">
@@ -5734,10 +6958,22 @@
       <c r="R91" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="S91" s="35"/>
-      <c r="T91" s="35"/>
-      <c r="U91" s="35"/>
-      <c r="V91" s="8"/>
+      <c r="S91" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>E</v>
+      </c>
+      <c r="T91" s="34">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="U91" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Wade</v>
+      </c>
+      <c r="V91" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>E.Wade@standardco.com.au</v>
+      </c>
     </row>
     <row r="92" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q92" s="5">
@@ -5746,10 +6982,22 @@
       <c r="R92" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="S92" s="35"/>
-      <c r="T92" s="35"/>
-      <c r="U92" s="35"/>
-      <c r="V92" s="8"/>
+      <c r="S92" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>T</v>
+      </c>
+      <c r="T92" s="34">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="U92" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Rios</v>
+      </c>
+      <c r="V92" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>T.Rios@standardco.com.au</v>
+      </c>
     </row>
     <row r="93" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q93" s="5">
@@ -5758,10 +7006,22 @@
       <c r="R93" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="S93" s="35"/>
-      <c r="T93" s="35"/>
-      <c r="U93" s="35"/>
-      <c r="V93" s="8"/>
+      <c r="S93" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>J</v>
+      </c>
+      <c r="T93" s="34">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="U93" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Brown</v>
+      </c>
+      <c r="V93" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>J.Brown@standardco.com.au</v>
+      </c>
     </row>
     <row r="94" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q94" s="5">
@@ -5770,10 +7030,22 @@
       <c r="R94" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="S94" s="35"/>
-      <c r="T94" s="35"/>
-      <c r="U94" s="35"/>
-      <c r="V94" s="8"/>
+      <c r="S94" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+      <c r="T94" s="34">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="U94" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Myers</v>
+      </c>
+      <c r="V94" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>C.Myers@standardco.com.au</v>
+      </c>
     </row>
     <row r="95" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q95" s="5">
@@ -5782,10 +7054,22 @@
       <c r="R95" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="S95" s="35"/>
-      <c r="T95" s="35"/>
-      <c r="U95" s="35"/>
-      <c r="V95" s="8"/>
+      <c r="S95" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="T95" s="34">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="U95" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Walker</v>
+      </c>
+      <c r="V95" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>A.Walker@standardco.com.au</v>
+      </c>
     </row>
     <row r="96" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q96" s="5">
@@ -5794,10 +7078,22 @@
       <c r="R96" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="S96" s="35"/>
-      <c r="T96" s="35"/>
-      <c r="U96" s="35"/>
-      <c r="V96" s="8"/>
+      <c r="S96" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+      <c r="T96" s="34">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="U96" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Knox</v>
+      </c>
+      <c r="V96" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>S.Knox@standardco.com.au</v>
+      </c>
     </row>
     <row r="97" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q97" s="5">
@@ -5806,10 +7102,22 @@
       <c r="R97" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="S97" s="35"/>
-      <c r="T97" s="35"/>
-      <c r="U97" s="35"/>
-      <c r="V97" s="8"/>
+      <c r="S97" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>J</v>
+      </c>
+      <c r="T97" s="34">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="U97" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Pearson</v>
+      </c>
+      <c r="V97" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>J.Pearson@standardco.com.au</v>
+      </c>
     </row>
     <row r="98" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q98" s="5">
@@ -5818,10 +7126,22 @@
       <c r="R98" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="S98" s="35"/>
-      <c r="T98" s="35"/>
-      <c r="U98" s="35"/>
-      <c r="V98" s="8"/>
+      <c r="S98" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>G</v>
+      </c>
+      <c r="T98" s="34">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="U98" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Valenzuela</v>
+      </c>
+      <c r="V98" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>G.Valenzuela@standardco.com.au</v>
+      </c>
     </row>
     <row r="99" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q99" s="5">
@@ -5830,10 +7150,22 @@
       <c r="R99" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="S99" s="35"/>
-      <c r="T99" s="35"/>
-      <c r="U99" s="35"/>
-      <c r="V99" s="8"/>
+      <c r="S99" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>E</v>
+      </c>
+      <c r="T99" s="34">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="U99" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Day</v>
+      </c>
+      <c r="V99" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>E.Day@standardco.com.au</v>
+      </c>
     </row>
     <row r="100" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q100" s="5">
@@ -5842,10 +7174,22 @@
       <c r="R100" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="S100" s="35"/>
-      <c r="T100" s="35"/>
-      <c r="U100" s="35"/>
-      <c r="V100" s="8"/>
+      <c r="S100" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>K</v>
+      </c>
+      <c r="T100" s="34">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="U100" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Carrillo</v>
+      </c>
+      <c r="V100" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>K.Carrillo@standardco.com.au</v>
+      </c>
     </row>
     <row r="101" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q101" s="5">
@@ -5854,10 +7198,22 @@
       <c r="R101" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="S101" s="35"/>
-      <c r="T101" s="35"/>
-      <c r="U101" s="35"/>
-      <c r="V101" s="8"/>
+      <c r="S101" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="T101" s="34">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="U101" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Barrera</v>
+      </c>
+      <c r="V101" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>A.Barrera@standardco.com.au</v>
+      </c>
     </row>
     <row r="102" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q102" s="5">
@@ -5866,10 +7222,22 @@
       <c r="R102" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="S102" s="35"/>
-      <c r="T102" s="35"/>
-      <c r="U102" s="35"/>
-      <c r="V102" s="8"/>
+      <c r="S102" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>R</v>
+      </c>
+      <c r="T102" s="34">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="U102" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Chen</v>
+      </c>
+      <c r="V102" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>R.Chen@standardco.com.au</v>
+      </c>
     </row>
     <row r="103" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q103" s="5">
@@ -5878,10 +7246,22 @@
       <c r="R103" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="S103" s="35"/>
-      <c r="T103" s="35"/>
-      <c r="U103" s="35"/>
-      <c r="V103" s="8"/>
+      <c r="S103" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>T</v>
+      </c>
+      <c r="T103" s="34">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="U103" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Khan</v>
+      </c>
+      <c r="V103" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>T.Khan@standardco.com.au</v>
+      </c>
     </row>
     <row r="104" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q104" s="5">
@@ -5890,10 +7270,22 @@
       <c r="R104" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="S104" s="35"/>
-      <c r="T104" s="35"/>
-      <c r="U104" s="35"/>
-      <c r="V104" s="8"/>
+      <c r="S104" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+      <c r="T104" s="34">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="U104" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Stuart</v>
+      </c>
+      <c r="V104" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>C.Stuart@standardco.com.au</v>
+      </c>
     </row>
     <row r="105" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q105" s="5">
@@ -5902,10 +7294,22 @@
       <c r="R105" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="S105" s="35"/>
-      <c r="T105" s="35"/>
-      <c r="U105" s="35"/>
-      <c r="V105" s="8"/>
+      <c r="S105" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>T</v>
+      </c>
+      <c r="T105" s="34">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="U105" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Frank</v>
+      </c>
+      <c r="V105" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>T.Frank@standardco.com.au</v>
+      </c>
     </row>
     <row r="106" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q106" s="5">
@@ -5914,10 +7318,22 @@
       <c r="R106" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="S106" s="35"/>
-      <c r="T106" s="35"/>
-      <c r="U106" s="35"/>
-      <c r="V106" s="8"/>
+      <c r="S106" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>T</v>
+      </c>
+      <c r="T106" s="34">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="U106" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Fernandez</v>
+      </c>
+      <c r="V106" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>T.Fernandez@standardco.com.au</v>
+      </c>
     </row>
     <row r="107" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q107" s="5">
@@ -5926,10 +7342,22 @@
       <c r="R107" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="S107" s="35"/>
-      <c r="T107" s="35"/>
-      <c r="U107" s="35"/>
-      <c r="V107" s="8"/>
+      <c r="S107" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>D</v>
+      </c>
+      <c r="T107" s="34">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="U107" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Newman</v>
+      </c>
+      <c r="V107" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>D.Newman@standardco.com.au</v>
+      </c>
     </row>
     <row r="108" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q108" s="5">
@@ -5938,10 +7366,22 @@
       <c r="R108" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="S108" s="35"/>
-      <c r="T108" s="35"/>
-      <c r="U108" s="35"/>
-      <c r="V108" s="8"/>
+      <c r="S108" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>L</v>
+      </c>
+      <c r="T108" s="34">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="U108" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Maynard</v>
+      </c>
+      <c r="V108" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>L.Maynard@standardco.com.au</v>
+      </c>
     </row>
     <row r="109" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q109" s="5">
@@ -5950,10 +7390,22 @@
       <c r="R109" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="S109" s="35"/>
-      <c r="T109" s="35"/>
-      <c r="U109" s="35"/>
-      <c r="V109" s="8"/>
+      <c r="S109" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+      <c r="T109" s="34">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="U109" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Crawford</v>
+      </c>
+      <c r="V109" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>C.Crawford@standardco.com.au</v>
+      </c>
     </row>
     <row r="110" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q110" s="5">
@@ -5962,10 +7414,22 @@
       <c r="R110" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="S110" s="35"/>
-      <c r="T110" s="35"/>
-      <c r="U110" s="35"/>
-      <c r="V110" s="8"/>
+      <c r="S110" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>W</v>
+      </c>
+      <c r="T110" s="34">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="U110" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Henderson</v>
+      </c>
+      <c r="V110" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>W.Henderson@standardco.com.au</v>
+      </c>
     </row>
     <row r="111" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q111" s="5">
@@ -5974,10 +7438,22 @@
       <c r="R111" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="S111" s="35"/>
-      <c r="T111" s="35"/>
-      <c r="U111" s="35"/>
-      <c r="V111" s="8"/>
+      <c r="S111" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>G</v>
+      </c>
+      <c r="T111" s="34">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="U111" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Patterson</v>
+      </c>
+      <c r="V111" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>G.Patterson@standardco.com.au</v>
+      </c>
     </row>
     <row r="112" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q112" s="5">
@@ -5986,10 +7462,22 @@
       <c r="R112" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="S112" s="35"/>
-      <c r="T112" s="35"/>
-      <c r="U112" s="35"/>
-      <c r="V112" s="8"/>
+      <c r="S112" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="T112" s="34">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="U112" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Avila</v>
+      </c>
+      <c r="V112" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>A.Avila@standardco.com.au</v>
+      </c>
     </row>
     <row r="113" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q113" s="5">
@@ -5998,10 +7486,22 @@
       <c r="R113" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="S113" s="35"/>
-      <c r="T113" s="35"/>
-      <c r="U113" s="35"/>
-      <c r="V113" s="8"/>
+      <c r="S113" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>G</v>
+      </c>
+      <c r="T113" s="34">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="U113" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Matthews</v>
+      </c>
+      <c r="V113" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>G.Matthews@standardco.com.au</v>
+      </c>
     </row>
     <row r="114" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q114" s="5">
@@ -6010,10 +7510,22 @@
       <c r="R114" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="S114" s="35"/>
-      <c r="T114" s="35"/>
-      <c r="U114" s="35"/>
-      <c r="V114" s="8"/>
+      <c r="S114" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>T</v>
+      </c>
+      <c r="T114" s="34">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="U114" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Lozano</v>
+      </c>
+      <c r="V114" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>T.Lozano@standardco.com.au</v>
+      </c>
     </row>
     <row r="115" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q115" s="5">
@@ -6022,10 +7534,22 @@
       <c r="R115" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="S115" s="35"/>
-      <c r="T115" s="35"/>
-      <c r="U115" s="35"/>
-      <c r="V115" s="8"/>
+      <c r="S115" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="T115" s="34">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="U115" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Yates</v>
+      </c>
+      <c r="V115" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>A.Yates@standardco.com.au</v>
+      </c>
     </row>
     <row r="116" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q116" s="5">
@@ -6034,10 +7558,22 @@
       <c r="R116" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="S116" s="35"/>
-      <c r="T116" s="35"/>
-      <c r="U116" s="35"/>
-      <c r="V116" s="8"/>
+      <c r="S116" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="T116" s="34">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="U116" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Burch</v>
+      </c>
+      <c r="V116" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>A.Burch@standardco.com.au</v>
+      </c>
     </row>
     <row r="117" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q117" s="5">
@@ -6046,10 +7582,22 @@
       <c r="R117" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="S117" s="35"/>
-      <c r="T117" s="35"/>
-      <c r="U117" s="35"/>
-      <c r="V117" s="8"/>
+      <c r="S117" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>T</v>
+      </c>
+      <c r="T117" s="34">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="U117" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Preston</v>
+      </c>
+      <c r="V117" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>T.Preston@standardco.com.au</v>
+      </c>
     </row>
     <row r="118" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q118" s="5">
@@ -6058,10 +7606,22 @@
       <c r="R118" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="S118" s="35"/>
-      <c r="T118" s="35"/>
-      <c r="U118" s="35"/>
-      <c r="V118" s="8"/>
+      <c r="S118" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+      <c r="T118" s="34">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="U118" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Hensley</v>
+      </c>
+      <c r="V118" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>C.Hensley@standardco.com.au</v>
+      </c>
     </row>
     <row r="119" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q119" s="5">
@@ -6070,10 +7630,22 @@
       <c r="R119" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="S119" s="35"/>
-      <c r="T119" s="35"/>
-      <c r="U119" s="35"/>
-      <c r="V119" s="8"/>
+      <c r="S119" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>L</v>
+      </c>
+      <c r="T119" s="34">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="U119" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Berry</v>
+      </c>
+      <c r="V119" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>L.Berry@standardco.com.au</v>
+      </c>
     </row>
     <row r="120" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q120" s="5">
@@ -6082,10 +7654,22 @@
       <c r="R120" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="S120" s="35"/>
-      <c r="T120" s="35"/>
-      <c r="U120" s="35"/>
-      <c r="V120" s="8"/>
+      <c r="S120" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>J</v>
+      </c>
+      <c r="T120" s="34">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="U120" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Becker</v>
+      </c>
+      <c r="V120" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>J.Becker@standardco.com.au</v>
+      </c>
     </row>
     <row r="121" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q121" s="5">
@@ -6094,10 +7678,22 @@
       <c r="R121" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="S121" s="35"/>
-      <c r="T121" s="35"/>
-      <c r="U121" s="35"/>
-      <c r="V121" s="8"/>
+      <c r="S121" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>T</v>
+      </c>
+      <c r="T121" s="34">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="U121" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Choi</v>
+      </c>
+      <c r="V121" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>T.Choi@standardco.com.au</v>
+      </c>
     </row>
     <row r="122" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q122" s="5">
@@ -6106,10 +7702,22 @@
       <c r="R122" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="S122" s="35"/>
-      <c r="T122" s="35"/>
-      <c r="U122" s="35"/>
-      <c r="V122" s="8"/>
+      <c r="S122" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>L</v>
+      </c>
+      <c r="T122" s="34">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="U122" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Jimenez</v>
+      </c>
+      <c r="V122" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>L.Jimenez@standardco.com.au</v>
+      </c>
     </row>
     <row r="123" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q123" s="5">
@@ -6118,10 +7726,22 @@
       <c r="R123" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="S123" s="35"/>
-      <c r="T123" s="35"/>
-      <c r="U123" s="35"/>
-      <c r="V123" s="8"/>
+      <c r="S123" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>L</v>
+      </c>
+      <c r="T123" s="34">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="U123" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Conner</v>
+      </c>
+      <c r="V123" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>L.Conner@standardco.com.au</v>
+      </c>
     </row>
     <row r="124" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q124" s="5">
@@ -6130,10 +7750,22 @@
       <c r="R124" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="S124" s="35"/>
-      <c r="T124" s="35"/>
-      <c r="U124" s="35"/>
-      <c r="V124" s="8"/>
+      <c r="S124" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>J</v>
+      </c>
+      <c r="T124" s="34">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="U124" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Bowen</v>
+      </c>
+      <c r="V124" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>J.Bowen@standardco.com.au</v>
+      </c>
     </row>
     <row r="125" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q125" s="5">
@@ -6142,10 +7774,22 @@
       <c r="R125" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="S125" s="35"/>
-      <c r="T125" s="35"/>
-      <c r="U125" s="35"/>
-      <c r="V125" s="8"/>
+      <c r="S125" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>M</v>
+      </c>
+      <c r="T125" s="34">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="U125" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Lin</v>
+      </c>
+      <c r="V125" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>M.Lin@standardco.com.au</v>
+      </c>
     </row>
     <row r="126" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q126" s="5">
@@ -6154,10 +7798,22 @@
       <c r="R126" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="S126" s="35"/>
-      <c r="T126" s="35"/>
-      <c r="U126" s="35"/>
-      <c r="V126" s="8"/>
+      <c r="S126" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>M</v>
+      </c>
+      <c r="T126" s="34">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="U126" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Rowland</v>
+      </c>
+      <c r="V126" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>M.Rowland@standardco.com.au</v>
+      </c>
     </row>
     <row r="127" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q127" s="5">
@@ -6166,10 +7822,22 @@
       <c r="R127" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="S127" s="35"/>
-      <c r="T127" s="35"/>
-      <c r="U127" s="35"/>
-      <c r="V127" s="8"/>
+      <c r="S127" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>J</v>
+      </c>
+      <c r="T127" s="34">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="U127" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Reese</v>
+      </c>
+      <c r="V127" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>J.Reese@standardco.com.au</v>
+      </c>
     </row>
     <row r="128" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q128" s="5">
@@ -6178,10 +7846,22 @@
       <c r="R128" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="S128" s="35"/>
-      <c r="T128" s="35"/>
-      <c r="U128" s="35"/>
-      <c r="V128" s="8"/>
+      <c r="S128" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>M</v>
+      </c>
+      <c r="T128" s="34">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="U128" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Castillo</v>
+      </c>
+      <c r="V128" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>M.Castillo@standardco.com.au</v>
+      </c>
     </row>
     <row r="129" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q129" s="5">
@@ -6190,10 +7870,22 @@
       <c r="R129" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="S129" s="35"/>
-      <c r="T129" s="35"/>
-      <c r="U129" s="35"/>
-      <c r="V129" s="8"/>
+      <c r="S129" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>D</v>
+      </c>
+      <c r="T129" s="34">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="U129" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Lam</v>
+      </c>
+      <c r="V129" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>D.Lam@standardco.com.au</v>
+      </c>
     </row>
     <row r="130" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q130" s="5">
@@ -6202,10 +7894,22 @@
       <c r="R130" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="S130" s="35"/>
-      <c r="T130" s="35"/>
-      <c r="U130" s="35"/>
-      <c r="V130" s="8"/>
+      <c r="S130" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+      <c r="T130" s="34">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="U130" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Knapp</v>
+      </c>
+      <c r="V130" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>C.Knapp@standardco.com.au</v>
+      </c>
     </row>
     <row r="131" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q131" s="5">
@@ -6214,10 +7918,22 @@
       <c r="R131" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="S131" s="35"/>
-      <c r="T131" s="35"/>
-      <c r="U131" s="35"/>
-      <c r="V131" s="8"/>
+      <c r="S131" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>T</v>
+      </c>
+      <c r="T131" s="34">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="U131" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Travis</v>
+      </c>
+      <c r="V131" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>T.Travis@standardco.com.au</v>
+      </c>
     </row>
     <row r="132" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q132" s="5">
@@ -6226,10 +7942,22 @@
       <c r="R132" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="S132" s="35"/>
-      <c r="T132" s="35"/>
-      <c r="U132" s="35"/>
-      <c r="V132" s="8"/>
+      <c r="S132" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>M</v>
+      </c>
+      <c r="T132" s="34">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="U132" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Barron</v>
+      </c>
+      <c r="V132" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>M.Barron@standardco.com.au</v>
+      </c>
     </row>
     <row r="133" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q133" s="5">
@@ -6238,10 +7966,22 @@
       <c r="R133" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="S133" s="35"/>
-      <c r="T133" s="35"/>
-      <c r="U133" s="35"/>
-      <c r="V133" s="8"/>
+      <c r="S133" s="34" t="str">
+        <f t="shared" si="8"/>
+        <v>R</v>
+      </c>
+      <c r="T133" s="34">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="U133" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Moyer</v>
+      </c>
+      <c r="V133" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>R.Moyer@standardco.com.au</v>
+      </c>
     </row>
     <row r="134" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q134" s="5">
@@ -6250,10 +7990,22 @@
       <c r="R134" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="S134" s="35"/>
-      <c r="T134" s="35"/>
-      <c r="U134" s="35"/>
-      <c r="V134" s="8"/>
+      <c r="S134" s="34" t="str">
+        <f t="shared" ref="S134:S197" si="12">LEFT(R134,1)</f>
+        <v>S</v>
+      </c>
+      <c r="T134" s="34">
+        <f t="shared" ref="T134:T197" si="13">FIND(" ",R134)+1</f>
+        <v>5</v>
+      </c>
+      <c r="U134" s="34" t="str">
+        <f t="shared" ref="U134:U197" si="14">MID(R134,T134,LEN(R134))</f>
+        <v>Romero</v>
+      </c>
+      <c r="V134" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>S.Romero@standardco.com.au</v>
+      </c>
     </row>
     <row r="135" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q135" s="5">
@@ -6262,10 +8014,22 @@
       <c r="R135" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="S135" s="35"/>
-      <c r="T135" s="35"/>
-      <c r="U135" s="35"/>
-      <c r="V135" s="8"/>
+      <c r="S135" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>R</v>
+      </c>
+      <c r="T135" s="34">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="U135" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Roberts</v>
+      </c>
+      <c r="V135" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>R.Roberts@standardco.com.au</v>
+      </c>
     </row>
     <row r="136" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q136" s="5">
@@ -6274,10 +8038,22 @@
       <c r="R136" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="S136" s="35"/>
-      <c r="T136" s="35"/>
-      <c r="U136" s="35"/>
-      <c r="V136" s="8"/>
+      <c r="S136" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>K</v>
+      </c>
+      <c r="T136" s="34">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="U136" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Wall</v>
+      </c>
+      <c r="V136" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>K.Wall@standardco.com.au</v>
+      </c>
     </row>
     <row r="137" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q137" s="5">
@@ -6286,10 +8062,22 @@
       <c r="R137" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="S137" s="35"/>
-      <c r="T137" s="35"/>
-      <c r="U137" s="35"/>
-      <c r="V137" s="8"/>
+      <c r="S137" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>K</v>
+      </c>
+      <c r="T137" s="34">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="U137" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Dougherty</v>
+      </c>
+      <c r="V137" s="8" t="str">
+        <f t="shared" ref="V137:V200" si="15">_xlfn.CONCAT(S137,".",U137,"@standardco.com.au")</f>
+        <v>K.Dougherty@standardco.com.au</v>
+      </c>
     </row>
     <row r="138" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q138" s="5">
@@ -6298,10 +8086,22 @@
       <c r="R138" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="S138" s="35"/>
-      <c r="T138" s="35"/>
-      <c r="U138" s="35"/>
-      <c r="V138" s="8"/>
+      <c r="S138" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>R</v>
+      </c>
+      <c r="T138" s="34">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="U138" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Hanson</v>
+      </c>
+      <c r="V138" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>R.Hanson@standardco.com.au</v>
+      </c>
     </row>
     <row r="139" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q139" s="5">
@@ -6310,10 +8110,22 @@
       <c r="R139" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="S139" s="35"/>
-      <c r="T139" s="35"/>
-      <c r="U139" s="35"/>
-      <c r="V139" s="8"/>
+      <c r="S139" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>H</v>
+      </c>
+      <c r="T139" s="34">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="U139" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Wu</v>
+      </c>
+      <c r="V139" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>H.Wu@standardco.com.au</v>
+      </c>
     </row>
     <row r="140" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q140" s="5">
@@ -6322,10 +8134,22 @@
       <c r="R140" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="S140" s="35"/>
-      <c r="T140" s="35"/>
-      <c r="U140" s="35"/>
-      <c r="V140" s="8"/>
+      <c r="S140" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>S</v>
+      </c>
+      <c r="T140" s="34">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="U140" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Thornton</v>
+      </c>
+      <c r="V140" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>S.Thornton@standardco.com.au</v>
+      </c>
     </row>
     <row r="141" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q141" s="5">
@@ -6334,10 +8158,22 @@
       <c r="R141" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="S141" s="35"/>
-      <c r="T141" s="35"/>
-      <c r="U141" s="35"/>
-      <c r="V141" s="8"/>
+      <c r="S141" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>I</v>
+      </c>
+      <c r="T141" s="34">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="U141" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Lutz</v>
+      </c>
+      <c r="V141" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>I.Lutz@standardco.com.au</v>
+      </c>
     </row>
     <row r="142" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q142" s="5">
@@ -6346,10 +8182,22 @@
       <c r="R142" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="S142" s="35"/>
-      <c r="T142" s="35"/>
-      <c r="U142" s="35"/>
-      <c r="V142" s="8"/>
+      <c r="S142" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>T</v>
+      </c>
+      <c r="T142" s="34">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="U142" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Webb</v>
+      </c>
+      <c r="V142" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>T.Webb@standardco.com.au</v>
+      </c>
     </row>
     <row r="143" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q143" s="5">
@@ -6358,10 +8206,22 @@
       <c r="R143" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="S143" s="35"/>
-      <c r="T143" s="35"/>
-      <c r="U143" s="35"/>
-      <c r="V143" s="8"/>
+      <c r="S143" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>E</v>
+      </c>
+      <c r="T143" s="34">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="U143" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Figueroa</v>
+      </c>
+      <c r="V143" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>E.Figueroa@standardco.com.au</v>
+      </c>
     </row>
     <row r="144" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q144" s="5">
@@ -6370,10 +8230,22 @@
       <c r="R144" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="S144" s="35"/>
-      <c r="T144" s="35"/>
-      <c r="U144" s="35"/>
-      <c r="V144" s="8"/>
+      <c r="S144" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>J</v>
+      </c>
+      <c r="T144" s="34">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="U144" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Schmitt</v>
+      </c>
+      <c r="V144" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>J.Schmitt@standardco.com.au</v>
+      </c>
     </row>
     <row r="145" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q145" s="5">
@@ -6382,10 +8254,22 @@
       <c r="R145" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="S145" s="35"/>
-      <c r="T145" s="35"/>
-      <c r="U145" s="35"/>
-      <c r="V145" s="8"/>
+      <c r="S145" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>A</v>
+      </c>
+      <c r="T145" s="34">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="U145" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Hayes</v>
+      </c>
+      <c r="V145" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>A.Hayes@standardco.com.au</v>
+      </c>
     </row>
     <row r="146" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q146" s="5">
@@ -6394,10 +8278,22 @@
       <c r="R146" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="S146" s="35"/>
-      <c r="T146" s="35"/>
-      <c r="U146" s="35"/>
-      <c r="V146" s="8"/>
+      <c r="S146" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>V</v>
+      </c>
+      <c r="T146" s="34">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="U146" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Escobar</v>
+      </c>
+      <c r="V146" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>V.Escobar@standardco.com.au</v>
+      </c>
     </row>
     <row r="147" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q147" s="5">
@@ -6406,10 +8302,22 @@
       <c r="R147" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="S147" s="35"/>
-      <c r="T147" s="35"/>
-      <c r="U147" s="35"/>
-      <c r="V147" s="8"/>
+      <c r="S147" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>H</v>
+      </c>
+      <c r="T147" s="34">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="U147" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Solis</v>
+      </c>
+      <c r="V147" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>H.Solis@standardco.com.au</v>
+      </c>
     </row>
     <row r="148" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q148" s="5">
@@ -6418,10 +8326,22 @@
       <c r="R148" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="S148" s="35"/>
-      <c r="T148" s="35"/>
-      <c r="U148" s="35"/>
-      <c r="V148" s="8"/>
+      <c r="S148" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>K</v>
+      </c>
+      <c r="T148" s="34">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="U148" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Patrick</v>
+      </c>
+      <c r="V148" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>K.Patrick@standardco.com.au</v>
+      </c>
     </row>
     <row r="149" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q149" s="5">
@@ -6430,10 +8350,22 @@
       <c r="R149" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="S149" s="35"/>
-      <c r="T149" s="35"/>
-      <c r="U149" s="35"/>
-      <c r="V149" s="8"/>
+      <c r="S149" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>R</v>
+      </c>
+      <c r="T149" s="34">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="U149" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Gaines</v>
+      </c>
+      <c r="V149" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>R.Gaines@standardco.com.au</v>
+      </c>
     </row>
     <row r="150" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q150" s="5">
@@ -6442,10 +8374,22 @@
       <c r="R150" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="S150" s="35"/>
-      <c r="T150" s="35"/>
-      <c r="U150" s="35"/>
-      <c r="V150" s="8"/>
+      <c r="S150" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>S</v>
+      </c>
+      <c r="T150" s="34">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="U150" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Strong</v>
+      </c>
+      <c r="V150" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>S.Strong@standardco.com.au</v>
+      </c>
     </row>
     <row r="151" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q151" s="5">
@@ -6454,10 +8398,22 @@
       <c r="R151" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="S151" s="35"/>
-      <c r="T151" s="35"/>
-      <c r="U151" s="35"/>
-      <c r="V151" s="8"/>
+      <c r="S151" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>F</v>
+      </c>
+      <c r="T151" s="34">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="U151" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Ortega</v>
+      </c>
+      <c r="V151" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>F.Ortega@standardco.com.au</v>
+      </c>
     </row>
     <row r="152" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q152" s="5">
@@ -6466,10 +8422,22 @@
       <c r="R152" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="S152" s="35"/>
-      <c r="T152" s="35"/>
-      <c r="U152" s="35"/>
-      <c r="V152" s="8"/>
+      <c r="S152" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>J</v>
+      </c>
+      <c r="T152" s="34">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="U152" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Tanner</v>
+      </c>
+      <c r="V152" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>J.Tanner@standardco.com.au</v>
+      </c>
     </row>
     <row r="153" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q153" s="5">
@@ -6478,10 +8446,22 @@
       <c r="R153" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="S153" s="35"/>
-      <c r="T153" s="35"/>
-      <c r="U153" s="35"/>
-      <c r="V153" s="8"/>
+      <c r="S153" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>I</v>
+      </c>
+      <c r="T153" s="34">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="U153" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Powell</v>
+      </c>
+      <c r="V153" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>I.Powell@standardco.com.au</v>
+      </c>
     </row>
     <row r="154" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q154" s="5">
@@ -6490,10 +8470,22 @@
       <c r="R154" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="S154" s="35"/>
-      <c r="T154" s="35"/>
-      <c r="U154" s="35"/>
-      <c r="V154" s="8"/>
+      <c r="S154" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>M</v>
+      </c>
+      <c r="T154" s="34">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="U154" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Osborn</v>
+      </c>
+      <c r="V154" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>M.Osborn@standardco.com.au</v>
+      </c>
     </row>
     <row r="155" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q155" s="5">
@@ -6502,10 +8494,22 @@
       <c r="R155" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="S155" s="35"/>
-      <c r="T155" s="35"/>
-      <c r="U155" s="35"/>
-      <c r="V155" s="8"/>
+      <c r="S155" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>M</v>
+      </c>
+      <c r="T155" s="34">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="U155" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Knight</v>
+      </c>
+      <c r="V155" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>M.Knight@standardco.com.au</v>
+      </c>
     </row>
     <row r="156" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q156" s="5">
@@ -6514,10 +8518,22 @@
       <c r="R156" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="S156" s="35"/>
-      <c r="T156" s="35"/>
-      <c r="U156" s="35"/>
-      <c r="V156" s="8"/>
+      <c r="S156" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>B</v>
+      </c>
+      <c r="T156" s="34">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="U156" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Lane</v>
+      </c>
+      <c r="V156" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>B.Lane@standardco.com.au</v>
+      </c>
     </row>
     <row r="157" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q157" s="5">
@@ -6526,10 +8542,22 @@
       <c r="R157" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="S157" s="35"/>
-      <c r="T157" s="35"/>
-      <c r="U157" s="35"/>
-      <c r="V157" s="8"/>
+      <c r="S157" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>S</v>
+      </c>
+      <c r="T157" s="34">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="U157" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Larson</v>
+      </c>
+      <c r="V157" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>S.Larson@standardco.com.au</v>
+      </c>
     </row>
     <row r="158" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q158" s="5">
@@ -6538,10 +8566,22 @@
       <c r="R158" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="S158" s="35"/>
-      <c r="T158" s="35"/>
-      <c r="U158" s="35"/>
-      <c r="V158" s="8"/>
+      <c r="S158" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>X</v>
+      </c>
+      <c r="T158" s="34">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="U158" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Guzman</v>
+      </c>
+      <c r="V158" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>X.Guzman@standardco.com.au</v>
+      </c>
     </row>
     <row r="159" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q159" s="5">
@@ -6550,10 +8590,22 @@
       <c r="R159" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="S159" s="35"/>
-      <c r="T159" s="35"/>
-      <c r="U159" s="35"/>
-      <c r="V159" s="8"/>
+      <c r="S159" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>J</v>
+      </c>
+      <c r="T159" s="34">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="U159" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Fitzpatric</v>
+      </c>
+      <c r="V159" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>J.Fitzpatric@standardco.com.au</v>
+      </c>
     </row>
     <row r="160" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q160" s="5">
@@ -6562,10 +8614,22 @@
       <c r="R160" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="S160" s="35"/>
-      <c r="T160" s="35"/>
-      <c r="U160" s="35"/>
-      <c r="V160" s="8"/>
+      <c r="S160" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>S</v>
+      </c>
+      <c r="T160" s="34">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="U160" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Armstrong</v>
+      </c>
+      <c r="V160" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>S.Armstrong@standardco.com.au</v>
+      </c>
     </row>
     <row r="161" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q161" s="5">
@@ -6574,10 +8638,22 @@
       <c r="R161" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="S161" s="35"/>
-      <c r="T161" s="35"/>
-      <c r="U161" s="35"/>
-      <c r="V161" s="8"/>
+      <c r="S161" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>R</v>
+      </c>
+      <c r="T161" s="34">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="U161" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Estrada</v>
+      </c>
+      <c r="V161" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>R.Estrada@standardco.com.au</v>
+      </c>
     </row>
     <row r="162" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q162" s="5">
@@ -6586,10 +8662,22 @@
       <c r="R162" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="S162" s="35"/>
-      <c r="T162" s="35"/>
-      <c r="U162" s="35"/>
-      <c r="V162" s="8"/>
+      <c r="S162" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>J</v>
+      </c>
+      <c r="T162" s="34">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="U162" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Rodgers</v>
+      </c>
+      <c r="V162" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>J.Rodgers@standardco.com.au</v>
+      </c>
     </row>
     <row r="163" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q163" s="5">
@@ -6598,10 +8686,22 @@
       <c r="R163" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="S163" s="35"/>
-      <c r="T163" s="35"/>
-      <c r="U163" s="35"/>
-      <c r="V163" s="8"/>
+      <c r="S163" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>D</v>
+      </c>
+      <c r="T163" s="34">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="U163" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Hutchinson</v>
+      </c>
+      <c r="V163" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>D.Hutchinson@standardco.com.au</v>
+      </c>
     </row>
     <row r="164" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q164" s="5">
@@ -6610,10 +8710,22 @@
       <c r="R164" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="S164" s="35"/>
-      <c r="T164" s="35"/>
-      <c r="U164" s="35"/>
-      <c r="V164" s="8"/>
+      <c r="S164" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>C</v>
+      </c>
+      <c r="T164" s="34">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="U164" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Ballard</v>
+      </c>
+      <c r="V164" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>C.Ballard@standardco.com.au</v>
+      </c>
     </row>
     <row r="165" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q165" s="5">
@@ -6622,10 +8734,22 @@
       <c r="R165" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="S165" s="35"/>
-      <c r="T165" s="35"/>
-      <c r="U165" s="35"/>
-      <c r="V165" s="8"/>
+      <c r="S165" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>S</v>
+      </c>
+      <c r="T165" s="34">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="U165" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Dominguez</v>
+      </c>
+      <c r="V165" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>S.Dominguez@standardco.com.au</v>
+      </c>
     </row>
     <row r="166" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q166" s="5">
@@ -6634,10 +8758,22 @@
       <c r="R166" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="S166" s="35"/>
-      <c r="T166" s="35"/>
-      <c r="U166" s="35"/>
-      <c r="V166" s="8"/>
+      <c r="S166" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>A</v>
+      </c>
+      <c r="T166" s="34">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="U166" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Ramos</v>
+      </c>
+      <c r="V166" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>A.Ramos@standardco.com.au</v>
+      </c>
     </row>
     <row r="167" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q167" s="5">
@@ -6646,10 +8782,22 @@
       <c r="R167" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="S167" s="35"/>
-      <c r="T167" s="35"/>
-      <c r="U167" s="35"/>
-      <c r="V167" s="8"/>
+      <c r="S167" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>J</v>
+      </c>
+      <c r="T167" s="34">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="U167" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Levy</v>
+      </c>
+      <c r="V167" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>J.Levy@standardco.com.au</v>
+      </c>
     </row>
     <row r="168" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q168" s="5">
@@ -6658,10 +8806,22 @@
       <c r="R168" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="S168" s="35"/>
-      <c r="T168" s="35"/>
-      <c r="U168" s="35"/>
-      <c r="V168" s="8"/>
+      <c r="S168" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>G</v>
+      </c>
+      <c r="T168" s="34">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="U168" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Roach</v>
+      </c>
+      <c r="V168" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>G.Roach@standardco.com.au</v>
+      </c>
     </row>
     <row r="169" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q169" s="5">
@@ -6670,10 +8830,22 @@
       <c r="R169" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="S169" s="35"/>
-      <c r="T169" s="35"/>
-      <c r="U169" s="35"/>
-      <c r="V169" s="8"/>
+      <c r="S169" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>R</v>
+      </c>
+      <c r="T169" s="34">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="U169" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Rivera</v>
+      </c>
+      <c r="V169" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>R.Rivera@standardco.com.au</v>
+      </c>
     </row>
     <row r="170" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q170" s="5">
@@ -6682,10 +8854,22 @@
       <c r="R170" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="S170" s="35"/>
-      <c r="T170" s="35"/>
-      <c r="U170" s="35"/>
-      <c r="V170" s="8"/>
+      <c r="S170" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>K</v>
+      </c>
+      <c r="T170" s="34">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="U170" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Ellis</v>
+      </c>
+      <c r="V170" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>K.Ellis@standardco.com.au</v>
+      </c>
     </row>
     <row r="171" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q171" s="5">
@@ -6694,10 +8878,22 @@
       <c r="R171" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="S171" s="35"/>
-      <c r="T171" s="35"/>
-      <c r="U171" s="35"/>
-      <c r="V171" s="8"/>
+      <c r="S171" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>M</v>
+      </c>
+      <c r="T171" s="34">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="U171" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Larsen</v>
+      </c>
+      <c r="V171" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>M.Larsen@standardco.com.au</v>
+      </c>
     </row>
     <row r="172" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q172" s="5">
@@ -6706,10 +8902,22 @@
       <c r="R172" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="S172" s="35"/>
-      <c r="T172" s="35"/>
-      <c r="U172" s="35"/>
-      <c r="V172" s="8"/>
+      <c r="S172" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>L</v>
+      </c>
+      <c r="T172" s="34">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="U172" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>House</v>
+      </c>
+      <c r="V172" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>L.House@standardco.com.au</v>
+      </c>
     </row>
     <row r="173" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q173" s="5">
@@ -6718,10 +8926,22 @@
       <c r="R173" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="S173" s="35"/>
-      <c r="T173" s="35"/>
-      <c r="U173" s="35"/>
-      <c r="V173" s="8"/>
+      <c r="S173" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>B</v>
+      </c>
+      <c r="T173" s="34">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="U173" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Zhang</v>
+      </c>
+      <c r="V173" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>B.Zhang@standardco.com.au</v>
+      </c>
     </row>
     <row r="174" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q174" s="5">
@@ -6730,10 +8950,22 @@
       <c r="R174" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="S174" s="35"/>
-      <c r="T174" s="35"/>
-      <c r="U174" s="35"/>
-      <c r="V174" s="8"/>
+      <c r="S174" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>M</v>
+      </c>
+      <c r="T174" s="34">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="U174" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Wilson</v>
+      </c>
+      <c r="V174" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>M.Wilson@standardco.com.au</v>
+      </c>
     </row>
     <row r="175" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q175" s="5">
@@ -6742,10 +8974,22 @@
       <c r="R175" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="S175" s="35"/>
-      <c r="T175" s="35"/>
-      <c r="U175" s="35"/>
-      <c r="V175" s="8"/>
+      <c r="S175" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>E</v>
+      </c>
+      <c r="T175" s="34">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="U175" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Pierce</v>
+      </c>
+      <c r="V175" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>E.Pierce@standardco.com.au</v>
+      </c>
     </row>
     <row r="176" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q176" s="5">
@@ -6754,10 +8998,22 @@
       <c r="R176" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="S176" s="35"/>
-      <c r="T176" s="35"/>
-      <c r="U176" s="35"/>
-      <c r="V176" s="8"/>
+      <c r="S176" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>F</v>
+      </c>
+      <c r="T176" s="34">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="U176" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Glover</v>
+      </c>
+      <c r="V176" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>F.Glover@standardco.com.au</v>
+      </c>
     </row>
     <row r="177" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q177" s="5">
@@ -6766,10 +9022,22 @@
       <c r="R177" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="S177" s="35"/>
-      <c r="T177" s="35"/>
-      <c r="U177" s="35"/>
-      <c r="V177" s="8"/>
+      <c r="S177" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>B</v>
+      </c>
+      <c r="T177" s="34">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="U177" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Mccarthy</v>
+      </c>
+      <c r="V177" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>B.Mccarthy@standardco.com.au</v>
+      </c>
     </row>
     <row r="178" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q178" s="5">
@@ -6778,10 +9046,22 @@
       <c r="R178" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="S178" s="35"/>
-      <c r="T178" s="35"/>
-      <c r="U178" s="35"/>
-      <c r="V178" s="8"/>
+      <c r="S178" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>J</v>
+      </c>
+      <c r="T178" s="34">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="U178" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Andrews</v>
+      </c>
+      <c r="V178" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>J.Andrews@standardco.com.au</v>
+      </c>
     </row>
     <row r="179" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q179" s="5">
@@ -6790,10 +9070,22 @@
       <c r="R179" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="S179" s="35"/>
-      <c r="T179" s="35"/>
-      <c r="U179" s="35"/>
-      <c r="V179" s="8"/>
+      <c r="S179" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>A</v>
+      </c>
+      <c r="T179" s="34">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="U179" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Cantu</v>
+      </c>
+      <c r="V179" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>A.Cantu@standardco.com.au</v>
+      </c>
     </row>
     <row r="180" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q180" s="5">
@@ -6802,10 +9094,22 @@
       <c r="R180" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="S180" s="35"/>
-      <c r="T180" s="35"/>
-      <c r="U180" s="35"/>
-      <c r="V180" s="8"/>
+      <c r="S180" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>P</v>
+      </c>
+      <c r="T180" s="34">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="U180" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Moreno</v>
+      </c>
+      <c r="V180" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>P.Moreno@standardco.com.au</v>
+      </c>
     </row>
     <row r="181" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q181" s="5">
@@ -6814,10 +9118,22 @@
       <c r="R181" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="S181" s="35"/>
-      <c r="T181" s="35"/>
-      <c r="U181" s="35"/>
-      <c r="V181" s="8"/>
+      <c r="S181" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>D</v>
+      </c>
+      <c r="T181" s="34">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="U181" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Whitney</v>
+      </c>
+      <c r="V181" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>D.Whitney@standardco.com.au</v>
+      </c>
     </row>
     <row r="182" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q182" s="5">
@@ -6826,10 +9142,22 @@
       <c r="R182" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="S182" s="35"/>
-      <c r="T182" s="35"/>
-      <c r="U182" s="35"/>
-      <c r="V182" s="8"/>
+      <c r="S182" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>C</v>
+      </c>
+      <c r="T182" s="34">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="U182" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Nicholson</v>
+      </c>
+      <c r="V182" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>C.Nicholson@standardco.com.au</v>
+      </c>
     </row>
     <row r="183" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q183" s="5">
@@ -6838,10 +9166,22 @@
       <c r="R183" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="S183" s="35"/>
-      <c r="T183" s="35"/>
-      <c r="U183" s="35"/>
-      <c r="V183" s="8"/>
+      <c r="S183" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>P</v>
+      </c>
+      <c r="T183" s="34">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="U183" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Benjamin</v>
+      </c>
+      <c r="V183" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>P.Benjamin@standardco.com.au</v>
+      </c>
     </row>
     <row r="184" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q184" s="5">
@@ -6850,10 +9190,22 @@
       <c r="R184" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="S184" s="35"/>
-      <c r="T184" s="35"/>
-      <c r="U184" s="35"/>
-      <c r="V184" s="8"/>
+      <c r="S184" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>A</v>
+      </c>
+      <c r="T184" s="34">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="U184" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Rice</v>
+      </c>
+      <c r="V184" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>A.Rice@standardco.com.au</v>
+      </c>
     </row>
     <row r="185" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q185" s="5">
@@ -6862,10 +9214,22 @@
       <c r="R185" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="S185" s="35"/>
-      <c r="T185" s="35"/>
-      <c r="U185" s="35"/>
-      <c r="V185" s="8"/>
+      <c r="S185" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>A</v>
+      </c>
+      <c r="T185" s="34">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="U185" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Baxter</v>
+      </c>
+      <c r="V185" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>A.Baxter@standardco.com.au</v>
+      </c>
     </row>
     <row r="186" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q186" s="5">
@@ -6874,10 +9238,22 @@
       <c r="R186" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="S186" s="35"/>
-      <c r="T186" s="35"/>
-      <c r="U186" s="35"/>
-      <c r="V186" s="8"/>
+      <c r="S186" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>L</v>
+      </c>
+      <c r="T186" s="34">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="U186" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Beltran</v>
+      </c>
+      <c r="V186" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>L.Beltran@standardco.com.au</v>
+      </c>
     </row>
     <row r="187" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q187" s="5">
@@ -6886,10 +9262,22 @@
       <c r="R187" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="S187" s="35"/>
-      <c r="T187" s="35"/>
-      <c r="U187" s="35"/>
-      <c r="V187" s="8"/>
+      <c r="S187" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>T</v>
+      </c>
+      <c r="T187" s="34">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="U187" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Warner</v>
+      </c>
+      <c r="V187" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>T.Warner@standardco.com.au</v>
+      </c>
     </row>
     <row r="188" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q188" s="5">
@@ -6898,10 +9286,22 @@
       <c r="R188" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="S188" s="35"/>
-      <c r="T188" s="35"/>
-      <c r="U188" s="35"/>
-      <c r="V188" s="8"/>
+      <c r="S188" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>T</v>
+      </c>
+      <c r="T188" s="34">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="U188" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Bernard</v>
+      </c>
+      <c r="V188" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>T.Bernard@standardco.com.au</v>
+      </c>
     </row>
     <row r="189" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q189" s="5">
@@ -6910,10 +9310,22 @@
       <c r="R189" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="S189" s="35"/>
-      <c r="T189" s="35"/>
-      <c r="U189" s="35"/>
-      <c r="V189" s="8"/>
+      <c r="S189" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>M</v>
+      </c>
+      <c r="T189" s="34">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="U189" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Potter</v>
+      </c>
+      <c r="V189" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>M.Potter@standardco.com.au</v>
+      </c>
     </row>
     <row r="190" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q190" s="5">
@@ -6922,10 +9334,22 @@
       <c r="R190" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="S190" s="35"/>
-      <c r="T190" s="35"/>
-      <c r="U190" s="35"/>
-      <c r="V190" s="8"/>
+      <c r="S190" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>S</v>
+      </c>
+      <c r="T190" s="34">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="U190" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Lowery</v>
+      </c>
+      <c r="V190" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>S.Lowery@standardco.com.au</v>
+      </c>
     </row>
     <row r="191" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q191" s="5">
@@ -6934,10 +9358,22 @@
       <c r="R191" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="S191" s="35"/>
-      <c r="T191" s="35"/>
-      <c r="U191" s="35"/>
-      <c r="V191" s="8"/>
+      <c r="S191" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>J</v>
+      </c>
+      <c r="T191" s="34">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="U191" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Nelson</v>
+      </c>
+      <c r="V191" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>J.Nelson@standardco.com.au</v>
+      </c>
     </row>
     <row r="192" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q192" s="5">
@@ -6946,10 +9382,22 @@
       <c r="R192" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="S192" s="35"/>
-      <c r="T192" s="35"/>
-      <c r="U192" s="35"/>
-      <c r="V192" s="8"/>
+      <c r="S192" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>P</v>
+      </c>
+      <c r="T192" s="34">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="U192" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Bennett</v>
+      </c>
+      <c r="V192" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>P.Bennett@standardco.com.au</v>
+      </c>
     </row>
     <row r="193" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q193" s="5">
@@ -6958,10 +9406,22 @@
       <c r="R193" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="S193" s="35"/>
-      <c r="T193" s="35"/>
-      <c r="U193" s="35"/>
-      <c r="V193" s="8"/>
+      <c r="S193" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>L</v>
+      </c>
+      <c r="T193" s="34">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="U193" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Nolan</v>
+      </c>
+      <c r="V193" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>L.Nolan@standardco.com.au</v>
+      </c>
     </row>
     <row r="194" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q194" s="5">
@@ -6970,10 +9430,22 @@
       <c r="R194" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="S194" s="35"/>
-      <c r="T194" s="35"/>
-      <c r="U194" s="35"/>
-      <c r="V194" s="8"/>
+      <c r="S194" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>I</v>
+      </c>
+      <c r="T194" s="34">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="U194" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Adams</v>
+      </c>
+      <c r="V194" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>I.Adams@standardco.com.au</v>
+      </c>
     </row>
     <row r="195" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q195" s="5">
@@ -6982,10 +9454,22 @@
       <c r="R195" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="S195" s="35"/>
-      <c r="T195" s="35"/>
-      <c r="U195" s="35"/>
-      <c r="V195" s="8"/>
+      <c r="S195" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>D</v>
+      </c>
+      <c r="T195" s="34">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="U195" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Pope</v>
+      </c>
+      <c r="V195" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>D.Pope@standardco.com.au</v>
+      </c>
     </row>
     <row r="196" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q196" s="5">
@@ -6994,10 +9478,22 @@
       <c r="R196" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="S196" s="35"/>
-      <c r="T196" s="35"/>
-      <c r="U196" s="35"/>
-      <c r="V196" s="8"/>
+      <c r="S196" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>O</v>
+      </c>
+      <c r="T196" s="34">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="U196" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Gentry</v>
+      </c>
+      <c r="V196" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>O.Gentry@standardco.com.au</v>
+      </c>
     </row>
     <row r="197" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q197" s="5">
@@ -7006,10 +9502,22 @@
       <c r="R197" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="S197" s="35"/>
-      <c r="T197" s="35"/>
-      <c r="U197" s="35"/>
-      <c r="V197" s="8"/>
+      <c r="S197" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>B</v>
+      </c>
+      <c r="T197" s="34">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="U197" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>Mcdaniel</v>
+      </c>
+      <c r="V197" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>B.Mcdaniel@standardco.com.au</v>
+      </c>
     </row>
     <row r="198" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q198" s="5">
@@ -7018,10 +9526,22 @@
       <c r="R198" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="S198" s="35"/>
-      <c r="T198" s="35"/>
-      <c r="U198" s="35"/>
-      <c r="V198" s="8"/>
+      <c r="S198" s="34" t="str">
+        <f t="shared" ref="S198:S254" si="16">LEFT(R198,1)</f>
+        <v>D</v>
+      </c>
+      <c r="T198" s="34">
+        <f t="shared" ref="T198:T254" si="17">FIND(" ",R198)+1</f>
+        <v>8</v>
+      </c>
+      <c r="U198" s="34" t="str">
+        <f t="shared" ref="U198:U254" si="18">MID(R198,T198,LEN(R198))</f>
+        <v>Cameron</v>
+      </c>
+      <c r="V198" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>D.Cameron@standardco.com.au</v>
+      </c>
     </row>
     <row r="199" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q199" s="5">
@@ -7030,10 +9550,22 @@
       <c r="R199" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="S199" s="35"/>
-      <c r="T199" s="35"/>
-      <c r="U199" s="35"/>
-      <c r="V199" s="8"/>
+      <c r="S199" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>L</v>
+      </c>
+      <c r="T199" s="34">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="U199" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Welch</v>
+      </c>
+      <c r="V199" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>L.Welch@standardco.com.au</v>
+      </c>
     </row>
     <row r="200" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q200" s="5">
@@ -7042,10 +9574,22 @@
       <c r="R200" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="S200" s="35"/>
-      <c r="T200" s="35"/>
-      <c r="U200" s="35"/>
-      <c r="V200" s="8"/>
+      <c r="S200" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>L</v>
+      </c>
+      <c r="T200" s="34">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="U200" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Villarreal</v>
+      </c>
+      <c r="V200" s="8" t="str">
+        <f t="shared" si="15"/>
+        <v>L.Villarreal@standardco.com.au</v>
+      </c>
     </row>
     <row r="201" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q201" s="5">
@@ -7054,10 +9598,22 @@
       <c r="R201" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="S201" s="35"/>
-      <c r="T201" s="35"/>
-      <c r="U201" s="35"/>
-      <c r="V201" s="8"/>
+      <c r="S201" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>S</v>
+      </c>
+      <c r="T201" s="34">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="U201" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Leonard</v>
+      </c>
+      <c r="V201" s="8" t="str">
+        <f t="shared" ref="V201:V254" si="19">_xlfn.CONCAT(S201,".",U201,"@standardco.com.au")</f>
+        <v>S.Leonard@standardco.com.au</v>
+      </c>
     </row>
     <row r="202" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q202" s="5">
@@ -7066,10 +9622,22 @@
       <c r="R202" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="S202" s="35"/>
-      <c r="T202" s="35"/>
-      <c r="U202" s="35"/>
-      <c r="V202" s="8"/>
+      <c r="S202" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>S</v>
+      </c>
+      <c r="T202" s="34">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="U202" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Holmes</v>
+      </c>
+      <c r="V202" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>S.Holmes@standardco.com.au</v>
+      </c>
     </row>
     <row r="203" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q203" s="5">
@@ -7078,10 +9646,22 @@
       <c r="R203" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="S203" s="35"/>
-      <c r="T203" s="35"/>
-      <c r="U203" s="35"/>
-      <c r="V203" s="8"/>
+      <c r="S203" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>D</v>
+      </c>
+      <c r="T203" s="34">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="U203" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Horne</v>
+      </c>
+      <c r="V203" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>D.Horne@standardco.com.au</v>
+      </c>
     </row>
     <row r="204" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q204" s="5">
@@ -7090,10 +9670,22 @@
       <c r="R204" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="S204" s="35"/>
-      <c r="T204" s="35"/>
-      <c r="U204" s="35"/>
-      <c r="V204" s="8"/>
+      <c r="S204" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>H</v>
+      </c>
+      <c r="T204" s="34">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="U204" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Odom</v>
+      </c>
+      <c r="V204" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>H.Odom@standardco.com.au</v>
+      </c>
     </row>
     <row r="205" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q205" s="5">
@@ -7102,10 +9694,22 @@
       <c r="R205" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="S205" s="35"/>
-      <c r="T205" s="35"/>
-      <c r="U205" s="35"/>
-      <c r="V205" s="8"/>
+      <c r="S205" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>N</v>
+      </c>
+      <c r="T205" s="34">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="U205" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Richards</v>
+      </c>
+      <c r="V205" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>N.Richards@standardco.com.au</v>
+      </c>
     </row>
     <row r="206" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q206" s="5">
@@ -7114,10 +9718,22 @@
       <c r="R206" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="S206" s="35"/>
-      <c r="T206" s="35"/>
-      <c r="U206" s="35"/>
-      <c r="V206" s="8"/>
+      <c r="S206" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>E</v>
+      </c>
+      <c r="T206" s="34">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="U206" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Riley</v>
+      </c>
+      <c r="V206" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>E.Riley@standardco.com.au</v>
+      </c>
     </row>
     <row r="207" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q207" s="5">
@@ -7126,10 +9742,22 @@
       <c r="R207" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="S207" s="35"/>
-      <c r="T207" s="35"/>
-      <c r="U207" s="35"/>
-      <c r="V207" s="8"/>
+      <c r="S207" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>A</v>
+      </c>
+      <c r="T207" s="34">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="U207" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Herman</v>
+      </c>
+      <c r="V207" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>A.Herman@standardco.com.au</v>
+      </c>
     </row>
     <row r="208" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q208" s="5">
@@ -7138,10 +9766,22 @@
       <c r="R208" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="S208" s="35"/>
-      <c r="T208" s="35"/>
-      <c r="U208" s="35"/>
-      <c r="V208" s="8"/>
+      <c r="S208" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>B</v>
+      </c>
+      <c r="T208" s="34">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="U208" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Mccall</v>
+      </c>
+      <c r="V208" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>B.Mccall@standardco.com.au</v>
+      </c>
     </row>
     <row r="209" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q209" s="5">
@@ -7150,10 +9790,22 @@
       <c r="R209" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="S209" s="35"/>
-      <c r="T209" s="35"/>
-      <c r="U209" s="35"/>
-      <c r="V209" s="8"/>
+      <c r="S209" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>A</v>
+      </c>
+      <c r="T209" s="34">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="U209" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Vang</v>
+      </c>
+      <c r="V209" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>A.Vang@standardco.com.au</v>
+      </c>
     </row>
     <row r="210" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q210" s="5">
@@ -7162,10 +9814,22 @@
       <c r="R210" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="S210" s="35"/>
-      <c r="T210" s="35"/>
-      <c r="U210" s="35"/>
-      <c r="V210" s="8"/>
+      <c r="S210" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>J</v>
+      </c>
+      <c r="T210" s="34">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="U210" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Sweeney</v>
+      </c>
+      <c r="V210" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>J.Sweeney@standardco.com.au</v>
+      </c>
     </row>
     <row r="211" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q211" s="5">
@@ -7174,10 +9838,22 @@
       <c r="R211" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="S211" s="35"/>
-      <c r="T211" s="35"/>
-      <c r="U211" s="35"/>
-      <c r="V211" s="8"/>
+      <c r="S211" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>J</v>
+      </c>
+      <c r="T211" s="34">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="U211" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Rosales</v>
+      </c>
+      <c r="V211" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>J.Rosales@standardco.com.au</v>
+      </c>
     </row>
     <row r="212" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q212" s="5">
@@ -7186,10 +9862,22 @@
       <c r="R212" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="S212" s="35"/>
-      <c r="T212" s="35"/>
-      <c r="U212" s="35"/>
-      <c r="V212" s="8"/>
+      <c r="S212" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>J</v>
+      </c>
+      <c r="T212" s="34">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="U212" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Sanchez</v>
+      </c>
+      <c r="V212" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>J.Sanchez@standardco.com.au</v>
+      </c>
     </row>
     <row r="213" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q213" s="5">
@@ -7198,10 +9886,22 @@
       <c r="R213" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="S213" s="35"/>
-      <c r="T213" s="35"/>
-      <c r="U213" s="35"/>
-      <c r="V213" s="8"/>
+      <c r="S213" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>K</v>
+      </c>
+      <c r="T213" s="34">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="U213" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Conrad</v>
+      </c>
+      <c r="V213" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>K.Conrad@standardco.com.au</v>
+      </c>
     </row>
     <row r="214" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q214" s="5">
@@ -7210,10 +9910,22 @@
       <c r="R214" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="S214" s="35"/>
-      <c r="T214" s="35"/>
-      <c r="U214" s="35"/>
-      <c r="V214" s="8"/>
+      <c r="S214" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>R</v>
+      </c>
+      <c r="T214" s="34">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="U214" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Tapia</v>
+      </c>
+      <c r="V214" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>R.Tapia@standardco.com.au</v>
+      </c>
     </row>
     <row r="215" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q215" s="5">
@@ -7222,10 +9934,22 @@
       <c r="R215" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="S215" s="35"/>
-      <c r="T215" s="35"/>
-      <c r="U215" s="35"/>
-      <c r="V215" s="8"/>
+      <c r="S215" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>S</v>
+      </c>
+      <c r="T215" s="34">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="U215" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Ray</v>
+      </c>
+      <c r="V215" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>S.Ray@standardco.com.au</v>
+      </c>
     </row>
     <row r="216" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q216" s="5">
@@ -7234,10 +9958,22 @@
       <c r="R216" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="S216" s="35"/>
-      <c r="T216" s="35"/>
-      <c r="U216" s="35"/>
-      <c r="V216" s="8"/>
+      <c r="S216" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>K</v>
+      </c>
+      <c r="T216" s="34">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="U216" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Higgins</v>
+      </c>
+      <c r="V216" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>K.Higgins@standardco.com.au</v>
+      </c>
     </row>
     <row r="217" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q217" s="5">
@@ -7246,10 +9982,22 @@
       <c r="R217" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="S217" s="35"/>
-      <c r="T217" s="35"/>
-      <c r="U217" s="35"/>
-      <c r="V217" s="8"/>
+      <c r="S217" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>S</v>
+      </c>
+      <c r="T217" s="34">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="U217" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Mcintosh</v>
+      </c>
+      <c r="V217" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>S.Mcintosh@standardco.com.au</v>
+      </c>
     </row>
     <row r="218" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q218" s="5">
@@ -7258,10 +10006,22 @@
       <c r="R218" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="S218" s="35"/>
-      <c r="T218" s="35"/>
-      <c r="U218" s="35"/>
-      <c r="V218" s="8"/>
+      <c r="S218" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>F</v>
+      </c>
+      <c r="T218" s="34">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="U218" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>David</v>
+      </c>
+      <c r="V218" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>F.David@standardco.com.au</v>
+      </c>
     </row>
     <row r="219" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q219" s="5">
@@ -7270,10 +10030,22 @@
       <c r="R219" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="S219" s="35"/>
-      <c r="T219" s="35"/>
-      <c r="U219" s="35"/>
-      <c r="V219" s="8"/>
+      <c r="S219" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>H</v>
+      </c>
+      <c r="T219" s="34">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="U219" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Shepherd</v>
+      </c>
+      <c r="V219" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>H.Shepherd@standardco.com.au</v>
+      </c>
     </row>
     <row r="220" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q220" s="5">
@@ -7282,10 +10054,22 @@
       <c r="R220" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="S220" s="35"/>
-      <c r="T220" s="35"/>
-      <c r="U220" s="35"/>
-      <c r="V220" s="8"/>
+      <c r="S220" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>T</v>
+      </c>
+      <c r="T220" s="34">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="U220" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Nash</v>
+      </c>
+      <c r="V220" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>T.Nash@standardco.com.au</v>
+      </c>
     </row>
     <row r="221" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q221" s="5">
@@ -7294,10 +10078,22 @@
       <c r="R221" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="S221" s="35"/>
-      <c r="T221" s="35"/>
-      <c r="U221" s="35"/>
-      <c r="V221" s="8"/>
+      <c r="S221" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>A</v>
+      </c>
+      <c r="T221" s="34">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="U221" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Alexander</v>
+      </c>
+      <c r="V221" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>A.Alexander@standardco.com.au</v>
+      </c>
     </row>
     <row r="222" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q222" s="5">
@@ -7306,10 +10102,22 @@
       <c r="R222" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="S222" s="35"/>
-      <c r="T222" s="35"/>
-      <c r="U222" s="35"/>
-      <c r="V222" s="8"/>
+      <c r="S222" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>M</v>
+      </c>
+      <c r="T222" s="34">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="U222" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Petersen</v>
+      </c>
+      <c r="V222" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>M.Petersen@standardco.com.au</v>
+      </c>
     </row>
     <row r="223" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q223" s="5">
@@ -7318,10 +10126,22 @@
       <c r="R223" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="S223" s="35"/>
-      <c r="T223" s="35"/>
-      <c r="U223" s="35"/>
-      <c r="V223" s="8"/>
+      <c r="S223" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>S</v>
+      </c>
+      <c r="T223" s="34">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="U223" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Kelly</v>
+      </c>
+      <c r="V223" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>S.Kelly@standardco.com.au</v>
+      </c>
     </row>
     <row r="224" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q224" s="5">
@@ -7330,10 +10150,22 @@
       <c r="R224" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="S224" s="35"/>
-      <c r="T224" s="35"/>
-      <c r="U224" s="35"/>
-      <c r="V224" s="8"/>
+      <c r="S224" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>L</v>
+      </c>
+      <c r="T224" s="34">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="U224" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Estes</v>
+      </c>
+      <c r="V224" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>L.Estes@standardco.com.au</v>
+      </c>
     </row>
     <row r="225" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q225" s="5">
@@ -7342,10 +10174,22 @@
       <c r="R225" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="S225" s="35"/>
-      <c r="T225" s="35"/>
-      <c r="U225" s="35"/>
-      <c r="V225" s="8"/>
+      <c r="S225" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>F</v>
+      </c>
+      <c r="T225" s="34">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="U225" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Arroyo</v>
+      </c>
+      <c r="V225" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>F.Arroyo@standardco.com.au</v>
+      </c>
     </row>
     <row r="226" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q226" s="5">
@@ -7354,10 +10198,22 @@
       <c r="R226" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="S226" s="35"/>
-      <c r="T226" s="35"/>
-      <c r="U226" s="35"/>
-      <c r="V226" s="8"/>
+      <c r="S226" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>E</v>
+      </c>
+      <c r="T226" s="34">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="U226" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Branch</v>
+      </c>
+      <c r="V226" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>E.Branch@standardco.com.au</v>
+      </c>
     </row>
     <row r="227" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q227" s="5">
@@ -7366,10 +10222,22 @@
       <c r="R227" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="S227" s="35"/>
-      <c r="T227" s="35"/>
-      <c r="U227" s="35"/>
-      <c r="V227" s="8"/>
+      <c r="S227" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>V</v>
+      </c>
+      <c r="T227" s="34">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="U227" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Hamilton</v>
+      </c>
+      <c r="V227" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>V.Hamilton@standardco.com.au</v>
+      </c>
     </row>
     <row r="228" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q228" s="5">
@@ -7378,10 +10246,22 @@
       <c r="R228" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="S228" s="35"/>
-      <c r="T228" s="35"/>
-      <c r="U228" s="35"/>
-      <c r="V228" s="8"/>
+      <c r="S228" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>L</v>
+      </c>
+      <c r="T228" s="34">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="U228" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Humphrey</v>
+      </c>
+      <c r="V228" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>L.Humphrey@standardco.com.au</v>
+      </c>
     </row>
     <row r="229" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q229" s="5">
@@ -7390,10 +10270,22 @@
       <c r="R229" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="S229" s="35"/>
-      <c r="T229" s="35"/>
-      <c r="U229" s="35"/>
-      <c r="V229" s="8"/>
+      <c r="S229" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>A</v>
+      </c>
+      <c r="T229" s="34">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="U229" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Neal</v>
+      </c>
+      <c r="V229" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>A.Neal@standardco.com.au</v>
+      </c>
     </row>
     <row r="230" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q230" s="5">
@@ -7402,10 +10294,22 @@
       <c r="R230" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="S230" s="35"/>
-      <c r="T230" s="35"/>
-      <c r="U230" s="35"/>
-      <c r="V230" s="8"/>
+      <c r="S230" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>R</v>
+      </c>
+      <c r="T230" s="34">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="U230" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Singleton</v>
+      </c>
+      <c r="V230" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>R.Singleton@standardco.com.au</v>
+      </c>
     </row>
     <row r="231" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q231" s="5">
@@ -7414,10 +10318,22 @@
       <c r="R231" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="S231" s="35"/>
-      <c r="T231" s="35"/>
-      <c r="U231" s="35"/>
-      <c r="V231" s="8"/>
+      <c r="S231" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>D</v>
+      </c>
+      <c r="T231" s="34">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="U231" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Pineda</v>
+      </c>
+      <c r="V231" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>D.Pineda@standardco.com.au</v>
+      </c>
     </row>
     <row r="232" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q232" s="5">
@@ -7426,10 +10342,22 @@
       <c r="R232" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="S232" s="35"/>
-      <c r="T232" s="35"/>
-      <c r="U232" s="35"/>
-      <c r="V232" s="8"/>
+      <c r="S232" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>M</v>
+      </c>
+      <c r="T232" s="34">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="U232" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Deleon</v>
+      </c>
+      <c r="V232" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>M.Deleon@standardco.com.au</v>
+      </c>
     </row>
     <row r="233" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q233" s="5">
@@ -7438,10 +10366,22 @@
       <c r="R233" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="S233" s="35"/>
-      <c r="T233" s="35"/>
-      <c r="U233" s="35"/>
-      <c r="V233" s="8"/>
+      <c r="S233" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>A</v>
+      </c>
+      <c r="T233" s="34">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="U233" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Weiss</v>
+      </c>
+      <c r="V233" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>A.Weiss@standardco.com.au</v>
+      </c>
     </row>
     <row r="234" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q234" s="5">
@@ -7450,10 +10390,22 @@
       <c r="R234" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="S234" s="35"/>
-      <c r="T234" s="35"/>
-      <c r="U234" s="35"/>
-      <c r="V234" s="8"/>
+      <c r="S234" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>N</v>
+      </c>
+      <c r="T234" s="34">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="U234" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Henry</v>
+      </c>
+      <c r="V234" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>N.Henry@standardco.com.au</v>
+      </c>
     </row>
     <row r="235" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q235" s="5">
@@ -7462,10 +10414,22 @@
       <c r="R235" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="S235" s="35"/>
-      <c r="T235" s="35"/>
-      <c r="U235" s="35"/>
-      <c r="V235" s="8"/>
+      <c r="S235" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>O</v>
+      </c>
+      <c r="T235" s="34">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="U235" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Bowman</v>
+      </c>
+      <c r="V235" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>O.Bowman@standardco.com.au</v>
+      </c>
     </row>
     <row r="236" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q236" s="5">
@@ -7474,10 +10438,22 @@
       <c r="R236" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="S236" s="35"/>
-      <c r="T236" s="35"/>
-      <c r="U236" s="35"/>
-      <c r="V236" s="8"/>
+      <c r="S236" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>F</v>
+      </c>
+      <c r="T236" s="34">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="U236" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Burke</v>
+      </c>
+      <c r="V236" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>F.Burke@standardco.com.au</v>
+      </c>
     </row>
     <row r="237" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q237" s="5">
@@ -7486,10 +10462,22 @@
       <c r="R237" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="S237" s="35"/>
-      <c r="T237" s="35"/>
-      <c r="U237" s="35"/>
-      <c r="V237" s="8"/>
+      <c r="S237" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>P</v>
+      </c>
+      <c r="T237" s="34">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="U237" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Werner</v>
+      </c>
+      <c r="V237" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>P.Werner@standardco.com.au</v>
+      </c>
     </row>
     <row r="238" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q238" s="5">
@@ -7498,10 +10486,22 @@
       <c r="R238" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="S238" s="35"/>
-      <c r="T238" s="35"/>
-      <c r="U238" s="35"/>
-      <c r="V238" s="8"/>
+      <c r="S238" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>P</v>
+      </c>
+      <c r="T238" s="34">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="U238" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Garrett</v>
+      </c>
+      <c r="V238" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>P.Garrett@standardco.com.au</v>
+      </c>
     </row>
     <row r="239" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q239" s="5">
@@ -7510,10 +10510,22 @@
       <c r="R239" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="S239" s="35"/>
-      <c r="T239" s="35"/>
-      <c r="U239" s="35"/>
-      <c r="V239" s="8"/>
+      <c r="S239" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>G</v>
+      </c>
+      <c r="T239" s="34">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="U239" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Lynn</v>
+      </c>
+      <c r="V239" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>G.Lynn@standardco.com.au</v>
+      </c>
     </row>
     <row r="240" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q240" s="5">
@@ -7522,10 +10534,22 @@
       <c r="R240" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="S240" s="35"/>
-      <c r="T240" s="35"/>
-      <c r="U240" s="35"/>
-      <c r="V240" s="8"/>
+      <c r="S240" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>G</v>
+      </c>
+      <c r="T240" s="34">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="U240" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Koch</v>
+      </c>
+      <c r="V240" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>G.Koch@standardco.com.au</v>
+      </c>
     </row>
     <row r="241" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q241" s="5">
@@ -7534,10 +10558,22 @@
       <c r="R241" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="S241" s="35"/>
-      <c r="T241" s="35"/>
-      <c r="U241" s="35"/>
-      <c r="V241" s="8"/>
+      <c r="S241" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>L</v>
+      </c>
+      <c r="T241" s="34">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="U241" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Marshall</v>
+      </c>
+      <c r="V241" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>L.Marshall@standardco.com.au</v>
+      </c>
     </row>
     <row r="242" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q242" s="5">
@@ -7546,10 +10582,22 @@
       <c r="R242" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="S242" s="35"/>
-      <c r="T242" s="35"/>
-      <c r="U242" s="35"/>
-      <c r="V242" s="8"/>
+      <c r="S242" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>L</v>
+      </c>
+      <c r="T242" s="34">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="U242" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Herrera</v>
+      </c>
+      <c r="V242" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>L.Herrera@standardco.com.au</v>
+      </c>
     </row>
     <row r="243" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q243" s="5">
@@ -7558,10 +10606,22 @@
       <c r="R243" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="S243" s="35"/>
-      <c r="T243" s="35"/>
-      <c r="U243" s="35"/>
-      <c r="V243" s="8"/>
+      <c r="S243" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>Q</v>
+      </c>
+      <c r="T243" s="34">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="U243" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Phelps</v>
+      </c>
+      <c r="V243" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>Q.Phelps@standardco.com.au</v>
+      </c>
     </row>
     <row r="244" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q244" s="5">
@@ -7570,10 +10630,22 @@
       <c r="R244" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="S244" s="35"/>
-      <c r="T244" s="35"/>
-      <c r="U244" s="35"/>
-      <c r="V244" s="8"/>
+      <c r="S244" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>D</v>
+      </c>
+      <c r="T244" s="34">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="U244" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Vargas</v>
+      </c>
+      <c r="V244" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>D.Vargas@standardco.com.au</v>
+      </c>
     </row>
     <row r="245" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q245" s="5">
@@ -7582,10 +10654,22 @@
       <c r="R245" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="S245" s="35"/>
-      <c r="T245" s="35"/>
-      <c r="U245" s="35"/>
-      <c r="V245" s="8"/>
+      <c r="S245" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>L</v>
+      </c>
+      <c r="T245" s="34">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="U245" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Steele</v>
+      </c>
+      <c r="V245" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>L.Steele@standardco.com.au</v>
+      </c>
     </row>
     <row r="246" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q246" s="5">
@@ -7594,10 +10678,22 @@
       <c r="R246" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="S246" s="35"/>
-      <c r="T246" s="35"/>
-      <c r="U246" s="35"/>
-      <c r="V246" s="8"/>
+      <c r="S246" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>A</v>
+      </c>
+      <c r="T246" s="34">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="U246" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Hall</v>
+      </c>
+      <c r="V246" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>A.Hall@standardco.com.au</v>
+      </c>
     </row>
     <row r="247" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q247" s="5">
@@ -7606,10 +10702,22 @@
       <c r="R247" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="S247" s="35"/>
-      <c r="T247" s="35"/>
-      <c r="U247" s="35"/>
-      <c r="V247" s="8"/>
+      <c r="S247" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>A</v>
+      </c>
+      <c r="T247" s="34">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="U247" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Hoffman</v>
+      </c>
+      <c r="V247" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>A.Hoffman@standardco.com.au</v>
+      </c>
     </row>
     <row r="248" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q248" s="5">
@@ -7618,10 +10726,22 @@
       <c r="R248" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="S248" s="35"/>
-      <c r="T248" s="35"/>
-      <c r="U248" s="35"/>
-      <c r="V248" s="8"/>
+      <c r="S248" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>M</v>
+      </c>
+      <c r="T248" s="34">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="U248" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Russell</v>
+      </c>
+      <c r="V248" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>M.Russell@standardco.com.au</v>
+      </c>
     </row>
     <row r="249" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q249" s="5">
@@ -7630,10 +10750,22 @@
       <c r="R249" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="S249" s="35"/>
-      <c r="T249" s="35"/>
-      <c r="U249" s="35"/>
-      <c r="V249" s="8"/>
+      <c r="S249" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>R</v>
+      </c>
+      <c r="T249" s="34">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="U249" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Gamble</v>
+      </c>
+      <c r="V249" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>R.Gamble@standardco.com.au</v>
+      </c>
     </row>
     <row r="250" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q250" s="5">
@@ -7642,10 +10774,22 @@
       <c r="R250" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="S250" s="35"/>
-      <c r="T250" s="35"/>
-      <c r="U250" s="35"/>
-      <c r="V250" s="8"/>
+      <c r="S250" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>R</v>
+      </c>
+      <c r="T250" s="34">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="U250" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Madden</v>
+      </c>
+      <c r="V250" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>R.Madden@standardco.com.au</v>
+      </c>
     </row>
     <row r="251" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q251" s="5">
@@ -7654,10 +10798,22 @@
       <c r="R251" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="S251" s="35"/>
-      <c r="T251" s="35"/>
-      <c r="U251" s="35"/>
-      <c r="V251" s="8"/>
+      <c r="S251" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>R</v>
+      </c>
+      <c r="T251" s="34">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="U251" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Schroeder</v>
+      </c>
+      <c r="V251" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>R.Schroeder@standardco.com.au</v>
+      </c>
     </row>
     <row r="252" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q252" s="5">
@@ -7666,10 +10822,22 @@
       <c r="R252" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="S252" s="35"/>
-      <c r="T252" s="35"/>
-      <c r="U252" s="35"/>
-      <c r="V252" s="8"/>
+      <c r="S252" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>T</v>
+      </c>
+      <c r="T252" s="34">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="U252" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Watts</v>
+      </c>
+      <c r="V252" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>T.Watts@standardco.com.au</v>
+      </c>
     </row>
     <row r="253" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q253" s="5">
@@ -7678,10 +10846,22 @@
       <c r="R253" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="S253" s="35"/>
-      <c r="T253" s="35"/>
-      <c r="U253" s="35"/>
-      <c r="V253" s="8"/>
+      <c r="S253" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>L</v>
+      </c>
+      <c r="T253" s="34">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="U253" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Rich</v>
+      </c>
+      <c r="V253" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>L.Rich@standardco.com.au</v>
+      </c>
     </row>
     <row r="254" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q254" s="5">
@@ -7690,10 +10870,25 @@
       <c r="R254" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="S254" s="35"/>
-      <c r="T254" s="35"/>
-      <c r="U254" s="35"/>
-      <c r="V254" s="8"/>
+      <c r="S254" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>E</v>
+      </c>
+      <c r="T254" s="34">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="U254" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>Wang</v>
+      </c>
+      <c r="V254" s="8" t="str">
+        <f t="shared" si="19"/>
+        <v>E.Wang@standardco.com.au</v>
+      </c>
+    </row>
+    <row r="255" spans="17:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U255" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7702,13 +10897,10 @@
     <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="V5" r:id="rId1" xr:uid="{EF4F215B-8494-4B7F-8BBD-679F4BA3E67B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7736,716 +10928,716 @@
   <sheetData>
     <row r="1" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="F2" t="s">
+        <v>527</v>
+      </c>
+      <c r="H2" t="s">
+        <v>385</v>
+      </c>
+      <c r="I2" t="s">
+        <v>386</v>
+      </c>
+      <c r="J2" t="s">
+        <v>522</v>
+      </c>
+      <c r="K2" t="s">
+        <v>514</v>
+      </c>
+      <c r="L2" t="s">
         <v>528</v>
       </c>
-      <c r="H2" t="s">
-        <v>386</v>
-      </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="65" t="s">
+        <v>526</v>
+      </c>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="F3" t="s">
         <v>387</v>
       </c>
-      <c r="J2" t="s">
-        <v>523</v>
-      </c>
-      <c r="K2" t="s">
-        <v>515</v>
-      </c>
-      <c r="L2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
-        <v>527</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="F3" t="s">
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="F4" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="F4" t="s">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="F5" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="F5" t="s">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="F6" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="66"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="F6" t="s">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="F7" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="F7" t="s">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="F8" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="F8" t="s">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="F9" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="F9" t="s">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="F10" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="F10" t="s">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="F11" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="F11" t="s">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="F12" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="F12" t="s">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="F13" t="s">
         <v>397</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="F13" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="36" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="37" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="38" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="39" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="40" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="41" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="42" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="43" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="44" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="45" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="48" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="50" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F50" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F53" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="54" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="56" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F56" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F57" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="58" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="59" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="60" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F60" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F61" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="62" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="63" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="64" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F64" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F65" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="66" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="67" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F67" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="68" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F68" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="69" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F69" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="70" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F70" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="71" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F71" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="72" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="73" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F73" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="74" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F74" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="75" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F75" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="76" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="77" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F77" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="78" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="79" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F79" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="80" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F80" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="81" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F81" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="82" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F82" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="83" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F83" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="84" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="85" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F85" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="86" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F86" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="87" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F87" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="88" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F88" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="89" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F89" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="90" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F90" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="91" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F91" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="92" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F92" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="93" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F93" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="94" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F94" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="95" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F95" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="96" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F96" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="97" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F97" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="98" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F98" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="99" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F99" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="100" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F100" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="101" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F101" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="102" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F102" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="103" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F103" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="104" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F104" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="105" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F105" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="106" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F106" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="107" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F107" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="108" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F108" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="109" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F109" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="110" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F110" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="111" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F111" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="112" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F112" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="113" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F113" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="114" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F114" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="115" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F115" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="116" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F116" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="117" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F117" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="118" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F118" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="119" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F119" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="120" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F120" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="121" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F121" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="122" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F122" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="123" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F123" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="124" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F124" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="125" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F125" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="126" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F126" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="127" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F127" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="128" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F128" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="129" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F129" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>

--- a/Text Manipulation/Workbook 1-Text Manipulation.xlsx
+++ b/Text Manipulation/Workbook 1-Text Manipulation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sites\WYWM_DataAnalysisExcel\Text Manipulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290DF2A4-CF0E-43A4-9DE4-C1EB7E1C5D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C538BF6-4EFA-4521-876D-6E11AF38CCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{682ECE72-A850-4EEA-BAD4-BC6FFFC5916E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="4" xr2:uid="{682ECE72-A850-4EEA-BAD4-BC6FFFC5916E}"/>
   </bookViews>
   <sheets>
     <sheet name="Objectives" sheetId="3" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="1151">
   <si>
     <t>Method</t>
   </si>
@@ -1890,6 +1890,1671 @@
   </si>
   <si>
     <t>Length minus 13 (3 Country code &amp; 10 for phone length)</t>
+  </si>
+  <si>
+    <t>Longitude + Crime_Code +  Latitude</t>
+  </si>
+  <si>
+    <t>2200 BLOCK RIDGE AVE</t>
+  </si>
+  <si>
+    <t>2009-02</t>
+  </si>
+  <si>
+    <t>75.171149Other Assaults39.979586</t>
+  </si>
+  <si>
+    <t>1500 BLOCK N 17TH ST</t>
+  </si>
+  <si>
+    <t>2015-10</t>
+  </si>
+  <si>
+    <t>75.163073Thefts39.977872</t>
+  </si>
+  <si>
+    <t>2600 BLOCK W THOMPSON ST</t>
+  </si>
+  <si>
+    <t>2015-12</t>
+  </si>
+  <si>
+    <t>75.178874Thefts39.975724</t>
+  </si>
+  <si>
+    <t>7500 BLOCK WOODBINE AVE</t>
+  </si>
+  <si>
+    <t>2009-05</t>
+  </si>
+  <si>
+    <t>75.266605Arson39.975197</t>
+  </si>
+  <si>
+    <t>5600 BLOCK CHESTNUT ST</t>
+  </si>
+  <si>
+    <t>2015-05</t>
+  </si>
+  <si>
+    <t>75.235121Thefts39.959754</t>
+  </si>
+  <si>
+    <t>4800 BLOCK MARKET ST</t>
+  </si>
+  <si>
+    <t>75.217184Thefts39.959005</t>
+  </si>
+  <si>
+    <t>3000 BLOCK B ST</t>
+  </si>
+  <si>
+    <t>2015-08</t>
+  </si>
+  <si>
+    <t>75.125869Other Assaults39.995626</t>
+  </si>
+  <si>
+    <t>1900 BLOCK N 09TH ST</t>
+  </si>
+  <si>
+    <t>2015-03</t>
+  </si>
+  <si>
+    <t>75.148657Fraud39.981381</t>
+  </si>
+  <si>
+    <t>100 BLOCK N 63RD ST</t>
+  </si>
+  <si>
+    <t>2015-02</t>
+  </si>
+  <si>
+    <t>75.246174Thefts39.965767</t>
+  </si>
+  <si>
+    <t>300 BLOCK MASTER ST</t>
+  </si>
+  <si>
+    <t>2015-06</t>
+  </si>
+  <si>
+    <t>75.142238Theft from Vehicle39.972396</t>
+  </si>
+  <si>
+    <t>5600 BLOCK VINE ST</t>
+  </si>
+  <si>
+    <t>75.231825Thefts39.965636</t>
+  </si>
+  <si>
+    <t>1600 BLOCK DYRE ST</t>
+  </si>
+  <si>
+    <t>2015-11</t>
+  </si>
+  <si>
+    <t>75.077126Robbery No Firearm40.020219</t>
+  </si>
+  <si>
+    <t>500 BLOCK N HOBART ST</t>
+  </si>
+  <si>
+    <t>75.236743Other Assaults39.968878</t>
+  </si>
+  <si>
+    <t>800 BLOCK S 17TH ST</t>
+  </si>
+  <si>
+    <t>75.171071Theft from Vehicle39.940641</t>
+  </si>
+  <si>
+    <t>3700 BLOCK ARAMINGO AVE</t>
+  </si>
+  <si>
+    <t>75.094481Thefts39.994678</t>
+  </si>
+  <si>
+    <t>3600 BLOCK SANSOMST</t>
+  </si>
+  <si>
+    <t>75.194694Theft from Vehicle39.953878</t>
+  </si>
+  <si>
+    <t>4000 BLOCK MONUMENT RD</t>
+  </si>
+  <si>
+    <t>2015-07</t>
+  </si>
+  <si>
+    <t>75.213489Thefts40.006611</t>
+  </si>
+  <si>
+    <t>0 BLOCK S 54TH ST</t>
+  </si>
+  <si>
+    <t>2015-04</t>
+  </si>
+  <si>
+    <t>75.228597Theft from Vehicle39.960435</t>
+  </si>
+  <si>
+    <t>5000 BLOCK CEDAR AV</t>
+  </si>
+  <si>
+    <t>75.223059Theft from Vehicle39.949959</t>
+  </si>
+  <si>
+    <t>N 22ND ST / DIAMOND ST</t>
+  </si>
+  <si>
+    <t>75.169577Robbery Firearm39.986415</t>
+  </si>
+  <si>
+    <t>1600 BLOCK W NORRIS ST</t>
+  </si>
+  <si>
+    <t>75.160204Other Assaults39.983601</t>
+  </si>
+  <si>
+    <t>5700 BLOCK E ROOSEVELT BLVD</t>
+  </si>
+  <si>
+    <t>75.084733Thefts40.032092</t>
+  </si>
+  <si>
+    <t>1700 BLOCK STOCKER ST</t>
+  </si>
+  <si>
+    <t>75.177232Other Assaults39.915826</t>
+  </si>
+  <si>
+    <t>800 BLOCK N 65TH ST</t>
+  </si>
+  <si>
+    <t>75.249292Theft from Vehicle39.975158</t>
+  </si>
+  <si>
+    <t>8TH / MIFFLIN ST</t>
+  </si>
+  <si>
+    <t>2009-10</t>
+  </si>
+  <si>
+    <t>75.159205Motor Vehicle Theft39.925513</t>
+  </si>
+  <si>
+    <t>500 BLOCK W ANNSBURY ST</t>
+  </si>
+  <si>
+    <t>2009-06</t>
+  </si>
+  <si>
+    <t>75.135353Fraud40.020515</t>
+  </si>
+  <si>
+    <t>4200 BLOCK N PENN ST</t>
+  </si>
+  <si>
+    <t>75.085511Thefts40.017622</t>
+  </si>
+  <si>
+    <t>4500 BLOCK LORING ST</t>
+  </si>
+  <si>
+    <t>75.032986Thefts40.032924</t>
+  </si>
+  <si>
+    <t>0 BLOCK PIA WAY</t>
+  </si>
+  <si>
+    <t>2009-01</t>
+  </si>
+  <si>
+    <t>75.230706Fraud39.883852</t>
+  </si>
+  <si>
+    <t>1900 BLOCK N 18TH ST</t>
+  </si>
+  <si>
+    <t>75.163557Thefts39.983081</t>
+  </si>
+  <si>
+    <t>1500 BLOCK GUILFORD PL</t>
+  </si>
+  <si>
+    <t>75.153582Thefts39.975478</t>
+  </si>
+  <si>
+    <t>N 46TH ST / MARKET ST</t>
+  </si>
+  <si>
+    <t>75.214022Thefts39.958653</t>
+  </si>
+  <si>
+    <t>3300 BLOCK MARKET ST</t>
+  </si>
+  <si>
+    <t>75.189919Thefts39.955691</t>
+  </si>
+  <si>
+    <t>4100 BLOCK LANCASTER AV</t>
+  </si>
+  <si>
+    <t>2015-09</t>
+  </si>
+  <si>
+    <t>75.205535Thefts39.965085</t>
+  </si>
+  <si>
+    <t>3700 BLOCK MARKET ST</t>
+  </si>
+  <si>
+    <t>75.196171Thefts39.956487</t>
+  </si>
+  <si>
+    <t>4400 BLOCK HOLDEN ST</t>
+  </si>
+  <si>
+    <t>75.209228Thefts39.958779</t>
+  </si>
+  <si>
+    <t>75.163599Thefts39.982888</t>
+  </si>
+  <si>
+    <t>2600 BLOCK MORRIS ST</t>
+  </si>
+  <si>
+    <t>75.188667Thefts39.931814</t>
+  </si>
+  <si>
+    <t>2000 BLOCK TITAN ST</t>
+  </si>
+  <si>
+    <t>75.177152Thefts39.935917</t>
+  </si>
+  <si>
+    <t>1400 BLOCK POINT BREEZE AV</t>
+  </si>
+  <si>
+    <t>75.179686Thefts39.934427</t>
+  </si>
+  <si>
+    <t>4000 BLOCK L ST</t>
+  </si>
+  <si>
+    <t>75.102881Other Assaults40.007772</t>
+  </si>
+  <si>
+    <t>1300 BLOCK E AIRDRIE ST</t>
+  </si>
+  <si>
+    <t>75.103664Other Assaults40.003593</t>
+  </si>
+  <si>
+    <t>9700 BLOCK HILSPACH ST</t>
+  </si>
+  <si>
+    <t>2009-03</t>
+  </si>
+  <si>
+    <t>75.023527Thefts40.087979</t>
+  </si>
+  <si>
+    <t>1000 BLOCK MARKET ST</t>
+  </si>
+  <si>
+    <t>75.156776Thefts39.951586</t>
+  </si>
+  <si>
+    <t>1500 BLOCK SNYDER AVE</t>
+  </si>
+  <si>
+    <t>75.171669Fraud39.924675</t>
+  </si>
+  <si>
+    <t>3400 BLOCK SPRUCE ST</t>
+  </si>
+  <si>
+    <t>75.193967Thefts39.950587</t>
+  </si>
+  <si>
+    <t>2800 BLOCK RUTH ST</t>
+  </si>
+  <si>
+    <t>2009-08</t>
+  </si>
+  <si>
+    <t>75.122057All Other Offenses39.990907</t>
+  </si>
+  <si>
+    <t>10900 BLOCK BUSTLETON AVE</t>
+  </si>
+  <si>
+    <t>75.023628Thefts40.112079</t>
+  </si>
+  <si>
+    <t>S BROAD ST  / SOUTH ST</t>
+  </si>
+  <si>
+    <t>75.165577Other Assaults39.943674</t>
+  </si>
+  <si>
+    <t>0 BLOCK ARRIVAL RD</t>
+  </si>
+  <si>
+    <t>75.247884Fraud39.877347</t>
+  </si>
+  <si>
+    <t>2700 BLOCK B ST</t>
+  </si>
+  <si>
+    <t>75.127084Theft from Vehicle39.990417</t>
+  </si>
+  <si>
+    <t>500 BLOCK SOUTH ST</t>
+  </si>
+  <si>
+    <t>2010-08</t>
+  </si>
+  <si>
+    <t>75.150781Disorderly Conduct39.941788</t>
+  </si>
+  <si>
+    <t>2200 BLOCK OREGON AV</t>
+  </si>
+  <si>
+    <t>2010-09</t>
+  </si>
+  <si>
+    <t>75.185085Thefts39.918509</t>
+  </si>
+  <si>
+    <t>6100 BLOCK PALMETTO ST</t>
+  </si>
+  <si>
+    <t>2010-07</t>
+  </si>
+  <si>
+    <t>75.098186Thefts40.045349</t>
+  </si>
+  <si>
+    <t>2400 BLOCK W LEHIGH AVE</t>
+  </si>
+  <si>
+    <t>75.171906Thefts39.996151</t>
+  </si>
+  <si>
+    <t>1200 BLOCK COMLY ST</t>
+  </si>
+  <si>
+    <t>75.085655Other Assaults40.036367</t>
+  </si>
+  <si>
+    <t>1000 BLOCK TASKER ST</t>
+  </si>
+  <si>
+    <t>75.162438Thefts39.929674</t>
+  </si>
+  <si>
+    <t>0 BLOCK MIFFLIN ST</t>
+  </si>
+  <si>
+    <t>75.143638Thefts39.923506</t>
+  </si>
+  <si>
+    <t>1900 BLOCK MIFFLIN ST</t>
+  </si>
+  <si>
+    <t>2010-01</t>
+  </si>
+  <si>
+    <t>75.177883Thefts39.927906</t>
+  </si>
+  <si>
+    <t>74TH AV  / OGONTZ AV</t>
+  </si>
+  <si>
+    <t>75.156289Thefts40.067016</t>
+  </si>
+  <si>
+    <t>1300 BLOCK W ONTARIO ST</t>
+  </si>
+  <si>
+    <t>75.150953Thefts40.004502</t>
+  </si>
+  <si>
+    <t>1000 BLOCK S 52ND ST</t>
+  </si>
+  <si>
+    <t>2010-12</t>
+  </si>
+  <si>
+    <t>75.223069Other Assaults39.944004</t>
+  </si>
+  <si>
+    <t>4000 BLOCK WOODHAVEN RD</t>
+  </si>
+  <si>
+    <t>74.971153Fraud40.086168</t>
+  </si>
+  <si>
+    <t>200 BLOCK WALNUT ST</t>
+  </si>
+  <si>
+    <t>2010-04</t>
+  </si>
+  <si>
+    <t>75.144875Thefts39.946881</t>
+  </si>
+  <si>
+    <t>600 BLOCK S 52ND ST</t>
+  </si>
+  <si>
+    <t>75.226958Robbery No Firearm39.950324</t>
+  </si>
+  <si>
+    <t>11000 BLOCK E ROOSEVELT BLVD</t>
+  </si>
+  <si>
+    <t>75.007961Thefts40.100745</t>
+  </si>
+  <si>
+    <t>1000 BLOCK S 54TH ST</t>
+  </si>
+  <si>
+    <t>2010-05</t>
+  </si>
+  <si>
+    <t>75.228316Fraud39.944312</t>
+  </si>
+  <si>
+    <t>5700 BLOCK HARBISON AVE</t>
+  </si>
+  <si>
+    <t>2010-10</t>
+  </si>
+  <si>
+    <t>75.064964Fraud40.017651</t>
+  </si>
+  <si>
+    <t>N 51ST ST / ASPEN ST</t>
+  </si>
+  <si>
+    <t>75.222027Disorderly Conduct39.964669</t>
+  </si>
+  <si>
+    <t>1500 BLOCK VAN KIRK ST</t>
+  </si>
+  <si>
+    <t>75.078742Thefts40.030616</t>
+  </si>
+  <si>
+    <t>9900 BLOCK BUSTLETON AVE</t>
+  </si>
+  <si>
+    <t>75.029016Fraud40.102131</t>
+  </si>
+  <si>
+    <t>5800 BLOCK N HOWARD ST</t>
+  </si>
+  <si>
+    <t>75.122354Fraud40.039164</t>
+  </si>
+  <si>
+    <t>900 BLOCK SOUTH ST</t>
+  </si>
+  <si>
+    <t>75.157933Thefts39.942767</t>
+  </si>
+  <si>
+    <t>900 BLOCK E ELLET ST</t>
+  </si>
+  <si>
+    <t>75.178264Fraud40.067622</t>
+  </si>
+  <si>
+    <t>100 BLOCK E OLNEY AV</t>
+  </si>
+  <si>
+    <t>75.121299Thefts40.035317</t>
+  </si>
+  <si>
+    <t>75.125909Fraud39.995447</t>
+  </si>
+  <si>
+    <t>5200 BLOCK OLD YORK RD</t>
+  </si>
+  <si>
+    <t>75.145479Thefts40.032895</t>
+  </si>
+  <si>
+    <t>100 BLOCK E GODFREY AVE</t>
+  </si>
+  <si>
+    <t>75.117166Thefts40.044221</t>
+  </si>
+  <si>
+    <t>2200 BLOCK BRIDGE ST</t>
+  </si>
+  <si>
+    <t>75.068881Thefts40.008954</t>
+  </si>
+  <si>
+    <t>500 BLOCK ADAMS AV</t>
+  </si>
+  <si>
+    <t>2010-02</t>
+  </si>
+  <si>
+    <t>75.109474Thefts40.038292</t>
+  </si>
+  <si>
+    <t>1400 BLOCK N 28TH ST</t>
+  </si>
+  <si>
+    <t>75.181166Thefts39.977789</t>
+  </si>
+  <si>
+    <t>400 BLOCK BUSTI ST</t>
+  </si>
+  <si>
+    <t>75.209349Burglary Residential39.959301</t>
+  </si>
+  <si>
+    <t>N 26TH ST / BROWN ST</t>
+  </si>
+  <si>
+    <t>75.179653Theft from Vehicle39.970318</t>
+  </si>
+  <si>
+    <t>4400 BLOCK VISTA ST</t>
+  </si>
+  <si>
+    <t>75.034206Theft from Vehicle40.035109</t>
+  </si>
+  <si>
+    <t>1100 BLOCK S BROAD ST</t>
+  </si>
+  <si>
+    <t>75.166949Fraud39.937545</t>
+  </si>
+  <si>
+    <t>PRATT ST  / OAKLAND ST</t>
+  </si>
+  <si>
+    <t>2010-06</t>
+  </si>
+  <si>
+    <t>75.082684Thefts40.025133</t>
+  </si>
+  <si>
+    <t>700 BLOCK S ALDEN ST</t>
+  </si>
+  <si>
+    <t>75.238247All Other Offenses39.948806</t>
+  </si>
+  <si>
+    <t>600 BLOCK RED LION RD</t>
+  </si>
+  <si>
+    <t>2011-12</t>
+  </si>
+  <si>
+    <t>75.038589Thefts40.107011</t>
+  </si>
+  <si>
+    <t>0 BLOCK S 33RD ST</t>
+  </si>
+  <si>
+    <t>75.189472Thefts39.955362</t>
+  </si>
+  <si>
+    <t>UPSAL ST / GREENE ST</t>
+  </si>
+  <si>
+    <t>75.190581Thefts40.043001</t>
+  </si>
+  <si>
+    <t>1500 BLOCK WOMRATH ST</t>
+  </si>
+  <si>
+    <t>2010-11</t>
+  </si>
+  <si>
+    <t>75.090835Other Assaults40.009537</t>
+  </si>
+  <si>
+    <t>0 BLOCK S 40TH ST</t>
+  </si>
+  <si>
+    <t>75.202167Fraud39.956415</t>
+  </si>
+  <si>
+    <t>5900 BLOCK MARKET ST</t>
+  </si>
+  <si>
+    <t>2015-01</t>
+  </si>
+  <si>
+    <t>75.240193All Other Offenses39.961942</t>
+  </si>
+  <si>
+    <t>1700 BLOCK N ROBINSON ST</t>
+  </si>
+  <si>
+    <t>75.243294Fraud39.978568</t>
+  </si>
+  <si>
+    <t>3900 BLOCK M ST</t>
+  </si>
+  <si>
+    <t>75.100844Fraud40.007003</t>
+  </si>
+  <si>
+    <t>100 BLOCK S 18TH ST</t>
+  </si>
+  <si>
+    <t>2011-10</t>
+  </si>
+  <si>
+    <t>75.170567Thefts39.950358</t>
+  </si>
+  <si>
+    <t>1300 BLOCK MARKET ST</t>
+  </si>
+  <si>
+    <t>75.161485Thefts39.952073</t>
+  </si>
+  <si>
+    <t>100 BLOCK E OLNEY AVE</t>
+  </si>
+  <si>
+    <t>2400 BLOCK SHARSWOOD ST</t>
+  </si>
+  <si>
+    <t>75.175701Thefts39.977321</t>
+  </si>
+  <si>
+    <t>4300 BLOCK PENN</t>
+  </si>
+  <si>
+    <t>2011-08</t>
+  </si>
+  <si>
+    <t>75.090582Other Assaults40.012063</t>
+  </si>
+  <si>
+    <t>2800 BLOCK C ST</t>
+  </si>
+  <si>
+    <t>75.124514Thefts39.991927</t>
+  </si>
+  <si>
+    <t>2700 BLOCK N 8TH ST</t>
+  </si>
+  <si>
+    <t>75.145048Thefts39.992766</t>
+  </si>
+  <si>
+    <t>5500 BLOCK VINE ST</t>
+  </si>
+  <si>
+    <t>75.229988All Other Offenses39.965327</t>
+  </si>
+  <si>
+    <t>1900 BLOCK N 15TH ST</t>
+  </si>
+  <si>
+    <t>75.158942Thefts39.981977</t>
+  </si>
+  <si>
+    <t>1100 BLOCK BRILL ST</t>
+  </si>
+  <si>
+    <t>75.084194Theft from Vehicle40.028815</t>
+  </si>
+  <si>
+    <t>1200 BLOCK POPLAR ST</t>
+  </si>
+  <si>
+    <t>75.157592Thefts39.969734</t>
+  </si>
+  <si>
+    <t>400 BLOCK WOODHAVEN PL</t>
+  </si>
+  <si>
+    <t>2011-03</t>
+  </si>
+  <si>
+    <t>75.024616Other Assaults40.123861</t>
+  </si>
+  <si>
+    <t>98 PIA WAY</t>
+  </si>
+  <si>
+    <t>75.232354Thefts39.883546</t>
+  </si>
+  <si>
+    <t>5300 BLOCK ANGORA TER</t>
+  </si>
+  <si>
+    <t>2011-11</t>
+  </si>
+  <si>
+    <t>75.230014Thefts39.946859</t>
+  </si>
+  <si>
+    <t>600 BLOCK OAK LN</t>
+  </si>
+  <si>
+    <t>75.129205Robbery No Firearm40.055618</t>
+  </si>
+  <si>
+    <t>3200 BLOCK MORRELL AVE</t>
+  </si>
+  <si>
+    <t>74.998227Fraud40.078631</t>
+  </si>
+  <si>
+    <t>1500 BLOCK W OLNEY AVE</t>
+  </si>
+  <si>
+    <t>75.146614Thefts40.039016</t>
+  </si>
+  <si>
+    <t>4900 BLOCK D ST</t>
+  </si>
+  <si>
+    <t>75.115867Thefts40.023928</t>
+  </si>
+  <si>
+    <t>100 BLOCK N 60TH ST</t>
+  </si>
+  <si>
+    <t>75.240363Robbery Firearm39.964133</t>
+  </si>
+  <si>
+    <t>1300 BLOCK E PALMER ST</t>
+  </si>
+  <si>
+    <t>75.129309Thefts39.972632</t>
+  </si>
+  <si>
+    <t>5000 BLOCK RORER ST</t>
+  </si>
+  <si>
+    <t>75.114476Other Assaults40.026637</t>
+  </si>
+  <si>
+    <t>2000 BLOCK S BROAD ST</t>
+  </si>
+  <si>
+    <t>2011-01</t>
+  </si>
+  <si>
+    <t>75.169698Thefts39.924899</t>
+  </si>
+  <si>
+    <t>2800 BLOCK RIDGE AVE</t>
+  </si>
+  <si>
+    <t>75.180237Thefts39.986397</t>
+  </si>
+  <si>
+    <t>5000 BLOCK C ST</t>
+  </si>
+  <si>
+    <t>75.117214Thefts40.025573</t>
+  </si>
+  <si>
+    <t>3700 BLOCK I ST</t>
+  </si>
+  <si>
+    <t>2011-04</t>
+  </si>
+  <si>
+    <t>75.109446Disorderly Conduct40.005307</t>
+  </si>
+  <si>
+    <t>5200 BLOCK N FRONT ST</t>
+  </si>
+  <si>
+    <t>75.122665Other Assaults40.029741</t>
+  </si>
+  <si>
+    <t>6100 BLOCK WOODLAND AVE</t>
+  </si>
+  <si>
+    <t>75.229904Thefts39.928643</t>
+  </si>
+  <si>
+    <t>3700 BLOCK N 19TH ST</t>
+  </si>
+  <si>
+    <t>2010-03</t>
+  </si>
+  <si>
+    <t>75.159226Other Assaults40.010315</t>
+  </si>
+  <si>
+    <t>49TH/CATHERINE ST</t>
+  </si>
+  <si>
+    <t>75.221237All Other Offenses39.948162</t>
+  </si>
+  <si>
+    <t>3400 BLOCK I ST</t>
+  </si>
+  <si>
+    <t>75.110615Arson39.999322</t>
+  </si>
+  <si>
+    <t>800 BLOCK BUDD ST</t>
+  </si>
+  <si>
+    <t>75.205288All Other Offenses39.969998</t>
+  </si>
+  <si>
+    <t>S 64TH ST / GRAYS</t>
+  </si>
+  <si>
+    <t>2011-09</t>
+  </si>
+  <si>
+    <t>75.230489All Other Offenses39.924247</t>
+  </si>
+  <si>
+    <t>Longitude + Crime_Code +  Latitude Length</t>
+  </si>
+  <si>
+    <t>Other Assaults</t>
+  </si>
+  <si>
+    <t>75.171149</t>
+  </si>
+  <si>
+    <t>39.979586</t>
+  </si>
+  <si>
+    <t>Thefts</t>
+  </si>
+  <si>
+    <t>75.163073</t>
+  </si>
+  <si>
+    <t>39.977872</t>
+  </si>
+  <si>
+    <t>75.178874</t>
+  </si>
+  <si>
+    <t>39.975724</t>
+  </si>
+  <si>
+    <t>Arson</t>
+  </si>
+  <si>
+    <t>75.266605</t>
+  </si>
+  <si>
+    <t>39.975197</t>
+  </si>
+  <si>
+    <t>75.235121</t>
+  </si>
+  <si>
+    <t>39.959754</t>
+  </si>
+  <si>
+    <t>75.217184</t>
+  </si>
+  <si>
+    <t>39.959005</t>
+  </si>
+  <si>
+    <t>75.125869</t>
+  </si>
+  <si>
+    <t>39.995626</t>
+  </si>
+  <si>
+    <t>Fraud</t>
+  </si>
+  <si>
+    <t>75.148657</t>
+  </si>
+  <si>
+    <t>39.981381</t>
+  </si>
+  <si>
+    <t>75.246174</t>
+  </si>
+  <si>
+    <t>39.965767</t>
+  </si>
+  <si>
+    <t>Theft from Vehicle</t>
+  </si>
+  <si>
+    <t>75.142238</t>
+  </si>
+  <si>
+    <t>39.972396</t>
+  </si>
+  <si>
+    <t>75.231825</t>
+  </si>
+  <si>
+    <t>39.965636</t>
+  </si>
+  <si>
+    <t>Robbery No Firearm</t>
+  </si>
+  <si>
+    <t>75.077126</t>
+  </si>
+  <si>
+    <t>40.020219</t>
+  </si>
+  <si>
+    <t>75.236743</t>
+  </si>
+  <si>
+    <t>39.968878</t>
+  </si>
+  <si>
+    <t>75.171071</t>
+  </si>
+  <si>
+    <t>39.940641</t>
+  </si>
+  <si>
+    <t>75.094481</t>
+  </si>
+  <si>
+    <t>39.994678</t>
+  </si>
+  <si>
+    <t>75.194694</t>
+  </si>
+  <si>
+    <t>39.953878</t>
+  </si>
+  <si>
+    <t>75.213489</t>
+  </si>
+  <si>
+    <t>40.006611</t>
+  </si>
+  <si>
+    <t>75.228597</t>
+  </si>
+  <si>
+    <t>39.960435</t>
+  </si>
+  <si>
+    <t>75.223059</t>
+  </si>
+  <si>
+    <t>39.949959</t>
+  </si>
+  <si>
+    <t>Robbery Firearm</t>
+  </si>
+  <si>
+    <t>75.169577</t>
+  </si>
+  <si>
+    <t>39.986415</t>
+  </si>
+  <si>
+    <t>75.160204</t>
+  </si>
+  <si>
+    <t>39.983601</t>
+  </si>
+  <si>
+    <t>75.084733</t>
+  </si>
+  <si>
+    <t>40.032092</t>
+  </si>
+  <si>
+    <t>75.177232</t>
+  </si>
+  <si>
+    <t>39.915826</t>
+  </si>
+  <si>
+    <t>75.249292</t>
+  </si>
+  <si>
+    <t>39.975158</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft</t>
+  </si>
+  <si>
+    <t>75.159205</t>
+  </si>
+  <si>
+    <t>39.925513</t>
+  </si>
+  <si>
+    <t>75.135353</t>
+  </si>
+  <si>
+    <t>40.020515</t>
+  </si>
+  <si>
+    <t>75.085511</t>
+  </si>
+  <si>
+    <t>40.017622</t>
+  </si>
+  <si>
+    <t>75.032986</t>
+  </si>
+  <si>
+    <t>40.032924</t>
+  </si>
+  <si>
+    <t>75.230706</t>
+  </si>
+  <si>
+    <t>39.883852</t>
+  </si>
+  <si>
+    <t>75.163557</t>
+  </si>
+  <si>
+    <t>39.983081</t>
+  </si>
+  <si>
+    <t>75.153582</t>
+  </si>
+  <si>
+    <t>39.975478</t>
+  </si>
+  <si>
+    <t>75.214022</t>
+  </si>
+  <si>
+    <t>39.958653</t>
+  </si>
+  <si>
+    <t>75.189919</t>
+  </si>
+  <si>
+    <t>39.955691</t>
+  </si>
+  <si>
+    <t>75.205535</t>
+  </si>
+  <si>
+    <t>39.965085</t>
+  </si>
+  <si>
+    <t>75.196171</t>
+  </si>
+  <si>
+    <t>39.956487</t>
+  </si>
+  <si>
+    <t>75.209228</t>
+  </si>
+  <si>
+    <t>39.958779</t>
+  </si>
+  <si>
+    <t>75.163599</t>
+  </si>
+  <si>
+    <t>39.982888</t>
+  </si>
+  <si>
+    <t>75.188667</t>
+  </si>
+  <si>
+    <t>39.931814</t>
+  </si>
+  <si>
+    <t>75.177152</t>
+  </si>
+  <si>
+    <t>39.935917</t>
+  </si>
+  <si>
+    <t>75.179686</t>
+  </si>
+  <si>
+    <t>39.934427</t>
+  </si>
+  <si>
+    <t>75.102881</t>
+  </si>
+  <si>
+    <t>40.007772</t>
+  </si>
+  <si>
+    <t>75.103664</t>
+  </si>
+  <si>
+    <t>40.003593</t>
+  </si>
+  <si>
+    <t>75.023527</t>
+  </si>
+  <si>
+    <t>40.087979</t>
+  </si>
+  <si>
+    <t>75.156776</t>
+  </si>
+  <si>
+    <t>39.951586</t>
+  </si>
+  <si>
+    <t>75.171669</t>
+  </si>
+  <si>
+    <t>39.924675</t>
+  </si>
+  <si>
+    <t>75.193967</t>
+  </si>
+  <si>
+    <t>39.950587</t>
+  </si>
+  <si>
+    <t>All Other Offenses</t>
+  </si>
+  <si>
+    <t>75.122057</t>
+  </si>
+  <si>
+    <t>39.990907</t>
+  </si>
+  <si>
+    <t>75.023628</t>
+  </si>
+  <si>
+    <t>40.112079</t>
+  </si>
+  <si>
+    <t>75.165577</t>
+  </si>
+  <si>
+    <t>39.943674</t>
+  </si>
+  <si>
+    <t>75.247884</t>
+  </si>
+  <si>
+    <t>39.877347</t>
+  </si>
+  <si>
+    <t>75.127084</t>
+  </si>
+  <si>
+    <t>39.990417</t>
+  </si>
+  <si>
+    <t>Disorderly Conduct</t>
+  </si>
+  <si>
+    <t>75.150781</t>
+  </si>
+  <si>
+    <t>39.941788</t>
+  </si>
+  <si>
+    <t>75.185085</t>
+  </si>
+  <si>
+    <t>39.918509</t>
+  </si>
+  <si>
+    <t>75.098186</t>
+  </si>
+  <si>
+    <t>40.045349</t>
+  </si>
+  <si>
+    <t>75.171906</t>
+  </si>
+  <si>
+    <t>39.996151</t>
+  </si>
+  <si>
+    <t>75.085655</t>
+  </si>
+  <si>
+    <t>40.036367</t>
+  </si>
+  <si>
+    <t>75.162438</t>
+  </si>
+  <si>
+    <t>39.929674</t>
+  </si>
+  <si>
+    <t>75.143638</t>
+  </si>
+  <si>
+    <t>39.923506</t>
+  </si>
+  <si>
+    <t>75.177883</t>
+  </si>
+  <si>
+    <t>39.927906</t>
+  </si>
+  <si>
+    <t>75.156289</t>
+  </si>
+  <si>
+    <t>40.067016</t>
+  </si>
+  <si>
+    <t>75.150953</t>
+  </si>
+  <si>
+    <t>40.004502</t>
+  </si>
+  <si>
+    <t>75.223069</t>
+  </si>
+  <si>
+    <t>39.944004</t>
+  </si>
+  <si>
+    <t>74.971153</t>
+  </si>
+  <si>
+    <t>40.086168</t>
+  </si>
+  <si>
+    <t>75.144875</t>
+  </si>
+  <si>
+    <t>39.946881</t>
+  </si>
+  <si>
+    <t>75.226958</t>
+  </si>
+  <si>
+    <t>39.950324</t>
+  </si>
+  <si>
+    <t>75.007961</t>
+  </si>
+  <si>
+    <t>40.100745</t>
+  </si>
+  <si>
+    <t>75.228316</t>
+  </si>
+  <si>
+    <t>39.944312</t>
+  </si>
+  <si>
+    <t>75.064964</t>
+  </si>
+  <si>
+    <t>40.017651</t>
+  </si>
+  <si>
+    <t>75.222027</t>
+  </si>
+  <si>
+    <t>39.964669</t>
+  </si>
+  <si>
+    <t>75.078742</t>
+  </si>
+  <si>
+    <t>40.030616</t>
+  </si>
+  <si>
+    <t>75.029016</t>
+  </si>
+  <si>
+    <t>40.102131</t>
+  </si>
+  <si>
+    <t>75.122354</t>
+  </si>
+  <si>
+    <t>40.039164</t>
+  </si>
+  <si>
+    <t>75.157933</t>
+  </si>
+  <si>
+    <t>39.942767</t>
+  </si>
+  <si>
+    <t>75.178264</t>
+  </si>
+  <si>
+    <t>40.067622</t>
+  </si>
+  <si>
+    <t>75.121299</t>
+  </si>
+  <si>
+    <t>40.035317</t>
+  </si>
+  <si>
+    <t>75.125909</t>
+  </si>
+  <si>
+    <t>39.995447</t>
+  </si>
+  <si>
+    <t>75.145479</t>
+  </si>
+  <si>
+    <t>40.032895</t>
+  </si>
+  <si>
+    <t>75.117166</t>
+  </si>
+  <si>
+    <t>40.044221</t>
+  </si>
+  <si>
+    <t>75.068881</t>
+  </si>
+  <si>
+    <t>40.008954</t>
+  </si>
+  <si>
+    <t>75.109474</t>
+  </si>
+  <si>
+    <t>40.038292</t>
+  </si>
+  <si>
+    <t>75.181166</t>
+  </si>
+  <si>
+    <t>39.977789</t>
+  </si>
+  <si>
+    <t>Burglary Residential</t>
+  </si>
+  <si>
+    <t>75.209349</t>
+  </si>
+  <si>
+    <t>39.959301</t>
+  </si>
+  <si>
+    <t>75.179653</t>
+  </si>
+  <si>
+    <t>39.970318</t>
+  </si>
+  <si>
+    <t>75.034206</t>
+  </si>
+  <si>
+    <t>40.035109</t>
+  </si>
+  <si>
+    <t>75.166949</t>
+  </si>
+  <si>
+    <t>39.937545</t>
+  </si>
+  <si>
+    <t>75.082684</t>
+  </si>
+  <si>
+    <t>40.025133</t>
+  </si>
+  <si>
+    <t>75.238247</t>
+  </si>
+  <si>
+    <t>39.948806</t>
+  </si>
+  <si>
+    <t>75.038589</t>
+  </si>
+  <si>
+    <t>40.107011</t>
+  </si>
+  <si>
+    <t>75.189472</t>
+  </si>
+  <si>
+    <t>39.955362</t>
+  </si>
+  <si>
+    <t>75.190581</t>
+  </si>
+  <si>
+    <t>40.043001</t>
+  </si>
+  <si>
+    <t>75.090835</t>
+  </si>
+  <si>
+    <t>40.009537</t>
+  </si>
+  <si>
+    <t>75.202167</t>
+  </si>
+  <si>
+    <t>39.956415</t>
+  </si>
+  <si>
+    <t>75.240193</t>
+  </si>
+  <si>
+    <t>39.961942</t>
+  </si>
+  <si>
+    <t>75.243294</t>
+  </si>
+  <si>
+    <t>39.978568</t>
+  </si>
+  <si>
+    <t>75.100844</t>
+  </si>
+  <si>
+    <t>40.007003</t>
+  </si>
+  <si>
+    <t>75.170567</t>
+  </si>
+  <si>
+    <t>39.950358</t>
+  </si>
+  <si>
+    <t>75.161485</t>
+  </si>
+  <si>
+    <t>39.952073</t>
+  </si>
+  <si>
+    <t>75.175701</t>
+  </si>
+  <si>
+    <t>39.977321</t>
+  </si>
+  <si>
+    <t>75.090582</t>
+  </si>
+  <si>
+    <t>40.012063</t>
+  </si>
+  <si>
+    <t>75.124514</t>
+  </si>
+  <si>
+    <t>39.991927</t>
+  </si>
+  <si>
+    <t>75.145048</t>
+  </si>
+  <si>
+    <t>39.992766</t>
+  </si>
+  <si>
+    <t>75.229988</t>
+  </si>
+  <si>
+    <t>39.965327</t>
+  </si>
+  <si>
+    <t>75.158942</t>
+  </si>
+  <si>
+    <t>39.981977</t>
+  </si>
+  <si>
+    <t>75.084194</t>
+  </si>
+  <si>
+    <t>40.028815</t>
+  </si>
+  <si>
+    <t>75.157592</t>
+  </si>
+  <si>
+    <t>39.969734</t>
+  </si>
+  <si>
+    <t>75.024616</t>
+  </si>
+  <si>
+    <t>40.123861</t>
+  </si>
+  <si>
+    <t>75.232354</t>
+  </si>
+  <si>
+    <t>39.883546</t>
+  </si>
+  <si>
+    <t>75.230014</t>
+  </si>
+  <si>
+    <t>39.946859</t>
+  </si>
+  <si>
+    <t>75.129205</t>
+  </si>
+  <si>
+    <t>40.055618</t>
+  </si>
+  <si>
+    <t>74.998227</t>
+  </si>
+  <si>
+    <t>40.078631</t>
+  </si>
+  <si>
+    <t>75.146614</t>
+  </si>
+  <si>
+    <t>40.039016</t>
+  </si>
+  <si>
+    <t>75.115867</t>
+  </si>
+  <si>
+    <t>40.023928</t>
+  </si>
+  <si>
+    <t>75.240363</t>
+  </si>
+  <si>
+    <t>39.964133</t>
+  </si>
+  <si>
+    <t>75.129309</t>
+  </si>
+  <si>
+    <t>39.972632</t>
+  </si>
+  <si>
+    <t>75.114476</t>
+  </si>
+  <si>
+    <t>40.026637</t>
+  </si>
+  <si>
+    <t>75.169698</t>
+  </si>
+  <si>
+    <t>39.924899</t>
+  </si>
+  <si>
+    <t>75.180237</t>
+  </si>
+  <si>
+    <t>39.986397</t>
+  </si>
+  <si>
+    <t>75.117214</t>
+  </si>
+  <si>
+    <t>40.025573</t>
+  </si>
+  <si>
+    <t>75.109446</t>
+  </si>
+  <si>
+    <t>40.005307</t>
+  </si>
+  <si>
+    <t>75.122665</t>
+  </si>
+  <si>
+    <t>40.029741</t>
+  </si>
+  <si>
+    <t>75.229904</t>
+  </si>
+  <si>
+    <t>39.928643</t>
+  </si>
+  <si>
+    <t>75.159226</t>
+  </si>
+  <si>
+    <t>40.010315</t>
+  </si>
+  <si>
+    <t>75.221237</t>
+  </si>
+  <si>
+    <t>39.948162</t>
+  </si>
+  <si>
+    <t>75.110615</t>
+  </si>
+  <si>
+    <t>39.999322</t>
+  </si>
+  <si>
+    <t>75.205288</t>
+  </si>
+  <si>
+    <t>39.969998</t>
+  </si>
+  <si>
+    <t>75.230489</t>
+  </si>
+  <si>
+    <t>39.924247</t>
   </si>
 </sst>
 </file>
@@ -2257,6 +3922,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2322,18 +3999,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3215,7 +4880,7 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N11" sqref="N11:N17"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3240,20 +4905,20 @@
       <c r="J1" s="16"/>
     </row>
     <row r="2" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="37"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="2:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
       <c r="G3" s="9" t="s">
         <v>23</v>
       </c>
@@ -3264,22 +4929,22 @@
         <v>24</v>
       </c>
       <c r="J3" s="16"/>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="44"/>
     </row>
     <row r="4" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="35" t="s">
         <v>335</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
       <c r="G4" s="5">
         <v>1</v>
       </c>
@@ -3290,24 +4955,24 @@
         <f>TRIM(H4)</f>
         <v>Ford</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="M4" s="47" t="s">
         <v>519</v>
       </c>
-      <c r="N4" s="44"/>
-      <c r="O4" s="45"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="49"/>
     </row>
     <row r="5" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
       <c r="G5" s="5">
         <v>2</v>
       </c>
@@ -3318,10 +4983,10 @@
         <f t="shared" ref="I5:I14" si="0">TRIM(H5)</f>
         <v>Ford</v>
       </c>
-      <c r="L5" s="42"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="48"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="52"/>
     </row>
     <row r="6" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G6" s="5">
@@ -3334,14 +4999,14 @@
         <f t="shared" si="0"/>
         <v>Ford</v>
       </c>
-      <c r="L6" s="49" t="s">
+      <c r="L6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="51" t="s">
+      <c r="M6" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="52"/>
-      <c r="O6" s="53"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="57"/>
     </row>
     <row r="7" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -3361,17 +5026,17 @@
         <f t="shared" si="0"/>
         <v>Ford</v>
       </c>
-      <c r="L7" s="50"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="56"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="60"/>
       <c r="P7" s="13"/>
     </row>
     <row r="8" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="60"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="5">
         <f>COUNTIF($I4:I$14,B8)</f>
         <v>4</v>
@@ -3390,10 +5055,10 @@
       <c r="P8" s="13"/>
     </row>
     <row r="9" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="60"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="5">
         <f>COUNTIF($I5:I$14,B9)</f>
         <v>2</v>
@@ -3408,17 +5073,17 @@
         <f t="shared" si="0"/>
         <v>Volkswagen</v>
       </c>
-      <c r="L9" s="35" t="s">
+      <c r="L9" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="36"/>
-      <c r="N9" s="37"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="41"/>
     </row>
     <row r="10" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="37" t="s">
         <v>529</v>
       </c>
-      <c r="C10" s="60"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="5">
         <f>COUNTIF($I6:I$14,B10)</f>
         <v>5</v>
@@ -3579,6 +5244,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:O5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:O7"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="B8:C8"/>
@@ -3586,12 +5257,6 @@
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:O5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:O7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3612,7 +5277,7 @@
   <sheetViews>
     <sheetView topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V21" sqref="V21"/>
+      <selection pane="bottomLeft" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3640,13 +5305,13 @@
   <sheetData>
     <row r="2" spans="2:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="42" t="s">
         <v>525</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
       <c r="I3" s="23" t="s">
         <v>359</v>
       </c>
@@ -3661,12 +5326,12 @@
       <c r="B4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="35" t="s">
         <v>520</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
       <c r="I4" s="8" t="s">
         <v>363</v>
       </c>
@@ -3697,10 +5362,10 @@
     </row>
     <row r="5" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="62"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
       <c r="I5" s="8" t="s">
         <v>341</v>
       </c>
@@ -3734,10 +5399,10 @@
     </row>
     <row r="6" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="62"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
       <c r="I6" s="8" t="s">
         <v>342</v>
       </c>
@@ -3773,12 +5438,12 @@
       <c r="B7" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="36" t="s">
         <v>362</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
       <c r="I7" s="8" t="s">
         <v>343</v>
       </c>
@@ -3812,10 +5477,10 @@
     </row>
     <row r="8" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="63"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
       <c r="I8" s="8" t="s">
         <v>344</v>
       </c>
@@ -4357,9 +6022,9 @@
   </sheetPr>
   <dimension ref="C1:W255"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U5" sqref="U5"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10909,57 +12574,72 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:Q129"/>
+  <dimension ref="A1:R129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="3.42578125" customWidth="1"/>
     <col min="6" max="6" width="62.5703125" customWidth="1"/>
-    <col min="8" max="8" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="8" max="9" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>384</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="F2" t="s">
         <v>527</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>385</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>386</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>596</v>
+      </c>
+      <c r="L2" t="s">
+        <v>887</v>
+      </c>
+      <c r="N2" t="s">
+        <v>385</v>
+      </c>
+      <c r="O2" t="s">
+        <v>386</v>
+      </c>
+      <c r="P2" t="s">
         <v>522</v>
       </c>
-      <c r="K2" t="s">
+      <c r="Q2" t="s">
         <v>514</v>
       </c>
-      <c r="L2" t="s">
+      <c r="R2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
         <v>526</v>
       </c>
@@ -10969,8 +12649,36 @@
       <c r="F3" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>597</v>
+      </c>
+      <c r="J3" t="s">
+        <v>598</v>
+      </c>
+      <c r="K3" t="s">
+        <v>599</v>
+      </c>
+      <c r="L3">
+        <f>LEN(K3)</f>
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
+        <v>597</v>
+      </c>
+      <c r="O3" t="s">
+        <v>598</v>
+      </c>
+      <c r="P3" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>889</v>
+      </c>
+      <c r="R3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
       <c r="B4" s="65"/>
       <c r="C4" s="65"/>
@@ -10978,8 +12686,36 @@
       <c r="F4" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>600</v>
+      </c>
+      <c r="J4" t="s">
+        <v>601</v>
+      </c>
+      <c r="K4" t="s">
+        <v>602</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L67" si="0">LEN(K4)</f>
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>600</v>
+      </c>
+      <c r="O4" t="s">
+        <v>601</v>
+      </c>
+      <c r="P4" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>892</v>
+      </c>
+      <c r="R4" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="65"/>
       <c r="C5" s="65"/>
@@ -10987,8 +12723,36 @@
       <c r="F5" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>603</v>
+      </c>
+      <c r="J5" t="s">
+        <v>604</v>
+      </c>
+      <c r="K5" t="s">
+        <v>605</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N5" t="s">
+        <v>603</v>
+      </c>
+      <c r="O5" t="s">
+        <v>604</v>
+      </c>
+      <c r="P5" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>894</v>
+      </c>
+      <c r="R5" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
       <c r="B6" s="65"/>
       <c r="C6" s="65"/>
@@ -10996,8 +12760,36 @@
       <c r="F6" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>606</v>
+      </c>
+      <c r="J6" t="s">
+        <v>607</v>
+      </c>
+      <c r="K6" t="s">
+        <v>608</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="N6" t="s">
+        <v>606</v>
+      </c>
+      <c r="O6" t="s">
+        <v>607</v>
+      </c>
+      <c r="P6" t="s">
+        <v>896</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>897</v>
+      </c>
+      <c r="R6" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
       <c r="B7" s="65"/>
       <c r="C7" s="65"/>
@@ -11005,8 +12797,36 @@
       <c r="F7" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>609</v>
+      </c>
+      <c r="J7" t="s">
+        <v>610</v>
+      </c>
+      <c r="K7" t="s">
+        <v>611</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N7" t="s">
+        <v>609</v>
+      </c>
+      <c r="O7" t="s">
+        <v>610</v>
+      </c>
+      <c r="P7" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>899</v>
+      </c>
+      <c r="R7" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -11014,8 +12834,36 @@
       <c r="F8" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>612</v>
+      </c>
+      <c r="J8" t="s">
+        <v>601</v>
+      </c>
+      <c r="K8" t="s">
+        <v>613</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N8" t="s">
+        <v>612</v>
+      </c>
+      <c r="O8" t="s">
+        <v>601</v>
+      </c>
+      <c r="P8" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>901</v>
+      </c>
+      <c r="R8" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -11023,8 +12871,36 @@
       <c r="F9" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>614</v>
+      </c>
+      <c r="J9" t="s">
+        <v>615</v>
+      </c>
+      <c r="K9" t="s">
+        <v>616</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="N9" t="s">
+        <v>614</v>
+      </c>
+      <c r="O9" t="s">
+        <v>615</v>
+      </c>
+      <c r="P9" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>903</v>
+      </c>
+      <c r="R9" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -11032,8 +12908,36 @@
       <c r="F10" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>617</v>
+      </c>
+      <c r="J10" t="s">
+        <v>618</v>
+      </c>
+      <c r="K10" t="s">
+        <v>619</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="N10" t="s">
+        <v>617</v>
+      </c>
+      <c r="O10" t="s">
+        <v>618</v>
+      </c>
+      <c r="P10" t="s">
+        <v>905</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>906</v>
+      </c>
+      <c r="R10" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
@@ -11041,8 +12945,36 @@
       <c r="F11" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>620</v>
+      </c>
+      <c r="J11" t="s">
+        <v>621</v>
+      </c>
+      <c r="K11" t="s">
+        <v>622</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N11" t="s">
+        <v>620</v>
+      </c>
+      <c r="O11" t="s">
+        <v>621</v>
+      </c>
+      <c r="P11" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>908</v>
+      </c>
+      <c r="R11" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
@@ -11050,8 +12982,36 @@
       <c r="F12" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>623</v>
+      </c>
+      <c r="J12" t="s">
+        <v>624</v>
+      </c>
+      <c r="K12" t="s">
+        <v>625</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="N12" t="s">
+        <v>623</v>
+      </c>
+      <c r="O12" t="s">
+        <v>624</v>
+      </c>
+      <c r="P12" t="s">
+        <v>910</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>911</v>
+      </c>
+      <c r="R12" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -11059,585 +13019,3861 @@
       <c r="F13" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>626</v>
+      </c>
+      <c r="J13" t="s">
+        <v>621</v>
+      </c>
+      <c r="K13" t="s">
+        <v>627</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N13" t="s">
+        <v>626</v>
+      </c>
+      <c r="O13" t="s">
+        <v>621</v>
+      </c>
+      <c r="P13" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>913</v>
+      </c>
+      <c r="R13" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>628</v>
+      </c>
+      <c r="J14" t="s">
+        <v>629</v>
+      </c>
+      <c r="K14" t="s">
+        <v>630</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="N14" t="s">
+        <v>628</v>
+      </c>
+      <c r="O14" t="s">
+        <v>629</v>
+      </c>
+      <c r="P14" t="s">
+        <v>915</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>916</v>
+      </c>
+      <c r="R14" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>631</v>
+      </c>
+      <c r="J15" t="s">
+        <v>601</v>
+      </c>
+      <c r="K15" t="s">
+        <v>632</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="N15" t="s">
+        <v>631</v>
+      </c>
+      <c r="O15" t="s">
+        <v>601</v>
+      </c>
+      <c r="P15" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>918</v>
+      </c>
+      <c r="R15" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>633</v>
+      </c>
+      <c r="J16" t="s">
+        <v>629</v>
+      </c>
+      <c r="K16" t="s">
+        <v>634</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="N16" t="s">
+        <v>633</v>
+      </c>
+      <c r="O16" t="s">
+        <v>629</v>
+      </c>
+      <c r="P16" t="s">
+        <v>910</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>920</v>
+      </c>
+      <c r="R16" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="17" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>635</v>
+      </c>
+      <c r="J17" t="s">
+        <v>598</v>
+      </c>
+      <c r="K17" t="s">
+        <v>636</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N17" t="s">
+        <v>635</v>
+      </c>
+      <c r="O17" t="s">
+        <v>598</v>
+      </c>
+      <c r="P17" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>922</v>
+      </c>
+      <c r="R17" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="18" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>637</v>
+      </c>
+      <c r="J18" t="s">
+        <v>618</v>
+      </c>
+      <c r="K18" t="s">
+        <v>638</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="N18" t="s">
+        <v>637</v>
+      </c>
+      <c r="O18" t="s">
+        <v>618</v>
+      </c>
+      <c r="P18" t="s">
+        <v>910</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>924</v>
+      </c>
+      <c r="R18" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="19" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>639</v>
+      </c>
+      <c r="J19" t="s">
+        <v>640</v>
+      </c>
+      <c r="K19" t="s">
+        <v>641</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N19" t="s">
+        <v>639</v>
+      </c>
+      <c r="O19" t="s">
+        <v>640</v>
+      </c>
+      <c r="P19" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>926</v>
+      </c>
+      <c r="R19" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="20" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>642</v>
+      </c>
+      <c r="J20" t="s">
+        <v>643</v>
+      </c>
+      <c r="K20" t="s">
+        <v>644</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="N20" t="s">
+        <v>642</v>
+      </c>
+      <c r="O20" t="s">
+        <v>643</v>
+      </c>
+      <c r="P20" t="s">
+        <v>910</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>928</v>
+      </c>
+      <c r="R20" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="21" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>645</v>
+      </c>
+      <c r="J21" t="s">
+        <v>615</v>
+      </c>
+      <c r="K21" t="s">
+        <v>646</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="N21" t="s">
+        <v>645</v>
+      </c>
+      <c r="O21" t="s">
+        <v>615</v>
+      </c>
+      <c r="P21" t="s">
+        <v>910</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>930</v>
+      </c>
+      <c r="R21" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="22" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>647</v>
+      </c>
+      <c r="J22" t="s">
+        <v>629</v>
+      </c>
+      <c r="K22" t="s">
+        <v>648</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="N22" t="s">
+        <v>647</v>
+      </c>
+      <c r="O22" t="s">
+        <v>629</v>
+      </c>
+      <c r="P22" t="s">
+        <v>932</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>933</v>
+      </c>
+      <c r="R22" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="23" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>649</v>
+      </c>
+      <c r="J23" t="s">
+        <v>604</v>
+      </c>
+      <c r="K23" t="s">
+        <v>650</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="N23" t="s">
+        <v>649</v>
+      </c>
+      <c r="O23" t="s">
+        <v>604</v>
+      </c>
+      <c r="P23" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>935</v>
+      </c>
+      <c r="R23" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="24" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>651</v>
+      </c>
+      <c r="J24" t="s">
+        <v>610</v>
+      </c>
+      <c r="K24" t="s">
+        <v>652</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N24" t="s">
+        <v>651</v>
+      </c>
+      <c r="O24" t="s">
+        <v>610</v>
+      </c>
+      <c r="P24" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>937</v>
+      </c>
+      <c r="R24" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="25" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>653</v>
+      </c>
+      <c r="J25" t="s">
+        <v>610</v>
+      </c>
+      <c r="K25" t="s">
+        <v>654</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="N25" t="s">
+        <v>653</v>
+      </c>
+      <c r="O25" t="s">
+        <v>610</v>
+      </c>
+      <c r="P25" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>939</v>
+      </c>
+      <c r="R25" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="26" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>655</v>
+      </c>
+      <c r="J26" t="s">
+        <v>610</v>
+      </c>
+      <c r="K26" t="s">
+        <v>656</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="N26" t="s">
+        <v>655</v>
+      </c>
+      <c r="O26" t="s">
+        <v>610</v>
+      </c>
+      <c r="P26" t="s">
+        <v>910</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>941</v>
+      </c>
+      <c r="R26" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="27" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>657</v>
+      </c>
+      <c r="J27" t="s">
+        <v>658</v>
+      </c>
+      <c r="K27" t="s">
+        <v>659</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="N27" t="s">
+        <v>657</v>
+      </c>
+      <c r="O27" t="s">
+        <v>658</v>
+      </c>
+      <c r="P27" t="s">
+        <v>943</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>944</v>
+      </c>
+      <c r="R27" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="28" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>660</v>
+      </c>
+      <c r="J28" t="s">
+        <v>661</v>
+      </c>
+      <c r="K28" t="s">
+        <v>662</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="N28" t="s">
+        <v>660</v>
+      </c>
+      <c r="O28" t="s">
+        <v>661</v>
+      </c>
+      <c r="P28" t="s">
+        <v>905</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>946</v>
+      </c>
+      <c r="R28" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="29" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>663</v>
+      </c>
+      <c r="J29" t="s">
+        <v>629</v>
+      </c>
+      <c r="K29" t="s">
+        <v>664</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N29" t="s">
+        <v>663</v>
+      </c>
+      <c r="O29" t="s">
+        <v>629</v>
+      </c>
+      <c r="P29" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>948</v>
+      </c>
+      <c r="R29" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="30" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>665</v>
+      </c>
+      <c r="J30" t="s">
+        <v>604</v>
+      </c>
+      <c r="K30" t="s">
+        <v>666</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N30" t="s">
+        <v>665</v>
+      </c>
+      <c r="O30" t="s">
+        <v>604</v>
+      </c>
+      <c r="P30" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>950</v>
+      </c>
+      <c r="R30" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="31" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>667</v>
+      </c>
+      <c r="J31" t="s">
+        <v>668</v>
+      </c>
+      <c r="K31" t="s">
+        <v>669</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="N31" t="s">
+        <v>667</v>
+      </c>
+      <c r="O31" t="s">
+        <v>668</v>
+      </c>
+      <c r="P31" t="s">
+        <v>905</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>952</v>
+      </c>
+      <c r="R31" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="32" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>670</v>
+      </c>
+      <c r="J32" t="s">
+        <v>610</v>
+      </c>
+      <c r="K32" t="s">
+        <v>671</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N32" t="s">
+        <v>670</v>
+      </c>
+      <c r="O32" t="s">
+        <v>610</v>
+      </c>
+      <c r="P32" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>954</v>
+      </c>
+      <c r="R32" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="33" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>672</v>
+      </c>
+      <c r="J33" t="s">
+        <v>624</v>
+      </c>
+      <c r="K33" t="s">
+        <v>673</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N33" t="s">
+        <v>672</v>
+      </c>
+      <c r="O33" t="s">
+        <v>624</v>
+      </c>
+      <c r="P33" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>956</v>
+      </c>
+      <c r="R33" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="34" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>674</v>
+      </c>
+      <c r="J34" t="s">
+        <v>624</v>
+      </c>
+      <c r="K34" t="s">
+        <v>675</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N34" t="s">
+        <v>674</v>
+      </c>
+      <c r="O34" t="s">
+        <v>624</v>
+      </c>
+      <c r="P34" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>958</v>
+      </c>
+      <c r="R34" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="35" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>676</v>
+      </c>
+      <c r="J35" t="s">
+        <v>615</v>
+      </c>
+      <c r="K35" t="s">
+        <v>677</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N35" t="s">
+        <v>676</v>
+      </c>
+      <c r="O35" t="s">
+        <v>615</v>
+      </c>
+      <c r="P35" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>960</v>
+      </c>
+      <c r="R35" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="36" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>678</v>
+      </c>
+      <c r="J36" t="s">
+        <v>679</v>
+      </c>
+      <c r="K36" t="s">
+        <v>680</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N36" t="s">
+        <v>678</v>
+      </c>
+      <c r="O36" t="s">
+        <v>679</v>
+      </c>
+      <c r="P36" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>962</v>
+      </c>
+      <c r="R36" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="37" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>681</v>
+      </c>
+      <c r="J37" t="s">
+        <v>679</v>
+      </c>
+      <c r="K37" t="s">
+        <v>682</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N37" t="s">
+        <v>681</v>
+      </c>
+      <c r="O37" t="s">
+        <v>679</v>
+      </c>
+      <c r="P37" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>964</v>
+      </c>
+      <c r="R37" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="38" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>683</v>
+      </c>
+      <c r="J38" t="s">
+        <v>604</v>
+      </c>
+      <c r="K38" t="s">
+        <v>684</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N38" t="s">
+        <v>683</v>
+      </c>
+      <c r="O38" t="s">
+        <v>604</v>
+      </c>
+      <c r="P38" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>966</v>
+      </c>
+      <c r="R38" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="39" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>670</v>
+      </c>
+      <c r="J39" t="s">
+        <v>604</v>
+      </c>
+      <c r="K39" t="s">
+        <v>685</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N39" t="s">
+        <v>670</v>
+      </c>
+      <c r="O39" t="s">
+        <v>604</v>
+      </c>
+      <c r="P39" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>968</v>
+      </c>
+      <c r="R39" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="40" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>686</v>
+      </c>
+      <c r="J40" t="s">
+        <v>610</v>
+      </c>
+      <c r="K40" t="s">
+        <v>687</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N40" t="s">
+        <v>686</v>
+      </c>
+      <c r="O40" t="s">
+        <v>610</v>
+      </c>
+      <c r="P40" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>970</v>
+      </c>
+      <c r="R40" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="41" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>688</v>
+      </c>
+      <c r="J41" t="s">
+        <v>615</v>
+      </c>
+      <c r="K41" t="s">
+        <v>689</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N41" t="s">
+        <v>688</v>
+      </c>
+      <c r="O41" t="s">
+        <v>615</v>
+      </c>
+      <c r="P41" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>972</v>
+      </c>
+      <c r="R41" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="42" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>690</v>
+      </c>
+      <c r="J42" t="s">
+        <v>679</v>
+      </c>
+      <c r="K42" t="s">
+        <v>691</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N42" t="s">
+        <v>690</v>
+      </c>
+      <c r="O42" t="s">
+        <v>679</v>
+      </c>
+      <c r="P42" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>974</v>
+      </c>
+      <c r="R42" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="43" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>692</v>
+      </c>
+      <c r="J43" t="s">
+        <v>601</v>
+      </c>
+      <c r="K43" t="s">
+        <v>693</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="N43" t="s">
+        <v>692</v>
+      </c>
+      <c r="O43" t="s">
+        <v>601</v>
+      </c>
+      <c r="P43" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>976</v>
+      </c>
+      <c r="R43" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="44" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I44" t="s">
+        <v>694</v>
+      </c>
+      <c r="J44" t="s">
+        <v>629</v>
+      </c>
+      <c r="K44" t="s">
+        <v>695</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="N44" t="s">
+        <v>694</v>
+      </c>
+      <c r="O44" t="s">
+        <v>629</v>
+      </c>
+      <c r="P44" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>978</v>
+      </c>
+      <c r="R44" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="45" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>696</v>
+      </c>
+      <c r="J45" t="s">
+        <v>697</v>
+      </c>
+      <c r="K45" t="s">
+        <v>698</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N45" t="s">
+        <v>696</v>
+      </c>
+      <c r="O45" t="s">
+        <v>697</v>
+      </c>
+      <c r="P45" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>980</v>
+      </c>
+      <c r="R45" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="46" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>699</v>
+      </c>
+      <c r="J46" t="s">
+        <v>668</v>
+      </c>
+      <c r="K46" t="s">
+        <v>700</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N46" t="s">
+        <v>699</v>
+      </c>
+      <c r="O46" t="s">
+        <v>668</v>
+      </c>
+      <c r="P46" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>982</v>
+      </c>
+      <c r="R46" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="47" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>701</v>
+      </c>
+      <c r="J47" t="s">
+        <v>658</v>
+      </c>
+      <c r="K47" t="s">
+        <v>702</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="N47" t="s">
+        <v>701</v>
+      </c>
+      <c r="O47" t="s">
+        <v>658</v>
+      </c>
+      <c r="P47" t="s">
+        <v>905</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>984</v>
+      </c>
+      <c r="R47" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="48" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>703</v>
+      </c>
+      <c r="J48" t="s">
+        <v>621</v>
+      </c>
+      <c r="K48" t="s">
+        <v>704</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N48" t="s">
+        <v>703</v>
+      </c>
+      <c r="O48" t="s">
+        <v>621</v>
+      </c>
+      <c r="P48" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>986</v>
+      </c>
+      <c r="R48" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="49" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>705</v>
+      </c>
+      <c r="J49" t="s">
+        <v>706</v>
+      </c>
+      <c r="K49" t="s">
+        <v>707</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="N49" t="s">
+        <v>705</v>
+      </c>
+      <c r="O49" t="s">
+        <v>706</v>
+      </c>
+      <c r="P49" t="s">
+        <v>988</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>989</v>
+      </c>
+      <c r="R49" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="50" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F50" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>708</v>
+      </c>
+      <c r="J50" t="s">
+        <v>615</v>
+      </c>
+      <c r="K50" t="s">
+        <v>709</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N50" t="s">
+        <v>708</v>
+      </c>
+      <c r="O50" t="s">
+        <v>615</v>
+      </c>
+      <c r="P50" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>991</v>
+      </c>
+      <c r="R50" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="51" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F51" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>710</v>
+      </c>
+      <c r="J51" t="s">
+        <v>658</v>
+      </c>
+      <c r="K51" t="s">
+        <v>711</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="N51" t="s">
+        <v>710</v>
+      </c>
+      <c r="O51" t="s">
+        <v>658</v>
+      </c>
+      <c r="P51" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>993</v>
+      </c>
+      <c r="R51" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="52" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>712</v>
+      </c>
+      <c r="J52" t="s">
+        <v>697</v>
+      </c>
+      <c r="K52" t="s">
+        <v>713</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="N52" t="s">
+        <v>712</v>
+      </c>
+      <c r="O52" t="s">
+        <v>697</v>
+      </c>
+      <c r="P52" t="s">
+        <v>905</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>995</v>
+      </c>
+      <c r="R52" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="53" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F53" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>714</v>
+      </c>
+      <c r="J53" t="s">
+        <v>624</v>
+      </c>
+      <c r="K53" t="s">
+        <v>715</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="N53" t="s">
+        <v>714</v>
+      </c>
+      <c r="O53" t="s">
+        <v>624</v>
+      </c>
+      <c r="P53" t="s">
+        <v>910</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>997</v>
+      </c>
+      <c r="R53" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="54" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>716</v>
+      </c>
+      <c r="J54" t="s">
+        <v>717</v>
+      </c>
+      <c r="K54" t="s">
+        <v>718</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="N54" t="s">
+        <v>716</v>
+      </c>
+      <c r="O54" t="s">
+        <v>717</v>
+      </c>
+      <c r="P54" t="s">
+        <v>999</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>1000</v>
+      </c>
+      <c r="R54" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="55" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I55" t="s">
+        <v>719</v>
+      </c>
+      <c r="J55" t="s">
+        <v>720</v>
+      </c>
+      <c r="K55" t="s">
+        <v>721</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N55" t="s">
+        <v>719</v>
+      </c>
+      <c r="O55" t="s">
+        <v>720</v>
+      </c>
+      <c r="P55" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>1002</v>
+      </c>
+      <c r="R55" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="56" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F56" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I56" t="s">
+        <v>722</v>
+      </c>
+      <c r="J56" t="s">
+        <v>723</v>
+      </c>
+      <c r="K56" t="s">
+        <v>724</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N56" t="s">
+        <v>722</v>
+      </c>
+      <c r="O56" t="s">
+        <v>723</v>
+      </c>
+      <c r="P56" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>1004</v>
+      </c>
+      <c r="R56" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="57" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F57" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I57" t="s">
+        <v>725</v>
+      </c>
+      <c r="J57" t="s">
+        <v>618</v>
+      </c>
+      <c r="K57" t="s">
+        <v>726</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N57" t="s">
+        <v>725</v>
+      </c>
+      <c r="O57" t="s">
+        <v>618</v>
+      </c>
+      <c r="P57" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>1006</v>
+      </c>
+      <c r="R57" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="58" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I58" t="s">
+        <v>727</v>
+      </c>
+      <c r="J58" t="s">
+        <v>717</v>
+      </c>
+      <c r="K58" t="s">
+        <v>728</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="N58" t="s">
+        <v>727</v>
+      </c>
+      <c r="O58" t="s">
+        <v>717</v>
+      </c>
+      <c r="P58" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>1008</v>
+      </c>
+      <c r="R58" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="59" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
+        <v>729</v>
+      </c>
+      <c r="J59" t="s">
+        <v>723</v>
+      </c>
+      <c r="K59" t="s">
+        <v>730</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N59" t="s">
+        <v>729</v>
+      </c>
+      <c r="O59" t="s">
+        <v>723</v>
+      </c>
+      <c r="P59" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>1010</v>
+      </c>
+      <c r="R59" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="60" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F60" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I60" t="s">
+        <v>731</v>
+      </c>
+      <c r="J60" t="s">
+        <v>723</v>
+      </c>
+      <c r="K60" t="s">
+        <v>732</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N60" t="s">
+        <v>731</v>
+      </c>
+      <c r="O60" t="s">
+        <v>723</v>
+      </c>
+      <c r="P60" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R60" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="61" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F61" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I61" t="s">
+        <v>733</v>
+      </c>
+      <c r="J61" t="s">
+        <v>734</v>
+      </c>
+      <c r="K61" t="s">
+        <v>735</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N61" t="s">
+        <v>733</v>
+      </c>
+      <c r="O61" t="s">
+        <v>734</v>
+      </c>
+      <c r="P61" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>1014</v>
+      </c>
+      <c r="R61" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="62" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I62" t="s">
+        <v>736</v>
+      </c>
+      <c r="J62" t="s">
+        <v>734</v>
+      </c>
+      <c r="K62" t="s">
+        <v>737</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N62" t="s">
+        <v>736</v>
+      </c>
+      <c r="O62" t="s">
+        <v>734</v>
+      </c>
+      <c r="P62" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>1016</v>
+      </c>
+      <c r="R62" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="63" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I63" t="s">
+        <v>738</v>
+      </c>
+      <c r="J63" t="s">
+        <v>679</v>
+      </c>
+      <c r="K63" t="s">
+        <v>739</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N63" t="s">
+        <v>738</v>
+      </c>
+      <c r="O63" t="s">
+        <v>679</v>
+      </c>
+      <c r="P63" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>1018</v>
+      </c>
+      <c r="R63" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="64" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F64" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I64" t="s">
+        <v>740</v>
+      </c>
+      <c r="J64" t="s">
+        <v>741</v>
+      </c>
+      <c r="K64" t="s">
+        <v>742</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="N64" t="s">
+        <v>740</v>
+      </c>
+      <c r="O64" t="s">
+        <v>741</v>
+      </c>
+      <c r="P64" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>1020</v>
+      </c>
+      <c r="R64" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="65" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F65" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I65" t="s">
+        <v>743</v>
+      </c>
+      <c r="J65" t="s">
+        <v>723</v>
+      </c>
+      <c r="K65" t="s">
+        <v>744</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="N65" t="s">
+        <v>743</v>
+      </c>
+      <c r="O65" t="s">
+        <v>723</v>
+      </c>
+      <c r="P65" t="s">
+        <v>905</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>1022</v>
+      </c>
+      <c r="R65" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="66" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I66" t="s">
+        <v>745</v>
+      </c>
+      <c r="J66" t="s">
+        <v>746</v>
+      </c>
+      <c r="K66" t="s">
+        <v>747</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N66" t="s">
+        <v>745</v>
+      </c>
+      <c r="O66" t="s">
+        <v>746</v>
+      </c>
+      <c r="P66" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>1024</v>
+      </c>
+      <c r="R66" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="67" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F67" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I67" t="s">
+        <v>748</v>
+      </c>
+      <c r="J67" t="s">
+        <v>643</v>
+      </c>
+      <c r="K67" t="s">
+        <v>749</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="N67" t="s">
+        <v>748</v>
+      </c>
+      <c r="O67" t="s">
+        <v>643</v>
+      </c>
+      <c r="P67" t="s">
+        <v>915</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>1026</v>
+      </c>
+      <c r="R67" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="68" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F68" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I68" t="s">
+        <v>750</v>
+      </c>
+      <c r="J68" t="s">
+        <v>741</v>
+      </c>
+      <c r="K68" t="s">
+        <v>751</v>
+      </c>
+      <c r="L68">
+        <f t="shared" ref="L68:L129" si="1">LEN(K68)</f>
+        <v>24</v>
+      </c>
+      <c r="N68" t="s">
+        <v>750</v>
+      </c>
+      <c r="O68" t="s">
+        <v>741</v>
+      </c>
+      <c r="P68" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>1028</v>
+      </c>
+      <c r="R68" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="69" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F69" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I69" t="s">
+        <v>752</v>
+      </c>
+      <c r="J69" t="s">
+        <v>753</v>
+      </c>
+      <c r="K69" t="s">
+        <v>754</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="N69" t="s">
+        <v>752</v>
+      </c>
+      <c r="O69" t="s">
+        <v>753</v>
+      </c>
+      <c r="P69" t="s">
+        <v>905</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>1030</v>
+      </c>
+      <c r="R69" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="70" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F70" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I70" t="s">
+        <v>755</v>
+      </c>
+      <c r="J70" t="s">
+        <v>756</v>
+      </c>
+      <c r="K70" t="s">
+        <v>757</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="N70" t="s">
+        <v>755</v>
+      </c>
+      <c r="O70" t="s">
+        <v>756</v>
+      </c>
+      <c r="P70" t="s">
+        <v>905</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>1032</v>
+      </c>
+      <c r="R70" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="71" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F71" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I71" t="s">
+        <v>758</v>
+      </c>
+      <c r="J71" t="s">
+        <v>741</v>
+      </c>
+      <c r="K71" t="s">
+        <v>759</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="N71" t="s">
+        <v>758</v>
+      </c>
+      <c r="O71" t="s">
+        <v>741</v>
+      </c>
+      <c r="P71" t="s">
+        <v>999</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>1034</v>
+      </c>
+      <c r="R71" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="72" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I72" t="s">
+        <v>760</v>
+      </c>
+      <c r="J72" t="s">
+        <v>717</v>
+      </c>
+      <c r="K72" t="s">
+        <v>761</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N72" t="s">
+        <v>760</v>
+      </c>
+      <c r="O72" t="s">
+        <v>717</v>
+      </c>
+      <c r="P72" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>1036</v>
+      </c>
+      <c r="R72" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="73" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F73" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I73" t="s">
+        <v>762</v>
+      </c>
+      <c r="J73" t="s">
+        <v>741</v>
+      </c>
+      <c r="K73" t="s">
+        <v>763</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="N73" t="s">
+        <v>762</v>
+      </c>
+      <c r="O73" t="s">
+        <v>741</v>
+      </c>
+      <c r="P73" t="s">
+        <v>905</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>1038</v>
+      </c>
+      <c r="R73" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="74" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F74" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I74" t="s">
+        <v>764</v>
+      </c>
+      <c r="J74" t="s">
+        <v>601</v>
+      </c>
+      <c r="K74" t="s">
+        <v>765</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="N74" t="s">
+        <v>764</v>
+      </c>
+      <c r="O74" t="s">
+        <v>601</v>
+      </c>
+      <c r="P74" t="s">
+        <v>905</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>1040</v>
+      </c>
+      <c r="R74" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="75" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F75" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I75" t="s">
+        <v>766</v>
+      </c>
+      <c r="J75" t="s">
+        <v>618</v>
+      </c>
+      <c r="K75" t="s">
+        <v>767</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N75" t="s">
+        <v>766</v>
+      </c>
+      <c r="O75" t="s">
+        <v>618</v>
+      </c>
+      <c r="P75" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>1042</v>
+      </c>
+      <c r="R75" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="76" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I76" t="s">
+        <v>768</v>
+      </c>
+      <c r="J76" t="s">
+        <v>753</v>
+      </c>
+      <c r="K76" t="s">
+        <v>769</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="N76" t="s">
+        <v>768</v>
+      </c>
+      <c r="O76" t="s">
+        <v>753</v>
+      </c>
+      <c r="P76" t="s">
+        <v>905</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>1044</v>
+      </c>
+      <c r="R76" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="77" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F77" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I77" t="s">
+        <v>770</v>
+      </c>
+      <c r="J77" t="s">
+        <v>601</v>
+      </c>
+      <c r="K77" t="s">
+        <v>771</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N77" t="s">
+        <v>770</v>
+      </c>
+      <c r="O77" t="s">
+        <v>601</v>
+      </c>
+      <c r="P77" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>1046</v>
+      </c>
+      <c r="R77" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="78" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I78" t="s">
+        <v>614</v>
+      </c>
+      <c r="J78" t="s">
+        <v>734</v>
+      </c>
+      <c r="K78" t="s">
+        <v>772</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="N78" t="s">
+        <v>614</v>
+      </c>
+      <c r="O78" t="s">
+        <v>734</v>
+      </c>
+      <c r="P78" t="s">
+        <v>905</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>1048</v>
+      </c>
+      <c r="R78" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="79" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F79" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I79" t="s">
+        <v>773</v>
+      </c>
+      <c r="J79" t="s">
+        <v>601</v>
+      </c>
+      <c r="K79" t="s">
+        <v>774</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N79" t="s">
+        <v>773</v>
+      </c>
+      <c r="O79" t="s">
+        <v>601</v>
+      </c>
+      <c r="P79" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>1050</v>
+      </c>
+      <c r="R79" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="80" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F80" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I80" t="s">
+        <v>775</v>
+      </c>
+      <c r="J80" t="s">
+        <v>604</v>
+      </c>
+      <c r="K80" t="s">
+        <v>776</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N80" t="s">
+        <v>775</v>
+      </c>
+      <c r="O80" t="s">
+        <v>604</v>
+      </c>
+      <c r="P80" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>1052</v>
+      </c>
+      <c r="R80" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="81" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F81" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I81" t="s">
+        <v>777</v>
+      </c>
+      <c r="J81" t="s">
+        <v>746</v>
+      </c>
+      <c r="K81" t="s">
+        <v>778</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N81" t="s">
+        <v>777</v>
+      </c>
+      <c r="O81" t="s">
+        <v>746</v>
+      </c>
+      <c r="P81" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>1054</v>
+      </c>
+      <c r="R81" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="82" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F82" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I82" t="s">
+        <v>779</v>
+      </c>
+      <c r="J82" t="s">
+        <v>780</v>
+      </c>
+      <c r="K82" t="s">
+        <v>781</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N82" t="s">
+        <v>779</v>
+      </c>
+      <c r="O82" t="s">
+        <v>780</v>
+      </c>
+      <c r="P82" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>1056</v>
+      </c>
+      <c r="R82" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="83" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F83" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I83" t="s">
+        <v>782</v>
+      </c>
+      <c r="J83" t="s">
+        <v>643</v>
+      </c>
+      <c r="K83" t="s">
+        <v>783</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N83" t="s">
+        <v>782</v>
+      </c>
+      <c r="O83" t="s">
+        <v>643</v>
+      </c>
+      <c r="P83" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>1058</v>
+      </c>
+      <c r="R83" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="84" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I84" t="s">
+        <v>784</v>
+      </c>
+      <c r="J84" t="s">
+        <v>741</v>
+      </c>
+      <c r="K84" t="s">
+        <v>785</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="N84" t="s">
+        <v>784</v>
+      </c>
+      <c r="O84" t="s">
+        <v>741</v>
+      </c>
+      <c r="P84" t="s">
+        <v>1060</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>1061</v>
+      </c>
+      <c r="R84" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="85" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F85" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I85" t="s">
+        <v>786</v>
+      </c>
+      <c r="J85" t="s">
+        <v>753</v>
+      </c>
+      <c r="K85" t="s">
+        <v>787</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="N85" t="s">
+        <v>786</v>
+      </c>
+      <c r="O85" t="s">
+        <v>753</v>
+      </c>
+      <c r="P85" t="s">
+        <v>910</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>1063</v>
+      </c>
+      <c r="R85" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="86" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F86" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I86" t="s">
+        <v>788</v>
+      </c>
+      <c r="J86" t="s">
+        <v>756</v>
+      </c>
+      <c r="K86" t="s">
+        <v>789</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="N86" t="s">
+        <v>788</v>
+      </c>
+      <c r="O86" t="s">
+        <v>756</v>
+      </c>
+      <c r="P86" t="s">
+        <v>910</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>1065</v>
+      </c>
+      <c r="R86" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="87" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F87" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I87" t="s">
+        <v>790</v>
+      </c>
+      <c r="J87" t="s">
+        <v>753</v>
+      </c>
+      <c r="K87" t="s">
+        <v>791</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="N87" t="s">
+        <v>790</v>
+      </c>
+      <c r="O87" t="s">
+        <v>753</v>
+      </c>
+      <c r="P87" t="s">
+        <v>905</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>1067</v>
+      </c>
+      <c r="R87" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="88" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F88" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I88" t="s">
+        <v>792</v>
+      </c>
+      <c r="J88" t="s">
+        <v>793</v>
+      </c>
+      <c r="K88" t="s">
+        <v>794</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N88" t="s">
+        <v>792</v>
+      </c>
+      <c r="O88" t="s">
+        <v>793</v>
+      </c>
+      <c r="P88" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>1069</v>
+      </c>
+      <c r="R88" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="89" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F89" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I89" t="s">
+        <v>795</v>
+      </c>
+      <c r="J89" t="s">
+        <v>717</v>
+      </c>
+      <c r="K89" t="s">
+        <v>796</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="N89" t="s">
+        <v>795</v>
+      </c>
+      <c r="O89" t="s">
+        <v>717</v>
+      </c>
+      <c r="P89" t="s">
+        <v>988</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>1071</v>
+      </c>
+      <c r="R89" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="90" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F90" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I90" t="s">
+        <v>797</v>
+      </c>
+      <c r="J90" t="s">
+        <v>798</v>
+      </c>
+      <c r="K90" t="s">
+        <v>799</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N90" t="s">
+        <v>797</v>
+      </c>
+      <c r="O90" t="s">
+        <v>798</v>
+      </c>
+      <c r="P90" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>1073</v>
+      </c>
+      <c r="R90" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="91" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F91" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I91" t="s">
+        <v>800</v>
+      </c>
+      <c r="J91" t="s">
+        <v>723</v>
+      </c>
+      <c r="K91" t="s">
+        <v>801</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N91" t="s">
+        <v>800</v>
+      </c>
+      <c r="O91" t="s">
+        <v>723</v>
+      </c>
+      <c r="P91" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>1075</v>
+      </c>
+      <c r="R91" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="92" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F92" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I92" t="s">
+        <v>802</v>
+      </c>
+      <c r="J92" t="s">
+        <v>734</v>
+      </c>
+      <c r="K92" t="s">
+        <v>803</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N92" t="s">
+        <v>802</v>
+      </c>
+      <c r="O92" t="s">
+        <v>734</v>
+      </c>
+      <c r="P92" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>1077</v>
+      </c>
+      <c r="R92" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="93" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F93" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I93" t="s">
+        <v>804</v>
+      </c>
+      <c r="J93" t="s">
+        <v>805</v>
+      </c>
+      <c r="K93" t="s">
+        <v>806</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="N93" t="s">
+        <v>804</v>
+      </c>
+      <c r="O93" t="s">
+        <v>805</v>
+      </c>
+      <c r="P93" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>1079</v>
+      </c>
+      <c r="R93" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="94" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F94" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I94" t="s">
+        <v>807</v>
+      </c>
+      <c r="J94" t="s">
+        <v>793</v>
+      </c>
+      <c r="K94" t="s">
+        <v>808</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="N94" t="s">
+        <v>807</v>
+      </c>
+      <c r="O94" t="s">
+        <v>793</v>
+      </c>
+      <c r="P94" t="s">
+        <v>905</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>1081</v>
+      </c>
+      <c r="R94" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="95" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F95" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I95" t="s">
+        <v>809</v>
+      </c>
+      <c r="J95" t="s">
+        <v>810</v>
+      </c>
+      <c r="K95" t="s">
+        <v>811</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="N95" t="s">
+        <v>809</v>
+      </c>
+      <c r="O95" t="s">
+        <v>810</v>
+      </c>
+      <c r="P95" t="s">
+        <v>988</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>1083</v>
+      </c>
+      <c r="R95" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="96" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F96" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I96" t="s">
+        <v>812</v>
+      </c>
+      <c r="J96" t="s">
+        <v>753</v>
+      </c>
+      <c r="K96" t="s">
+        <v>813</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="N96" t="s">
+        <v>812</v>
+      </c>
+      <c r="O96" t="s">
+        <v>753</v>
+      </c>
+      <c r="P96" t="s">
+        <v>905</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>1085</v>
+      </c>
+      <c r="R96" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="97" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F97" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I97" t="s">
+        <v>814</v>
+      </c>
+      <c r="J97" t="s">
+        <v>741</v>
+      </c>
+      <c r="K97" t="s">
+        <v>815</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="N97" t="s">
+        <v>814</v>
+      </c>
+      <c r="O97" t="s">
+        <v>741</v>
+      </c>
+      <c r="P97" t="s">
+        <v>905</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>1087</v>
+      </c>
+      <c r="R97" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="98" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F98" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I98" t="s">
+        <v>816</v>
+      </c>
+      <c r="J98" t="s">
+        <v>817</v>
+      </c>
+      <c r="K98" t="s">
+        <v>818</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N98" t="s">
+        <v>816</v>
+      </c>
+      <c r="O98" t="s">
+        <v>817</v>
+      </c>
+      <c r="P98" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>1089</v>
+      </c>
+      <c r="R98" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="99" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F99" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I99" t="s">
+        <v>819</v>
+      </c>
+      <c r="J99" t="s">
+        <v>746</v>
+      </c>
+      <c r="K99" t="s">
+        <v>820</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N99" t="s">
+        <v>819</v>
+      </c>
+      <c r="O99" t="s">
+        <v>746</v>
+      </c>
+      <c r="P99" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>1091</v>
+      </c>
+      <c r="R99" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="100" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F100" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I100" t="s">
+        <v>821</v>
+      </c>
+      <c r="J100" t="s">
+        <v>723</v>
+      </c>
+      <c r="K100" t="s">
+        <v>771</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N100" t="s">
+        <v>821</v>
+      </c>
+      <c r="O100" t="s">
+        <v>723</v>
+      </c>
+      <c r="P100" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>1046</v>
+      </c>
+      <c r="R100" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="101" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F101" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I101" t="s">
+        <v>822</v>
+      </c>
+      <c r="J101" t="s">
+        <v>756</v>
+      </c>
+      <c r="K101" t="s">
+        <v>823</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N101" t="s">
+        <v>822</v>
+      </c>
+      <c r="O101" t="s">
+        <v>756</v>
+      </c>
+      <c r="P101" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>1093</v>
+      </c>
+      <c r="R101" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="102" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F102" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I102" t="s">
+        <v>824</v>
+      </c>
+      <c r="J102" t="s">
+        <v>825</v>
+      </c>
+      <c r="K102" t="s">
+        <v>826</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="N102" t="s">
+        <v>824</v>
+      </c>
+      <c r="O102" t="s">
+        <v>825</v>
+      </c>
+      <c r="P102" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>1095</v>
+      </c>
+      <c r="R102" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="103" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F103" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I103" t="s">
+        <v>827</v>
+      </c>
+      <c r="J103" t="s">
+        <v>780</v>
+      </c>
+      <c r="K103" t="s">
+        <v>828</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N103" t="s">
+        <v>827</v>
+      </c>
+      <c r="O103" t="s">
+        <v>780</v>
+      </c>
+      <c r="P103" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>1097</v>
+      </c>
+      <c r="R103" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="104" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F104" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I104" t="s">
+        <v>829</v>
+      </c>
+      <c r="J104" t="s">
+        <v>720</v>
+      </c>
+      <c r="K104" t="s">
+        <v>830</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N104" t="s">
+        <v>829</v>
+      </c>
+      <c r="O104" t="s">
+        <v>720</v>
+      </c>
+      <c r="P104" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>1099</v>
+      </c>
+      <c r="R104" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="105" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F105" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I105" t="s">
+        <v>831</v>
+      </c>
+      <c r="J105" t="s">
+        <v>717</v>
+      </c>
+      <c r="K105" t="s">
+        <v>832</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="N105" t="s">
+        <v>831</v>
+      </c>
+      <c r="O105" t="s">
+        <v>717</v>
+      </c>
+      <c r="P105" t="s">
+        <v>988</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>1101</v>
+      </c>
+      <c r="R105" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="106" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F106" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I106" t="s">
+        <v>833</v>
+      </c>
+      <c r="J106" t="s">
+        <v>723</v>
+      </c>
+      <c r="K106" t="s">
+        <v>834</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N106" t="s">
+        <v>833</v>
+      </c>
+      <c r="O106" t="s">
+        <v>723</v>
+      </c>
+      <c r="P106" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>1103</v>
+      </c>
+      <c r="R106" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="107" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F107" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I107" t="s">
+        <v>835</v>
+      </c>
+      <c r="J107" t="s">
+        <v>618</v>
+      </c>
+      <c r="K107" t="s">
+        <v>836</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="N107" t="s">
+        <v>835</v>
+      </c>
+      <c r="O107" t="s">
+        <v>618</v>
+      </c>
+      <c r="P107" t="s">
+        <v>910</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R107" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="108" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F108" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I108" t="s">
+        <v>837</v>
+      </c>
+      <c r="J108" t="s">
+        <v>723</v>
+      </c>
+      <c r="K108" t="s">
+        <v>838</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N108" t="s">
+        <v>837</v>
+      </c>
+      <c r="O108" t="s">
+        <v>723</v>
+      </c>
+      <c r="P108" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>1107</v>
+      </c>
+      <c r="R108" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="109" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F109" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I109" t="s">
+        <v>839</v>
+      </c>
+      <c r="J109" t="s">
+        <v>840</v>
+      </c>
+      <c r="K109" t="s">
+        <v>841</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="N109" t="s">
+        <v>839</v>
+      </c>
+      <c r="O109" t="s">
+        <v>840</v>
+      </c>
+      <c r="P109" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>1109</v>
+      </c>
+      <c r="R109" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="110" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F110" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I110" t="s">
+        <v>842</v>
+      </c>
+      <c r="J110" t="s">
+        <v>679</v>
+      </c>
+      <c r="K110" t="s">
+        <v>843</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N110" t="s">
+        <v>842</v>
+      </c>
+      <c r="O110" t="s">
+        <v>679</v>
+      </c>
+      <c r="P110" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>1111</v>
+      </c>
+      <c r="R110" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="111" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F111" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I111" t="s">
+        <v>844</v>
+      </c>
+      <c r="J111" t="s">
+        <v>845</v>
+      </c>
+      <c r="K111" t="s">
+        <v>846</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N111" t="s">
+        <v>844</v>
+      </c>
+      <c r="O111" t="s">
+        <v>845</v>
+      </c>
+      <c r="P111" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>1113</v>
+      </c>
+      <c r="R111" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="112" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F112" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I112" t="s">
+        <v>847</v>
+      </c>
+      <c r="J112" t="s">
+        <v>753</v>
+      </c>
+      <c r="K112" t="s">
+        <v>848</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="N112" t="s">
+        <v>847</v>
+      </c>
+      <c r="O112" t="s">
+        <v>753</v>
+      </c>
+      <c r="P112" t="s">
+        <v>915</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>1115</v>
+      </c>
+      <c r="R112" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="113" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F113" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I113" t="s">
+        <v>849</v>
+      </c>
+      <c r="J113" t="s">
+        <v>624</v>
+      </c>
+      <c r="K113" t="s">
+        <v>850</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="N113" t="s">
+        <v>849</v>
+      </c>
+      <c r="O113" t="s">
+        <v>624</v>
+      </c>
+      <c r="P113" t="s">
+        <v>905</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>1117</v>
+      </c>
+      <c r="R113" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="114" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F114" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I114" t="s">
+        <v>851</v>
+      </c>
+      <c r="J114" t="s">
+        <v>734</v>
+      </c>
+      <c r="K114" t="s">
+        <v>852</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N114" t="s">
+        <v>851</v>
+      </c>
+      <c r="O114" t="s">
+        <v>734</v>
+      </c>
+      <c r="P114" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>1119</v>
+      </c>
+      <c r="R114" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="115" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F115" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I115" t="s">
+        <v>853</v>
+      </c>
+      <c r="J115" t="s">
+        <v>780</v>
+      </c>
+      <c r="K115" t="s">
+        <v>854</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N115" t="s">
+        <v>853</v>
+      </c>
+      <c r="O115" t="s">
+        <v>780</v>
+      </c>
+      <c r="P115" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R115" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="116" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F116" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I116" t="s">
+        <v>855</v>
+      </c>
+      <c r="J116" t="s">
+        <v>805</v>
+      </c>
+      <c r="K116" t="s">
+        <v>856</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="N116" t="s">
+        <v>855</v>
+      </c>
+      <c r="O116" t="s">
+        <v>805</v>
+      </c>
+      <c r="P116" t="s">
+        <v>932</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>1123</v>
+      </c>
+      <c r="R116" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="117" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F117" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I117" t="s">
+        <v>857</v>
+      </c>
+      <c r="J117" t="s">
+        <v>805</v>
+      </c>
+      <c r="K117" t="s">
+        <v>858</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N117" t="s">
+        <v>857</v>
+      </c>
+      <c r="O117" t="s">
+        <v>805</v>
+      </c>
+      <c r="P117" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>1125</v>
+      </c>
+      <c r="R117" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="118" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F118" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I118" t="s">
+        <v>859</v>
+      </c>
+      <c r="J118" t="s">
+        <v>734</v>
+      </c>
+      <c r="K118" t="s">
+        <v>860</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="N118" t="s">
+        <v>859</v>
+      </c>
+      <c r="O118" t="s">
+        <v>734</v>
+      </c>
+      <c r="P118" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>1127</v>
+      </c>
+      <c r="R118" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="119" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F119" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I119" t="s">
+        <v>861</v>
+      </c>
+      <c r="J119" t="s">
+        <v>862</v>
+      </c>
+      <c r="K119" t="s">
+        <v>863</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N119" t="s">
+        <v>861</v>
+      </c>
+      <c r="O119" t="s">
+        <v>862</v>
+      </c>
+      <c r="P119" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>1129</v>
+      </c>
+      <c r="R119" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="120" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F120" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I120" t="s">
+        <v>864</v>
+      </c>
+      <c r="J120" t="s">
+        <v>615</v>
+      </c>
+      <c r="K120" t="s">
+        <v>865</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N120" t="s">
+        <v>864</v>
+      </c>
+      <c r="O120" t="s">
+        <v>615</v>
+      </c>
+      <c r="P120" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R120" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="121" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F121" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I121" t="s">
+        <v>866</v>
+      </c>
+      <c r="J121" t="s">
+        <v>723</v>
+      </c>
+      <c r="K121" t="s">
+        <v>867</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N121" t="s">
+        <v>866</v>
+      </c>
+      <c r="O121" t="s">
+        <v>723</v>
+      </c>
+      <c r="P121" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>1133</v>
+      </c>
+      <c r="R121" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="122" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F122" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I122" t="s">
+        <v>868</v>
+      </c>
+      <c r="J122" t="s">
+        <v>869</v>
+      </c>
+      <c r="K122" t="s">
+        <v>870</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="N122" t="s">
+        <v>868</v>
+      </c>
+      <c r="O122" t="s">
+        <v>869</v>
+      </c>
+      <c r="P122" t="s">
+        <v>999</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>1135</v>
+      </c>
+      <c r="R122" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="123" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F123" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I123" t="s">
+        <v>871</v>
+      </c>
+      <c r="J123" t="s">
+        <v>615</v>
+      </c>
+      <c r="K123" t="s">
+        <v>872</v>
+      </c>
+      <c r="L123">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="N123" t="s">
+        <v>871</v>
+      </c>
+      <c r="O123" t="s">
+        <v>615</v>
+      </c>
+      <c r="P123" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>1137</v>
+      </c>
+      <c r="R123" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="124" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F124" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I124" t="s">
+        <v>873</v>
+      </c>
+      <c r="J124" t="s">
+        <v>805</v>
+      </c>
+      <c r="K124" t="s">
+        <v>874</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N124" t="s">
+        <v>873</v>
+      </c>
+      <c r="O124" t="s">
+        <v>805</v>
+      </c>
+      <c r="P124" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>1139</v>
+      </c>
+      <c r="R124" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="125" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F125" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I125" t="s">
+        <v>875</v>
+      </c>
+      <c r="J125" t="s">
+        <v>876</v>
+      </c>
+      <c r="K125" t="s">
+        <v>877</v>
+      </c>
+      <c r="L125">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="N125" t="s">
+        <v>875</v>
+      </c>
+      <c r="O125" t="s">
+        <v>876</v>
+      </c>
+      <c r="P125" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>1141</v>
+      </c>
+      <c r="R125" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="126" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F126" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I126" t="s">
+        <v>878</v>
+      </c>
+      <c r="J126" t="s">
+        <v>756</v>
+      </c>
+      <c r="K126" t="s">
+        <v>879</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="N126" t="s">
+        <v>878</v>
+      </c>
+      <c r="O126" t="s">
+        <v>756</v>
+      </c>
+      <c r="P126" t="s">
+        <v>988</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>1143</v>
+      </c>
+      <c r="R126" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="127" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F127" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I127" t="s">
+        <v>880</v>
+      </c>
+      <c r="J127" t="s">
+        <v>615</v>
+      </c>
+      <c r="K127" t="s">
+        <v>881</v>
+      </c>
+      <c r="L127">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="N127" t="s">
+        <v>880</v>
+      </c>
+      <c r="O127" t="s">
+        <v>615</v>
+      </c>
+      <c r="P127" t="s">
+        <v>896</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>1145</v>
+      </c>
+      <c r="R127" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="128" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F128" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="I128" t="s">
+        <v>882</v>
+      </c>
+      <c r="J128" t="s">
+        <v>746</v>
+      </c>
+      <c r="K128" t="s">
+        <v>883</v>
+      </c>
+      <c r="L128">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="N128" t="s">
+        <v>882</v>
+      </c>
+      <c r="O128" t="s">
+        <v>746</v>
+      </c>
+      <c r="P128" t="s">
+        <v>988</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>1147</v>
+      </c>
+      <c r="R128" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="129" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F129" t="s">
         <v>513</v>
+      </c>
+      <c r="I129" t="s">
+        <v>884</v>
+      </c>
+      <c r="J129" t="s">
+        <v>885</v>
+      </c>
+      <c r="K129" t="s">
+        <v>886</v>
+      </c>
+      <c r="L129">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="N129" t="s">
+        <v>884</v>
+      </c>
+      <c r="O129" t="s">
+        <v>885</v>
+      </c>
+      <c r="P129" t="s">
+        <v>988</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>1149</v>
+      </c>
+      <c r="R129" t="s">
+        <v>1150</v>
       </c>
     </row>
   </sheetData>
